--- a/기획서/스핀그로우 기획서_작성완료.xlsx
+++ b/기획서/스핀그로우 기획서_작성완료.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\학교\공모전 프로젝트\NoJump\기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322B2FB0-9B51-4402-838F-993A7972FA42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752D6B5A-B985-495E-8494-B29239EF1139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="11328" firstSheet="4" activeTab="7" xr2:uid="{6831196C-BD2B-4079-A5C5-73E04D2210C2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" firstSheet="4" activeTab="6" xr2:uid="{6831196C-BD2B-4079-A5C5-73E04D2210C2}"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="8" r:id="rId1"/>
@@ -684,10 +684,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>레벨업한 상태로 해당 부분을 지나갈 경우 늪처럼 점점 빠져 구덩이 아래에 있는 가시와 접촉하게 된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>lv3 이상부터 구덩이에 빠짐.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1156,6 +1152,10 @@
       </rPr>
       <t xml:space="preserve"> 창든 카드 병정</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨업한 상태로 해당 부분을 지나갈 경우 구덩이 아래에 있는 가시와 접촉하게 된다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2183,7 +2183,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="209">
+  <cellXfs count="207">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2382,6 +2382,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2421,193 +2469,235 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2637,59 +2727,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="56" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2710,12 +2776,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2727,77 +2787,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="56" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="73" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2806,9 +2803,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7400,38 +7394,38 @@
       <selection activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B2" s="66" t="s">
-        <v>256</v>
-      </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="68"/>
-    </row>
-    <row r="3" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="69"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="71"/>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B5" s="84" t="s">
+    <row r="1" spans="2:16" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B2" s="82" t="s">
+        <v>255</v>
+      </c>
+      <c r="C2" s="83"/>
+      <c r="D2" s="84"/>
+    </row>
+    <row r="3" spans="2:16" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="87"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B5" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="90" t="s">
+      <c r="C5" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="D5" s="90"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B6" s="84"/>
+      <c r="D5" s="77"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B6" s="71"/>
       <c r="C6" s="19" t="s">
         <v>126</v>
       </c>
       <c r="D6" s="19"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B7" s="55" t="s">
         <v>127</v>
       </c>
@@ -7440,16 +7434,16 @@
       </c>
       <c r="D7" s="19"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B8" s="55" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="90" t="s">
+      <c r="C8" s="77" t="s">
         <v>130</v>
       </c>
-      <c r="D8" s="90"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="D8" s="77"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B9" s="55" t="s">
         <v>131</v>
       </c>
@@ -7458,62 +7452,62 @@
       </c>
       <c r="D9" s="19"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B10" s="55" t="s">
+        <v>234</v>
+      </c>
+      <c r="C10" s="77" t="s">
         <v>235</v>
       </c>
-      <c r="C10" s="90" t="s">
-        <v>236</v>
-      </c>
-      <c r="D10" s="90"/>
-    </row>
-    <row r="11" spans="2:16" ht="13.8" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="13" spans="2:16" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="87" t="s">
+      <c r="D10" s="77"/>
+    </row>
+    <row r="11" spans="2:16" ht="13.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="13" spans="2:16" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="74" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="88"/>
-      <c r="L13" s="88"/>
-      <c r="M13" s="88"/>
-      <c r="N13" s="88"/>
-      <c r="O13" s="88"/>
-      <c r="P13" s="89"/>
-    </row>
-    <row r="14" spans="2:16" ht="185.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="83" t="s">
-        <v>233</v>
-      </c>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="83"/>
-      <c r="K14" s="83"/>
-      <c r="L14" s="83"/>
-      <c r="M14" s="83"/>
-      <c r="N14" s="83"/>
-      <c r="O14" s="83"/>
-      <c r="P14" s="83"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="75"/>
+      <c r="L13" s="75"/>
+      <c r="M13" s="75"/>
+      <c r="N13" s="75"/>
+      <c r="O13" s="75"/>
+      <c r="P13" s="76"/>
+    </row>
+    <row r="14" spans="2:16" ht="185.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="70" t="s">
+        <v>232</v>
+      </c>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="70"/>
+      <c r="N14" s="70"/>
+      <c r="O14" s="70"/>
+      <c r="P14" s="70"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.45">
       <c r="N15" s="54"/>
     </row>
-    <row r="16" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="85" t="s">
+    <row r="16" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="C16" s="86"/>
+      <c r="C16" s="73"/>
       <c r="D16" s="58"/>
       <c r="E16" s="58"/>
       <c r="F16" s="58"/>
@@ -7523,26 +7517,26 @@
       <c r="J16" s="58"/>
       <c r="K16" s="59"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B17" s="72" t="s">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B17" s="88" t="s">
         <v>134</v>
       </c>
-      <c r="C17" s="73"/>
+      <c r="C17" s="89"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B18" s="1"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B19" s="1"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B20" s="1"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" s="28"/>
       <c r="B21" s="38"/>
       <c r="C21" s="28"/>
@@ -7554,52 +7548,52 @@
       <c r="I21" s="28"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B22" s="1"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B23" s="1"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B24" s="1"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B25" s="1"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B26" s="76" t="s">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B26" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="77"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="77"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="93"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B27" s="78" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B27" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="79"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="79" t="s">
+      <c r="C27" s="81"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="G27" s="79"/>
-      <c r="H27" s="79"/>
-      <c r="I27" s="79"/>
-      <c r="J27" s="79"/>
+      <c r="G27" s="81"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="81"/>
       <c r="K27" s="47"/>
     </row>
-    <row r="43" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="74" t="s">
+    <row r="43" spans="2:16" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B43" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="75"/>
+      <c r="C43" s="91"/>
       <c r="D43" s="32"/>
       <c r="E43" s="32"/>
       <c r="F43" s="32"/>
@@ -7614,7 +7608,7 @@
       <c r="O43" s="32"/>
       <c r="P43" s="33"/>
     </row>
-    <row r="44" spans="2:16" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:16" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B44" s="6" t="s">
         <v>3</v>
       </c>
@@ -7626,7 +7620,7 @@
       </c>
       <c r="P44" s="2"/>
     </row>
-    <row r="45" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:16" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B45" s="8" t="s">
         <v>6</v>
       </c>
@@ -7649,7 +7643,7 @@
       <c r="O45" s="9"/>
       <c r="P45" s="10"/>
     </row>
-    <row r="46" spans="2:16" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:16" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B46" s="7" t="s">
         <v>7</v>
       </c>
@@ -7672,7 +7666,7 @@
       <c r="O46" s="4"/>
       <c r="P46" s="5"/>
     </row>
-    <row r="47" spans="2:16" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:16" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B47" s="7" t="s">
         <v>10</v>
       </c>
@@ -7695,7 +7689,7 @@
       <c r="O47" s="4"/>
       <c r="P47" s="5"/>
     </row>
-    <row r="48" spans="2:16" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:16" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B48" s="7" t="s">
         <v>13</v>
       </c>
@@ -7718,14 +7712,14 @@
       <c r="O48" s="4"/>
       <c r="P48" s="5"/>
     </row>
-    <row r="49" spans="2:16" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="92" t="s">
+    <row r="49" spans="2:16" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="C49" s="91" t="s">
+      <c r="C49" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="D49" s="91"/>
+      <c r="D49" s="78"/>
       <c r="E49" s="16" t="s">
         <v>21</v>
       </c>
@@ -7741,10 +7735,10 @@
       <c r="O49" s="16"/>
       <c r="P49" s="14"/>
     </row>
-    <row r="50" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="93"/>
-      <c r="C50" s="91"/>
-      <c r="D50" s="91"/>
+    <row r="50" spans="2:16" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B50" s="80"/>
+      <c r="C50" s="78"/>
+      <c r="D50" s="78"/>
       <c r="E50" s="9" t="s">
         <v>22</v>
       </c>
@@ -7760,29 +7754,34 @@
       <c r="O50" s="9"/>
       <c r="P50" s="10"/>
     </row>
-    <row r="51" spans="2:16" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:16" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B51" s="17"/>
       <c r="C51" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D51" s="80" t="s">
-        <v>234</v>
-      </c>
-      <c r="E51" s="81"/>
-      <c r="F51" s="81"/>
-      <c r="G51" s="81"/>
-      <c r="H51" s="81"/>
-      <c r="I51" s="81"/>
-      <c r="J51" s="81"/>
-      <c r="K51" s="81"/>
-      <c r="L51" s="81"/>
-      <c r="M51" s="81"/>
-      <c r="N51" s="81"/>
-      <c r="O51" s="81"/>
-      <c r="P51" s="82"/>
+      <c r="D51" s="67" t="s">
+        <v>233</v>
+      </c>
+      <c r="E51" s="68"/>
+      <c r="F51" s="68"/>
+      <c r="G51" s="68"/>
+      <c r="H51" s="68"/>
+      <c r="I51" s="68"/>
+      <c r="J51" s="68"/>
+      <c r="K51" s="68"/>
+      <c r="L51" s="68"/>
+      <c r="M51" s="68"/>
+      <c r="N51" s="68"/>
+      <c r="O51" s="68"/>
+      <c r="P51" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
     <mergeCell ref="D51:P51"/>
     <mergeCell ref="B14:P14"/>
     <mergeCell ref="B5:B6"/>
@@ -7794,11 +7793,6 @@
     <mergeCell ref="C49:D50"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="F27:J27"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7814,24 +7808,24 @@
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="114" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="116"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="113" t="s">
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="99"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="102"/>
+      <c r="B2" s="96"/>
       <c r="C2" s="22" t="s">
         <v>58</v>
       </c>
@@ -7848,11 +7842,11 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="113" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="102"/>
+      <c r="B3" s="96"/>
       <c r="C3" s="22">
         <v>10</v>
       </c>
@@ -7869,11 +7863,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="113" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="102"/>
+      <c r="B4" s="96"/>
       <c r="C4" s="22">
         <v>10</v>
       </c>
@@ -7890,11 +7884,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="113" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="102"/>
+      <c r="B5" s="96"/>
       <c r="C5" s="22">
         <v>5</v>
       </c>
@@ -7911,11 +7905,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="113" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="102"/>
+      <c r="B6" s="96"/>
       <c r="C6" s="22">
         <v>1</v>
       </c>
@@ -7932,11 +7926,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="113" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" s="95" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="102"/>
+      <c r="B7" s="96"/>
       <c r="C7" s="22">
         <v>1</v>
       </c>
@@ -7953,11 +7947,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="113" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" s="95" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="102"/>
+      <c r="B8" s="96"/>
       <c r="C8" s="22">
         <v>2</v>
       </c>
@@ -7974,11 +7968,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="113" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" s="95" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="102"/>
+      <c r="B9" s="96"/>
       <c r="C9" s="22">
         <v>0</v>
       </c>
@@ -7995,11 +7989,11 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="113" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="102"/>
+      <c r="B10" s="96"/>
       <c r="C10" s="22">
         <v>0</v>
       </c>
@@ -8016,11 +8010,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="113" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="102"/>
+      <c r="B11" s="96"/>
       <c r="C11" s="22">
         <v>0</v>
       </c>
@@ -8037,11 +8031,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="113" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="102"/>
+      <c r="B12" s="96"/>
       <c r="C12" s="22">
         <v>100</v>
       </c>
@@ -8058,11 +8052,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="111" t="s">
+    <row r="13" spans="1:7" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="100" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="112"/>
+      <c r="B13" s="101"/>
       <c r="C13" s="25">
         <v>1</v>
       </c>
@@ -8079,96 +8073,96 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17" s="110" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="110"/>
-      <c r="C17" s="110"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="110"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18" s="102" t="s">
+      <c r="B17" s="102"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="102"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="102"/>
-      <c r="C18" s="102" t="s">
+      <c r="B18" s="96"/>
+      <c r="C18" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="102"/>
-      <c r="E18" s="102"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="102"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A19" s="102" t="s">
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" s="96" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="102"/>
-      <c r="C19" s="102" t="s">
+      <c r="B19" s="96"/>
+      <c r="C19" s="96" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="102"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="102"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A20" s="102" t="s">
+      <c r="D19" s="96"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="96"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" s="96" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="102"/>
-      <c r="C20" s="102" t="s">
+      <c r="B20" s="96"/>
+      <c r="C20" s="96" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="102"/>
-      <c r="E20" s="102"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="102"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A21" s="102" t="s">
+      <c r="D20" s="96"/>
+      <c r="E20" s="96"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="96"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" s="96" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="102"/>
-      <c r="C21" s="102" t="s">
+      <c r="B21" s="96"/>
+      <c r="C21" s="96" t="s">
         <v>83</v>
       </c>
-      <c r="D21" s="102"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="102"/>
-      <c r="G21" s="102"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A22" s="102" t="s">
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" s="96" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="102"/>
-      <c r="C22" s="102" t="s">
+      <c r="B22" s="96"/>
+      <c r="C22" s="96" t="s">
         <v>85</v>
       </c>
-      <c r="D22" s="102"/>
-      <c r="E22" s="102"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="102"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A23" s="102" t="s">
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="96"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="B23" s="102"/>
-      <c r="C23" s="102" t="s">
+      <c r="B23" s="96"/>
+      <c r="C23" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="102"/>
-      <c r="E23" s="102"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="102"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="D23" s="96"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="96"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="27"/>
       <c r="B24" s="27"/>
       <c r="C24" s="27"/>
@@ -8177,7 +8171,7 @@
       <c r="F24" s="27"/>
       <c r="G24" s="27"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="27"/>
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
@@ -8186,143 +8180,143 @@
       <c r="F25" s="27"/>
       <c r="G25" s="27"/>
     </row>
-    <row r="26" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A27" s="94" t="s">
+    <row r="26" spans="1:7" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A27" s="103" t="s">
         <v>88</v>
       </c>
-      <c r="B27" s="95"/>
-      <c r="C27" s="95"/>
-      <c r="D27" s="95"/>
-      <c r="E27" s="95"/>
-      <c r="F27" s="95"/>
-      <c r="G27" s="96"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A28" s="97" t="s">
+      <c r="B27" s="104"/>
+      <c r="C27" s="104"/>
+      <c r="D27" s="104"/>
+      <c r="E27" s="104"/>
+      <c r="F27" s="104"/>
+      <c r="G27" s="105"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A28" s="106" t="s">
         <v>89</v>
       </c>
-      <c r="B28" s="91"/>
-      <c r="C28" s="104" t="s">
+      <c r="B28" s="78"/>
+      <c r="C28" s="107" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="105"/>
-      <c r="E28" s="105"/>
-      <c r="F28" s="105"/>
-      <c r="G28" s="106"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A29" s="97"/>
-      <c r="B29" s="91"/>
-      <c r="C29" s="76"/>
-      <c r="D29" s="77"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="77"/>
-      <c r="G29" s="107"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A30" s="97"/>
-      <c r="B30" s="91"/>
-      <c r="C30" s="78"/>
-      <c r="D30" s="79"/>
-      <c r="E30" s="79"/>
-      <c r="F30" s="79"/>
-      <c r="G30" s="108"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A31" s="97" t="s">
+      <c r="D28" s="108"/>
+      <c r="E28" s="108"/>
+      <c r="F28" s="108"/>
+      <c r="G28" s="109"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A29" s="106"/>
+      <c r="B29" s="78"/>
+      <c r="C29" s="92"/>
+      <c r="D29" s="93"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="110"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A30" s="106"/>
+      <c r="B30" s="78"/>
+      <c r="C30" s="94"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="81"/>
+      <c r="G30" s="111"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A31" s="106" t="s">
         <v>91</v>
       </c>
-      <c r="B31" s="91"/>
-      <c r="C31" s="104" t="s">
+      <c r="B31" s="78"/>
+      <c r="C31" s="107" t="s">
         <v>92</v>
       </c>
-      <c r="D31" s="105"/>
-      <c r="E31" s="105"/>
-      <c r="F31" s="105"/>
-      <c r="G31" s="106"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A32" s="97"/>
-      <c r="B32" s="91"/>
-      <c r="C32" s="76"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="77"/>
-      <c r="G32" s="107"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A33" s="97"/>
-      <c r="B33" s="91"/>
-      <c r="C33" s="78"/>
-      <c r="D33" s="79"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="108"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A34" s="97" t="s">
+      <c r="D31" s="108"/>
+      <c r="E31" s="108"/>
+      <c r="F31" s="108"/>
+      <c r="G31" s="109"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A32" s="106"/>
+      <c r="B32" s="78"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
+      <c r="G32" s="110"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A33" s="106"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="94"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="81"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="111"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A34" s="106" t="s">
         <v>93</v>
       </c>
-      <c r="B34" s="91"/>
-      <c r="C34" s="104" t="s">
+      <c r="B34" s="78"/>
+      <c r="C34" s="107" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="105"/>
-      <c r="E34" s="105"/>
-      <c r="F34" s="105"/>
-      <c r="G34" s="106"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A35" s="97"/>
-      <c r="B35" s="91"/>
-      <c r="C35" s="76"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="107"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A36" s="97"/>
-      <c r="B36" s="91"/>
-      <c r="C36" s="78"/>
-      <c r="D36" s="79"/>
-      <c r="E36" s="79"/>
-      <c r="F36" s="79"/>
-      <c r="G36" s="108"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A37" s="97" t="s">
+      <c r="D34" s="108"/>
+      <c r="E34" s="108"/>
+      <c r="F34" s="108"/>
+      <c r="G34" s="109"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A35" s="106"/>
+      <c r="B35" s="78"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="93"/>
+      <c r="E35" s="93"/>
+      <c r="F35" s="93"/>
+      <c r="G35" s="110"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A36" s="106"/>
+      <c r="B36" s="78"/>
+      <c r="C36" s="94"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="81"/>
+      <c r="F36" s="81"/>
+      <c r="G36" s="111"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A37" s="106" t="s">
         <v>94</v>
       </c>
-      <c r="B37" s="91"/>
-      <c r="C37" s="104" t="s">
+      <c r="B37" s="78"/>
+      <c r="C37" s="107" t="s">
         <v>95</v>
       </c>
-      <c r="D37" s="105"/>
-      <c r="E37" s="105"/>
-      <c r="F37" s="105"/>
-      <c r="G37" s="106"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A38" s="97"/>
-      <c r="B38" s="91"/>
-      <c r="C38" s="76"/>
-      <c r="D38" s="77"/>
-      <c r="E38" s="77"/>
-      <c r="F38" s="77"/>
-      <c r="G38" s="107"/>
-    </row>
-    <row r="39" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="99"/>
-      <c r="B39" s="100"/>
-      <c r="C39" s="109"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="70"/>
-      <c r="F39" s="70"/>
-      <c r="G39" s="71"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="D37" s="108"/>
+      <c r="E37" s="108"/>
+      <c r="F37" s="108"/>
+      <c r="G37" s="109"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A38" s="106"/>
+      <c r="B38" s="78"/>
+      <c r="C38" s="92"/>
+      <c r="D38" s="93"/>
+      <c r="E38" s="93"/>
+      <c r="F38" s="93"/>
+      <c r="G38" s="110"/>
+    </row>
+    <row r="39" spans="1:7" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A39" s="112"/>
+      <c r="B39" s="113"/>
+      <c r="C39" s="114"/>
+      <c r="D39" s="86"/>
+      <c r="E39" s="86"/>
+      <c r="F39" s="86"/>
+      <c r="G39" s="87"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="28"/>
       <c r="B40" s="28"/>
       <c r="C40" s="28"/>
@@ -8331,7 +8325,7 @@
       <c r="F40" s="28"/>
       <c r="G40" s="28"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="28"/>
       <c r="B41" s="28"/>
       <c r="C41" s="28"/>
@@ -8340,7 +8334,7 @@
       <c r="F41" s="28"/>
       <c r="G41" s="28"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" s="28"/>
       <c r="B42" s="28"/>
       <c r="C42" s="28"/>
@@ -8349,213 +8343,212 @@
       <c r="F42" s="28"/>
       <c r="G42" s="28"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A43" s="110" t="s">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A43" s="102" t="s">
         <v>96</v>
       </c>
-      <c r="B43" s="110"/>
-      <c r="C43" s="110"/>
-      <c r="D43" s="110"/>
-      <c r="E43" s="110"/>
-      <c r="F43" s="110"/>
-      <c r="G43" s="110"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A44" s="102" t="s">
+      <c r="B43" s="102"/>
+      <c r="C43" s="102"/>
+      <c r="D43" s="102"/>
+      <c r="E43" s="102"/>
+      <c r="F43" s="102"/>
+      <c r="G43" s="102"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A44" s="96" t="s">
         <v>97</v>
       </c>
-      <c r="B44" s="102"/>
-      <c r="C44" s="102" t="s">
+      <c r="B44" s="96"/>
+      <c r="C44" s="96" t="s">
         <v>98</v>
       </c>
-      <c r="D44" s="102"/>
-      <c r="E44" s="102"/>
-      <c r="F44" s="102"/>
-      <c r="G44" s="102"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A45" s="102" t="s">
+      <c r="D44" s="96"/>
+      <c r="E44" s="96"/>
+      <c r="F44" s="96"/>
+      <c r="G44" s="96"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A45" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="B45" s="102"/>
-      <c r="C45" s="102" t="s">
+      <c r="B45" s="96"/>
+      <c r="C45" s="96" t="s">
         <v>100</v>
       </c>
-      <c r="D45" s="102"/>
-      <c r="E45" s="102"/>
-      <c r="F45" s="102"/>
-      <c r="G45" s="102"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A46" s="103" t="s">
+      <c r="D45" s="96"/>
+      <c r="E45" s="96"/>
+      <c r="F45" s="96"/>
+      <c r="G45" s="96"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A46" s="115" t="s">
         <v>101</v>
       </c>
-      <c r="B46" s="103"/>
-      <c r="C46" s="103" t="s">
+      <c r="B46" s="115"/>
+      <c r="C46" s="115" t="s">
         <v>102</v>
       </c>
-      <c r="D46" s="103"/>
-      <c r="E46" s="103"/>
-      <c r="F46" s="103"/>
-      <c r="G46" s="103"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A47" s="102" t="s">
+      <c r="D46" s="115"/>
+      <c r="E46" s="115"/>
+      <c r="F46" s="115"/>
+      <c r="G46" s="115"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A47" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="B47" s="102"/>
-      <c r="C47" s="102" t="s">
+      <c r="B47" s="96"/>
+      <c r="C47" s="96" t="s">
         <v>104</v>
       </c>
-      <c r="D47" s="102"/>
-      <c r="E47" s="102"/>
-      <c r="F47" s="102"/>
-      <c r="G47" s="102"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A48" s="102" t="s">
+      <c r="D47" s="96"/>
+      <c r="E47" s="96"/>
+      <c r="F47" s="96"/>
+      <c r="G47" s="96"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A48" s="96" t="s">
         <v>105</v>
       </c>
-      <c r="B48" s="102"/>
-      <c r="C48" s="102" t="s">
+      <c r="B48" s="96"/>
+      <c r="C48" s="96" t="s">
         <v>106</v>
       </c>
-      <c r="D48" s="102"/>
-      <c r="E48" s="102"/>
-      <c r="F48" s="102"/>
-      <c r="G48" s="102"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A49" s="102" t="s">
+      <c r="D48" s="96"/>
+      <c r="E48" s="96"/>
+      <c r="F48" s="96"/>
+      <c r="G48" s="96"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A49" s="96" t="s">
         <v>107</v>
       </c>
-      <c r="B49" s="102"/>
-      <c r="C49" s="102" t="s">
+      <c r="B49" s="96"/>
+      <c r="C49" s="96" t="s">
         <v>108</v>
       </c>
-      <c r="D49" s="102"/>
-      <c r="E49" s="102"/>
-      <c r="F49" s="102"/>
-      <c r="G49" s="102"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A50" s="77"/>
-      <c r="B50" s="77"/>
-      <c r="C50" s="77"/>
-      <c r="D50" s="77"/>
-      <c r="E50" s="77"/>
-      <c r="F50" s="77"/>
-      <c r="G50" s="77"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A51" s="77"/>
-      <c r="B51" s="77"/>
-      <c r="C51" s="77"/>
-      <c r="D51" s="77"/>
-      <c r="E51" s="77"/>
-      <c r="F51" s="77"/>
-      <c r="G51" s="77"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A52" s="77"/>
-      <c r="B52" s="77"/>
-      <c r="C52" s="77"/>
-      <c r="D52" s="77"/>
-      <c r="E52" s="77"/>
-      <c r="F52" s="77"/>
-      <c r="G52" s="77"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A53" s="77"/>
-      <c r="B53" s="77"/>
-      <c r="C53" s="77"/>
-      <c r="D53" s="77"/>
-      <c r="E53" s="77"/>
-      <c r="F53" s="77"/>
-      <c r="G53" s="77"/>
-    </row>
-    <row r="54" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A55" s="94" t="s">
+      <c r="D49" s="96"/>
+      <c r="E49" s="96"/>
+      <c r="F49" s="96"/>
+      <c r="G49" s="96"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A50" s="93"/>
+      <c r="B50" s="93"/>
+      <c r="C50" s="93"/>
+      <c r="D50" s="93"/>
+      <c r="E50" s="93"/>
+      <c r="F50" s="93"/>
+      <c r="G50" s="93"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A51" s="93"/>
+      <c r="B51" s="93"/>
+      <c r="C51" s="93"/>
+      <c r="D51" s="93"/>
+      <c r="E51" s="93"/>
+      <c r="F51" s="93"/>
+      <c r="G51" s="93"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A52" s="93"/>
+      <c r="B52" s="93"/>
+      <c r="C52" s="93"/>
+      <c r="D52" s="93"/>
+      <c r="E52" s="93"/>
+      <c r="F52" s="93"/>
+      <c r="G52" s="93"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A53" s="93"/>
+      <c r="B53" s="93"/>
+      <c r="C53" s="93"/>
+      <c r="D53" s="93"/>
+      <c r="E53" s="93"/>
+      <c r="F53" s="93"/>
+      <c r="G53" s="93"/>
+    </row>
+    <row r="54" spans="1:7" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A55" s="103" t="s">
         <v>109</v>
       </c>
-      <c r="B55" s="95"/>
-      <c r="C55" s="95"/>
-      <c r="D55" s="95"/>
-      <c r="E55" s="95"/>
-      <c r="F55" s="95"/>
-      <c r="G55" s="96"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A56" s="97" t="s">
+      <c r="B55" s="104"/>
+      <c r="C55" s="104"/>
+      <c r="D55" s="104"/>
+      <c r="E55" s="104"/>
+      <c r="F55" s="104"/>
+      <c r="G55" s="105"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A56" s="106" t="s">
         <v>110</v>
       </c>
-      <c r="B56" s="91"/>
-      <c r="C56" s="91"/>
-      <c r="D56" s="91"/>
-      <c r="E56" s="91"/>
-      <c r="F56" s="91"/>
-      <c r="G56" s="98"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A57" s="97" t="s">
+      <c r="B56" s="78"/>
+      <c r="C56" s="78"/>
+      <c r="D56" s="78"/>
+      <c r="E56" s="78"/>
+      <c r="F56" s="78"/>
+      <c r="G56" s="116"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A57" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="B57" s="91"/>
-      <c r="C57" s="91"/>
-      <c r="D57" s="91"/>
-      <c r="E57" s="91"/>
-      <c r="F57" s="91"/>
-      <c r="G57" s="98"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A58" s="97" t="s">
+      <c r="B57" s="78"/>
+      <c r="C57" s="78"/>
+      <c r="D57" s="78"/>
+      <c r="E57" s="78"/>
+      <c r="F57" s="78"/>
+      <c r="G57" s="116"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A58" s="106" t="s">
         <v>112</v>
       </c>
-      <c r="B58" s="91"/>
-      <c r="C58" s="91"/>
-      <c r="D58" s="91"/>
-      <c r="E58" s="91"/>
-      <c r="F58" s="91"/>
-      <c r="G58" s="98"/>
-    </row>
-    <row r="59" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="99" t="s">
+      <c r="B58" s="78"/>
+      <c r="C58" s="78"/>
+      <c r="D58" s="78"/>
+      <c r="E58" s="78"/>
+      <c r="F58" s="78"/>
+      <c r="G58" s="116"/>
+    </row>
+    <row r="59" spans="1:7" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A59" s="112" t="s">
         <v>113</v>
       </c>
-      <c r="B59" s="100"/>
-      <c r="C59" s="100"/>
-      <c r="D59" s="100"/>
-      <c r="E59" s="100"/>
-      <c r="F59" s="100"/>
-      <c r="G59" s="101"/>
+      <c r="B59" s="113"/>
+      <c r="C59" s="113"/>
+      <c r="D59" s="113"/>
+      <c r="E59" s="113"/>
+      <c r="F59" s="113"/>
+      <c r="G59" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="A55:G55"/>
+    <mergeCell ref="A56:G56"/>
+    <mergeCell ref="A57:G57"/>
+    <mergeCell ref="A58:G58"/>
+    <mergeCell ref="A59:G59"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="C44:G44"/>
     <mergeCell ref="A23:B23"/>
@@ -8570,29 +8563,30 @@
     <mergeCell ref="A37:B39"/>
     <mergeCell ref="C37:G39"/>
     <mergeCell ref="A43:G43"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="A55:G55"/>
-    <mergeCell ref="A56:G56"/>
-    <mergeCell ref="A57:G57"/>
-    <mergeCell ref="A58:G58"/>
-    <mergeCell ref="A59:G59"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8607,99 +8601,99 @@
       <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B2" s="195"/>
-      <c r="C2" s="195"/>
-    </row>
-    <row r="17" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="18" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="139" t="s">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+    </row>
+    <row r="17" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="18" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B18" s="118" t="s">
+        <v>256</v>
+      </c>
+      <c r="C18" s="119"/>
+      <c r="D18" s="119"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="119"/>
+      <c r="G18" s="119"/>
+      <c r="H18" s="119"/>
+      <c r="I18" s="119"/>
+      <c r="J18" s="120"/>
+    </row>
+    <row r="19" spans="2:10" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="125" t="s">
         <v>257</v>
       </c>
-      <c r="C18" s="140"/>
-      <c r="D18" s="140"/>
-      <c r="E18" s="140"/>
-      <c r="F18" s="140"/>
-      <c r="G18" s="140"/>
-      <c r="H18" s="140"/>
-      <c r="I18" s="140"/>
-      <c r="J18" s="141"/>
-    </row>
-    <row r="19" spans="2:10" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="198" t="s">
+      <c r="C19" s="80"/>
+      <c r="D19" s="130" t="s">
+        <v>260</v>
+      </c>
+      <c r="E19" s="130"/>
+      <c r="F19" s="130"/>
+      <c r="G19" s="130"/>
+      <c r="H19" s="130"/>
+      <c r="I19" s="130"/>
+      <c r="J19" s="131"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B20" s="126" t="s">
         <v>258</v>
       </c>
-      <c r="C19" s="93"/>
-      <c r="D19" s="176" t="s">
+      <c r="C20" s="127"/>
+      <c r="D20" s="78" t="s">
         <v>261</v>
       </c>
-      <c r="E19" s="176"/>
-      <c r="F19" s="176"/>
-      <c r="G19" s="176"/>
-      <c r="H19" s="176"/>
-      <c r="I19" s="176"/>
-      <c r="J19" s="177"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B20" s="194" t="s">
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="116"/>
+    </row>
+    <row r="21" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B21" s="128" t="s">
         <v>259</v>
       </c>
-      <c r="C20" s="192"/>
-      <c r="D20" s="91" t="s">
+      <c r="C21" s="129"/>
+      <c r="D21" s="113" t="s">
         <v>262</v>
       </c>
-      <c r="E20" s="91"/>
-      <c r="F20" s="91"/>
-      <c r="G20" s="91"/>
-      <c r="H20" s="91"/>
-      <c r="I20" s="91"/>
-      <c r="J20" s="98"/>
-    </row>
-    <row r="21" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="196" t="s">
-        <v>260</v>
-      </c>
-      <c r="C21" s="197"/>
-      <c r="D21" s="100" t="s">
+      <c r="E21" s="113"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="117"/>
+    </row>
+    <row r="39" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="40" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B40" s="118" t="s">
         <v>263</v>
       </c>
-      <c r="E21" s="100"/>
-      <c r="F21" s="100"/>
-      <c r="G21" s="100"/>
-      <c r="H21" s="100"/>
-      <c r="I21" s="100"/>
-      <c r="J21" s="101"/>
-    </row>
-    <row r="39" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="40" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="139" t="s">
+      <c r="C40" s="119"/>
+      <c r="D40" s="119"/>
+      <c r="E40" s="119"/>
+      <c r="F40" s="119"/>
+      <c r="G40" s="119"/>
+      <c r="H40" s="119"/>
+      <c r="I40" s="119"/>
+      <c r="J40" s="120"/>
+    </row>
+    <row r="41" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B41" s="121" t="s">
         <v>264</v>
       </c>
-      <c r="C40" s="140"/>
-      <c r="D40" s="140"/>
-      <c r="E40" s="140"/>
-      <c r="F40" s="140"/>
-      <c r="G40" s="140"/>
-      <c r="H40" s="140"/>
-      <c r="I40" s="140"/>
-      <c r="J40" s="141"/>
-    </row>
-    <row r="41" spans="2:10" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="199" t="s">
+      <c r="C41" s="122"/>
+      <c r="D41" s="123" t="s">
         <v>265</v>
       </c>
-      <c r="C41" s="200"/>
-      <c r="D41" s="201" t="s">
-        <v>266</v>
-      </c>
-      <c r="E41" s="201"/>
-      <c r="F41" s="201"/>
-      <c r="G41" s="201"/>
-      <c r="H41" s="201"/>
-      <c r="I41" s="201"/>
-      <c r="J41" s="202"/>
+      <c r="E41" s="123"/>
+      <c r="F41" s="123"/>
+      <c r="G41" s="123"/>
+      <c r="H41" s="123"/>
+      <c r="I41" s="123"/>
+      <c r="J41" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -8728,91 +8722,91 @@
       <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="6" max="6" width="8.69921875" customWidth="1"/>
-    <col min="15" max="15" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="15" max="15" width="9.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B19" s="29"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B23" s="117" t="s">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B23" s="151" t="s">
         <v>146</v>
       </c>
-      <c r="C23" s="117"/>
-      <c r="D23" s="117"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="117"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="117"/>
-      <c r="I23" s="117"/>
-      <c r="J23" s="117"/>
-      <c r="K23" s="117"/>
-      <c r="L23" s="117"/>
-      <c r="M23" s="117"/>
-      <c r="N23" s="117"/>
-    </row>
-    <row r="24" spans="2:14" ht="150.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="122" t="s">
+      <c r="C23" s="151"/>
+      <c r="D23" s="151"/>
+      <c r="E23" s="151"/>
+      <c r="F23" s="151"/>
+      <c r="G23" s="151"/>
+      <c r="H23" s="151"/>
+      <c r="I23" s="151"/>
+      <c r="J23" s="151"/>
+      <c r="K23" s="151"/>
+      <c r="L23" s="151"/>
+      <c r="M23" s="151"/>
+      <c r="N23" s="151"/>
+    </row>
+    <row r="24" spans="2:14" ht="150.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="132" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="123"/>
-      <c r="D24" s="128" t="s">
-        <v>182</v>
-      </c>
-      <c r="E24" s="129"/>
-      <c r="F24" s="129"/>
-      <c r="G24" s="129"/>
-      <c r="H24" s="129"/>
-      <c r="I24" s="129"/>
-      <c r="J24" s="129"/>
-      <c r="K24" s="129"/>
-      <c r="L24" s="129"/>
-      <c r="M24" s="130"/>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B25" s="124"/>
-      <c r="C25" s="125"/>
-      <c r="D25" s="104" t="s">
+      <c r="C24" s="133"/>
+      <c r="D24" s="142" t="s">
+        <v>181</v>
+      </c>
+      <c r="E24" s="143"/>
+      <c r="F24" s="143"/>
+      <c r="G24" s="143"/>
+      <c r="H24" s="143"/>
+      <c r="I24" s="143"/>
+      <c r="J24" s="143"/>
+      <c r="K24" s="143"/>
+      <c r="L24" s="143"/>
+      <c r="M24" s="144"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B25" s="136"/>
+      <c r="C25" s="137"/>
+      <c r="D25" s="107" t="s">
         <v>144</v>
       </c>
-      <c r="E25" s="118"/>
-      <c r="F25" s="120" t="s">
+      <c r="E25" s="145"/>
+      <c r="F25" s="152" t="s">
         <v>135</v>
       </c>
-      <c r="G25" s="121"/>
-      <c r="H25" s="120" t="s">
+      <c r="G25" s="153"/>
+      <c r="H25" s="152" t="s">
         <v>143</v>
       </c>
-      <c r="I25" s="121"/>
+      <c r="I25" s="153"/>
       <c r="J25" s="19"/>
       <c r="K25" s="19"/>
       <c r="L25" s="19"/>
       <c r="M25" s="19"/>
     </row>
-    <row r="26" spans="2:14" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="124"/>
-      <c r="C26" s="125"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="119"/>
-      <c r="F26" s="120">
+    <row r="26" spans="2:14" ht="21.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="136"/>
+      <c r="C26" s="137"/>
+      <c r="D26" s="94"/>
+      <c r="E26" s="146"/>
+      <c r="F26" s="152">
         <v>20</v>
       </c>
-      <c r="G26" s="121"/>
-      <c r="H26" s="120" t="s">
+      <c r="G26" s="153"/>
+      <c r="H26" s="152" t="s">
         <v>140</v>
       </c>
-      <c r="I26" s="121"/>
+      <c r="I26" s="153"/>
       <c r="J26" s="19"/>
       <c r="K26" s="19"/>
       <c r="L26" s="19"/>
       <c r="M26" s="19"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B27" s="124"/>
-      <c r="C27" s="125"/>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B27" s="136"/>
+      <c r="C27" s="137"/>
       <c r="D27" s="19"/>
       <c r="E27" s="19" t="s">
         <v>136</v>
@@ -8834,9 +8828,9 @@
       <c r="L27" s="19"/>
       <c r="M27" s="19"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B28" s="124"/>
-      <c r="C28" s="125"/>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B28" s="136"/>
+      <c r="C28" s="137"/>
       <c r="D28" s="19" t="s">
         <v>142</v>
       </c>
@@ -8860,176 +8854,176 @@
       <c r="L28" s="19"/>
       <c r="M28" s="19"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B29" s="124"/>
-      <c r="C29" s="125"/>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B29" s="136"/>
+      <c r="C29" s="137"/>
       <c r="D29" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="E29" s="120" t="s">
-        <v>170</v>
-      </c>
-      <c r="F29" s="121"/>
+        <v>179</v>
+      </c>
+      <c r="E29" s="152" t="s">
+        <v>169</v>
+      </c>
+      <c r="F29" s="153"/>
       <c r="G29" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="H29" s="120">
+      <c r="H29" s="152">
         <v>20</v>
       </c>
-      <c r="I29" s="121"/>
+      <c r="I29" s="153"/>
       <c r="J29" s="19"/>
       <c r="K29" s="19"/>
       <c r="L29" s="19"/>
       <c r="M29" s="19"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B30" s="126"/>
-      <c r="C30" s="127"/>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B30" s="134"/>
+      <c r="C30" s="135"/>
       <c r="D30" s="19" t="s">
         <v>145</v>
       </c>
       <c r="E30" s="19"/>
-      <c r="F30" s="131" t="s">
-        <v>181</v>
-      </c>
-      <c r="G30" s="132"/>
-      <c r="H30" s="132"/>
-      <c r="I30" s="132"/>
-      <c r="J30" s="132"/>
-      <c r="K30" s="132"/>
-      <c r="L30" s="132"/>
-      <c r="M30" s="133"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="F30" s="148" t="s">
+        <v>180</v>
+      </c>
+      <c r="G30" s="149"/>
+      <c r="H30" s="149"/>
+      <c r="I30" s="149"/>
+      <c r="J30" s="149"/>
+      <c r="K30" s="149"/>
+      <c r="L30" s="149"/>
+      <c r="M30" s="150"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B31" s="45"/>
       <c r="C31" s="45"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B32" s="45"/>
       <c r="C32" s="45"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B33" s="45"/>
       <c r="C33" s="45"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B35" s="48" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B66" s="71" t="s">
+        <v>37</v>
+      </c>
+      <c r="C66" s="71"/>
+      <c r="D66" s="77" t="s">
+        <v>173</v>
+      </c>
+      <c r="E66" s="77"/>
+      <c r="F66" s="77"/>
+      <c r="G66" s="77"/>
+      <c r="H66" s="77"/>
+      <c r="I66" s="77"/>
+      <c r="J66" s="77"/>
+      <c r="K66" s="77"/>
+      <c r="L66" s="77"/>
+      <c r="M66" s="77"/>
+      <c r="N66" s="77"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B67" s="71"/>
+      <c r="C67" s="71"/>
+      <c r="D67" s="78" t="s">
+        <v>206</v>
+      </c>
+      <c r="E67" s="78"/>
+      <c r="F67" s="78"/>
+      <c r="G67" s="19" t="s">
         <v>204</v>
-      </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B66" s="84" t="s">
-        <v>37</v>
-      </c>
-      <c r="C66" s="84"/>
-      <c r="D66" s="90" t="s">
-        <v>174</v>
-      </c>
-      <c r="E66" s="90"/>
-      <c r="F66" s="90"/>
-      <c r="G66" s="90"/>
-      <c r="H66" s="90"/>
-      <c r="I66" s="90"/>
-      <c r="J66" s="90"/>
-      <c r="K66" s="90"/>
-      <c r="L66" s="90"/>
-      <c r="M66" s="90"/>
-      <c r="N66" s="90"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B67" s="84"/>
-      <c r="C67" s="84"/>
-      <c r="D67" s="91" t="s">
-        <v>207</v>
-      </c>
-      <c r="E67" s="91"/>
-      <c r="F67" s="91"/>
-      <c r="G67" s="19" t="s">
-        <v>205</v>
       </c>
       <c r="H67" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B68" s="84"/>
-      <c r="C68" s="84"/>
-      <c r="D68" s="91"/>
-      <c r="E68" s="91"/>
-      <c r="F68" s="91"/>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B68" s="71"/>
+      <c r="C68" s="71"/>
+      <c r="D68" s="78"/>
+      <c r="E68" s="78"/>
+      <c r="F68" s="78"/>
       <c r="G68" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H68" s="19">
         <v>1.5</v>
       </c>
     </row>
-    <row r="69" spans="2:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B69" s="138" t="s">
+    <row r="69" spans="2:15" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="147" t="s">
+        <v>182</v>
+      </c>
+      <c r="C69" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="D69" s="148" t="s">
+        <v>254</v>
+      </c>
+      <c r="E69" s="149"/>
+      <c r="F69" s="149"/>
+      <c r="G69" s="149"/>
+      <c r="H69" s="149"/>
+      <c r="I69" s="149"/>
+      <c r="J69" s="149"/>
+      <c r="K69" s="149"/>
+      <c r="L69" s="149"/>
+      <c r="M69" s="149"/>
+      <c r="N69" s="150"/>
+    </row>
+    <row r="70" spans="2:15" ht="16.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="147"/>
+      <c r="C70" s="56" t="s">
+        <v>171</v>
+      </c>
+      <c r="D70" s="148" t="s">
+        <v>172</v>
+      </c>
+      <c r="E70" s="149"/>
+      <c r="F70" s="149"/>
+      <c r="G70" s="149"/>
+      <c r="H70" s="149"/>
+      <c r="I70" s="149"/>
+      <c r="J70" s="149"/>
+      <c r="K70" s="149"/>
+      <c r="L70" s="149"/>
+      <c r="M70" s="149"/>
+      <c r="N70" s="150"/>
+    </row>
+    <row r="71" spans="2:15" ht="34.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="132" t="s">
+        <v>197</v>
+      </c>
+      <c r="C71" s="133"/>
+      <c r="D71" s="142" t="s">
+        <v>189</v>
+      </c>
+      <c r="E71" s="143"/>
+      <c r="F71" s="143"/>
+      <c r="G71" s="143"/>
+      <c r="H71" s="143"/>
+      <c r="I71" s="143"/>
+      <c r="J71" s="143"/>
+      <c r="K71" s="143"/>
+      <c r="L71" s="143"/>
+      <c r="M71" s="143"/>
+      <c r="N71" s="144"/>
+    </row>
+    <row r="72" spans="2:15" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="136"/>
+      <c r="C72" s="137"/>
+      <c r="D72" s="138" t="s">
         <v>183</v>
       </c>
-      <c r="C69" s="56" t="s">
-        <v>171</v>
-      </c>
-      <c r="D69" s="131" t="s">
-        <v>255</v>
-      </c>
-      <c r="E69" s="132"/>
-      <c r="F69" s="132"/>
-      <c r="G69" s="132"/>
-      <c r="H69" s="132"/>
-      <c r="I69" s="132"/>
-      <c r="J69" s="132"/>
-      <c r="K69" s="132"/>
-      <c r="L69" s="132"/>
-      <c r="M69" s="132"/>
-      <c r="N69" s="133"/>
-    </row>
-    <row r="70" spans="2:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B70" s="138"/>
-      <c r="C70" s="56" t="s">
-        <v>172</v>
-      </c>
-      <c r="D70" s="131" t="s">
-        <v>173</v>
-      </c>
-      <c r="E70" s="132"/>
-      <c r="F70" s="132"/>
-      <c r="G70" s="132"/>
-      <c r="H70" s="132"/>
-      <c r="I70" s="132"/>
-      <c r="J70" s="132"/>
-      <c r="K70" s="132"/>
-      <c r="L70" s="132"/>
-      <c r="M70" s="132"/>
-      <c r="N70" s="133"/>
-    </row>
-    <row r="71" spans="2:15" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B71" s="122" t="s">
-        <v>198</v>
-      </c>
-      <c r="C71" s="123"/>
-      <c r="D71" s="128" t="s">
-        <v>190</v>
-      </c>
-      <c r="E71" s="129"/>
-      <c r="F71" s="129"/>
-      <c r="G71" s="129"/>
-      <c r="H71" s="129"/>
-      <c r="I71" s="129"/>
-      <c r="J71" s="129"/>
-      <c r="K71" s="129"/>
-      <c r="L71" s="129"/>
-      <c r="M71" s="129"/>
-      <c r="N71" s="130"/>
-    </row>
-    <row r="72" spans="2:15" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B72" s="124"/>
-      <c r="C72" s="125"/>
-      <c r="D72" s="134" t="s">
-        <v>184</v>
-      </c>
-      <c r="E72" s="135"/>
+      <c r="E72" s="139"/>
       <c r="F72" s="19" t="s">
         <v>136</v>
       </c>
@@ -9050,59 +9044,59 @@
       <c r="M72" s="19"/>
       <c r="N72" s="19"/>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B73" s="126"/>
-      <c r="C73" s="127"/>
-      <c r="D73" s="136"/>
-      <c r="E73" s="137"/>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B73" s="134"/>
+      <c r="C73" s="135"/>
+      <c r="D73" s="140"/>
+      <c r="E73" s="141"/>
       <c r="F73" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="G73" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="G73" s="19" t="s">
+      <c r="H73" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="H73" s="19" t="s">
+      <c r="I73" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="I73" s="19" t="s">
+      <c r="J73" s="19" t="s">
         <v>188</v>
-      </c>
-      <c r="J73" s="19" t="s">
-        <v>189</v>
       </c>
       <c r="K73" s="19"/>
       <c r="L73" s="19"/>
       <c r="M73" s="19"/>
       <c r="N73" s="19"/>
     </row>
-    <row r="74" spans="2:15" ht="52.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B74" s="122" t="s">
-        <v>199</v>
-      </c>
-      <c r="C74" s="123"/>
-      <c r="D74" s="128" t="s">
+    <row r="74" spans="2:15" ht="52.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="132" t="s">
+        <v>198</v>
+      </c>
+      <c r="C74" s="133"/>
+      <c r="D74" s="142" t="s">
+        <v>190</v>
+      </c>
+      <c r="E74" s="143"/>
+      <c r="F74" s="143"/>
+      <c r="G74" s="143"/>
+      <c r="H74" s="143"/>
+      <c r="I74" s="143"/>
+      <c r="J74" s="143"/>
+      <c r="K74" s="143"/>
+      <c r="L74" s="143"/>
+      <c r="M74" s="143"/>
+      <c r="N74" s="144"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B75" s="136"/>
+      <c r="C75" s="137"/>
+      <c r="D75" s="19" t="s">
         <v>191</v>
-      </c>
-      <c r="E74" s="129"/>
-      <c r="F74" s="129"/>
-      <c r="G74" s="129"/>
-      <c r="H74" s="129"/>
-      <c r="I74" s="129"/>
-      <c r="J74" s="129"/>
-      <c r="K74" s="129"/>
-      <c r="L74" s="129"/>
-      <c r="M74" s="129"/>
-      <c r="N74" s="130"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B75" s="124"/>
-      <c r="C75" s="125"/>
-      <c r="D75" s="19" t="s">
-        <v>192</v>
       </c>
       <c r="E75" s="19"/>
       <c r="F75" s="35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G75" s="36"/>
       <c r="H75" s="36"/>
@@ -9113,14 +9107,14 @@
       <c r="M75" s="36"/>
       <c r="N75" s="37"/>
     </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B76" s="124"/>
-      <c r="C76" s="125"/>
-      <c r="D76" s="104" t="s">
-        <v>193</v>
-      </c>
-      <c r="E76" s="105"/>
-      <c r="F76" s="118"/>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B76" s="136"/>
+      <c r="C76" s="137"/>
+      <c r="D76" s="107" t="s">
+        <v>192</v>
+      </c>
+      <c r="E76" s="108"/>
+      <c r="F76" s="145"/>
       <c r="G76" s="15" t="s">
         <v>136</v>
       </c>
@@ -9140,12 +9134,12 @@
       <c r="M76" s="19"/>
       <c r="N76" s="19"/>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B77" s="124"/>
-      <c r="C77" s="125"/>
-      <c r="D77" s="78"/>
-      <c r="E77" s="79"/>
-      <c r="F77" s="119"/>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B77" s="136"/>
+      <c r="C77" s="137"/>
+      <c r="D77" s="94"/>
+      <c r="E77" s="81"/>
+      <c r="F77" s="146"/>
       <c r="G77" s="46">
         <v>0</v>
       </c>
@@ -9165,14 +9159,14 @@
       <c r="M77" s="19"/>
       <c r="N77" s="19"/>
     </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B78" s="126"/>
-      <c r="C78" s="127"/>
+    <row r="78" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B78" s="134"/>
+      <c r="C78" s="135"/>
       <c r="D78" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E78" s="35" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F78" s="36"/>
       <c r="G78" s="36"/>
@@ -9184,13 +9178,13 @@
       <c r="M78" s="36"/>
       <c r="N78" s="37"/>
     </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B79" s="122" t="s">
-        <v>200</v>
-      </c>
-      <c r="C79" s="123"/>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B79" s="132" t="s">
+        <v>199</v>
+      </c>
+      <c r="C79" s="133"/>
       <c r="D79" s="35" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E79" s="36"/>
       <c r="F79" s="36"/>
@@ -9203,14 +9197,14 @@
       <c r="M79" s="36"/>
       <c r="N79" s="37"/>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B80" s="126"/>
-      <c r="C80" s="127"/>
+    <row r="80" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B80" s="134"/>
+      <c r="C80" s="135"/>
       <c r="D80" s="19" t="s">
         <v>66</v>
       </c>
       <c r="E80" s="35" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F80" s="36"/>
       <c r="G80" s="36"/>
@@ -9223,13 +9217,13 @@
       <c r="N80" s="37"/>
       <c r="O80" s="31"/>
     </row>
-    <row r="81" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B81" s="122" t="s">
-        <v>201</v>
-      </c>
-      <c r="C81" s="123"/>
+    <row r="81" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B81" s="132" t="s">
+        <v>200</v>
+      </c>
+      <c r="C81" s="133"/>
       <c r="D81" s="35" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E81" s="36"/>
       <c r="F81" s="36"/>
@@ -9243,14 +9237,14 @@
       <c r="N81" s="37"/>
       <c r="O81" s="31"/>
     </row>
-    <row r="82" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B82" s="126"/>
-      <c r="C82" s="127"/>
+    <row r="82" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B82" s="134"/>
+      <c r="C82" s="135"/>
       <c r="D82" s="19" t="s">
         <v>66</v>
       </c>
       <c r="E82" s="35" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F82" s="36"/>
       <c r="G82" s="36"/>
@@ -9264,6 +9258,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B23:N23"/>
+    <mergeCell ref="D66:N66"/>
+    <mergeCell ref="D25:E26"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="B24:C30"/>
+    <mergeCell ref="D24:M24"/>
+    <mergeCell ref="F30:M30"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
     <mergeCell ref="B81:C82"/>
     <mergeCell ref="B66:C68"/>
     <mergeCell ref="D67:F68"/>
@@ -9277,18 +9283,6 @@
     <mergeCell ref="B69:B70"/>
     <mergeCell ref="D69:N69"/>
     <mergeCell ref="D70:N70"/>
-    <mergeCell ref="B23:N23"/>
-    <mergeCell ref="D66:N66"/>
-    <mergeCell ref="D25:E26"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="B24:C30"/>
-    <mergeCell ref="D24:M24"/>
-    <mergeCell ref="F30:M30"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9304,130 +9298,130 @@
       <selection activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="15" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="16" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="139" t="s">
+    <row r="15" spans="2:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="16" spans="2:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B16" s="118" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="140"/>
-      <c r="D16" s="140"/>
-      <c r="E16" s="140"/>
-      <c r="F16" s="140"/>
-      <c r="G16" s="140"/>
-      <c r="H16" s="140"/>
-      <c r="I16" s="140"/>
-      <c r="J16" s="140"/>
-      <c r="K16" s="140"/>
-      <c r="L16" s="141"/>
-    </row>
-    <row r="17" spans="2:12" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="119"/>
+      <c r="G16" s="119"/>
+      <c r="H16" s="119"/>
+      <c r="I16" s="119"/>
+      <c r="J16" s="119"/>
+      <c r="K16" s="119"/>
+      <c r="L16" s="120"/>
+    </row>
+    <row r="17" spans="2:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B17" s="21" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="15"/>
-      <c r="D17" s="146" t="s">
+      <c r="D17" s="176" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="146"/>
-      <c r="F17" s="146"/>
-      <c r="G17" s="146"/>
-      <c r="H17" s="146"/>
-      <c r="I17" s="146"/>
-      <c r="J17" s="146"/>
-      <c r="K17" s="146"/>
-      <c r="L17" s="147"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="E17" s="176"/>
+      <c r="F17" s="176"/>
+      <c r="G17" s="176"/>
+      <c r="H17" s="176"/>
+      <c r="I17" s="176"/>
+      <c r="J17" s="176"/>
+      <c r="K17" s="176"/>
+      <c r="L17" s="177"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B18" s="20" t="s">
         <v>40</v>
       </c>
       <c r="C18" s="19"/>
-      <c r="D18" s="90" t="s">
+      <c r="D18" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="90"/>
-      <c r="K18" s="90"/>
-      <c r="L18" s="148"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="77"/>
+      <c r="K18" s="77"/>
+      <c r="L18" s="178"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B19" s="20" t="s">
         <v>42</v>
       </c>
       <c r="C19" s="19"/>
-      <c r="D19" s="90" t="s">
+      <c r="D19" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="90"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="90"/>
-      <c r="J19" s="90"/>
-      <c r="K19" s="90"/>
-      <c r="L19" s="148"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B20" s="142" t="s">
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="178"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B20" s="172" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="143"/>
-      <c r="D20" s="90" t="s">
+      <c r="C20" s="173"/>
+      <c r="D20" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
-      <c r="H20" s="90"/>
-      <c r="I20" s="90"/>
-      <c r="J20" s="90"/>
-      <c r="K20" s="90"/>
-      <c r="L20" s="148"/>
-    </row>
-    <row r="21" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="144"/>
-      <c r="C21" s="145"/>
-      <c r="D21" s="149" t="s">
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="178"/>
+    </row>
+    <row r="21" spans="2:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B21" s="174"/>
+      <c r="C21" s="175"/>
+      <c r="D21" s="179" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="149"/>
-      <c r="F21" s="149"/>
-      <c r="G21" s="149"/>
-      <c r="H21" s="149"/>
-      <c r="I21" s="149"/>
-      <c r="J21" s="149"/>
-      <c r="K21" s="149"/>
-      <c r="L21" s="150"/>
-    </row>
-    <row r="22" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="23" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="151" t="s">
+      <c r="E21" s="179"/>
+      <c r="F21" s="179"/>
+      <c r="G21" s="179"/>
+      <c r="H21" s="179"/>
+      <c r="I21" s="179"/>
+      <c r="J21" s="179"/>
+      <c r="K21" s="179"/>
+      <c r="L21" s="180"/>
+    </row>
+    <row r="22" spans="2:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="23" spans="2:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B23" s="154" t="s">
         <v>114</v>
       </c>
-      <c r="C23" s="152"/>
-      <c r="D23" s="157" t="s">
-        <v>237</v>
-      </c>
-      <c r="E23" s="158"/>
-      <c r="F23" s="158"/>
-      <c r="G23" s="158"/>
-      <c r="H23" s="158"/>
-      <c r="I23" s="158"/>
-      <c r="J23" s="159"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B24" s="153"/>
-      <c r="C24" s="154"/>
-      <c r="D24" s="151" t="s">
+      <c r="C23" s="162"/>
+      <c r="D23" s="169" t="s">
+        <v>236</v>
+      </c>
+      <c r="E23" s="170"/>
+      <c r="F23" s="170"/>
+      <c r="G23" s="170"/>
+      <c r="H23" s="170"/>
+      <c r="I23" s="170"/>
+      <c r="J23" s="171"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B24" s="160"/>
+      <c r="C24" s="167"/>
+      <c r="D24" s="154" t="s">
         <v>120</v>
       </c>
-      <c r="E24" s="152"/>
+      <c r="E24" s="162"/>
       <c r="F24" s="61" t="s">
         <v>115</v>
       </c>
@@ -9444,11 +9438,11 @@
         <v>119</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="155"/>
-      <c r="C25" s="156"/>
-      <c r="D25" s="155"/>
-      <c r="E25" s="156"/>
+    <row r="25" spans="2:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B25" s="156"/>
+      <c r="C25" s="168"/>
+      <c r="D25" s="156"/>
+      <c r="E25" s="168"/>
       <c r="F25" s="39">
         <v>1</v>
       </c>
@@ -9465,57 +9459,57 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B26" s="66" t="s">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B26" s="82" t="s">
+        <v>237</v>
+      </c>
+      <c r="C26" s="83"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="83"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="83"/>
+      <c r="I26" s="83"/>
+      <c r="J26" s="84"/>
+    </row>
+    <row r="27" spans="2:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B27" s="85" t="s">
         <v>238</v>
       </c>
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="67"/>
-      <c r="J26" s="68"/>
-    </row>
-    <row r="27" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="69" t="s">
+      <c r="C27" s="86"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="86"/>
+      <c r="H27" s="86"/>
+      <c r="I27" s="86"/>
+      <c r="J27" s="87"/>
+    </row>
+    <row r="28" spans="2:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="29" spans="2:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B29" s="154" t="s">
         <v>239</v>
       </c>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="71"/>
-    </row>
-    <row r="28" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="29" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="151" t="s">
+      <c r="C29" s="155"/>
+      <c r="D29" s="158" t="s">
         <v>240</v>
       </c>
-      <c r="C29" s="160"/>
-      <c r="D29" s="161" t="s">
+      <c r="E29" s="159"/>
+      <c r="F29" s="169">
+        <v>2</v>
+      </c>
+      <c r="G29" s="170"/>
+      <c r="H29" s="170"/>
+      <c r="I29" s="170"/>
+      <c r="J29" s="171"/>
+    </row>
+    <row r="30" spans="2:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B30" s="160"/>
+      <c r="C30" s="167"/>
+      <c r="D30" s="156" t="s">
         <v>241</v>
       </c>
-      <c r="E29" s="162"/>
-      <c r="F29" s="157">
-        <v>2</v>
-      </c>
-      <c r="G29" s="158"/>
-      <c r="H29" s="158"/>
-      <c r="I29" s="158"/>
-      <c r="J29" s="159"/>
-    </row>
-    <row r="30" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="153"/>
-      <c r="C30" s="154"/>
-      <c r="D30" s="155" t="s">
-        <v>242</v>
-      </c>
-      <c r="E30" s="156"/>
+      <c r="E30" s="168"/>
       <c r="F30" s="62" t="s">
         <v>115</v>
       </c>
@@ -9532,13 +9526,13 @@
         <v>119</v>
       </c>
     </row>
-    <row r="31" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="155"/>
-      <c r="C31" s="156"/>
-      <c r="D31" s="155" t="s">
-        <v>243</v>
-      </c>
-      <c r="E31" s="156"/>
+    <row r="31" spans="2:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B31" s="156"/>
+      <c r="C31" s="168"/>
+      <c r="D31" s="156" t="s">
+        <v>242</v>
+      </c>
+      <c r="E31" s="168"/>
       <c r="F31" s="41">
         <v>0</v>
       </c>
@@ -9555,16 +9549,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="33" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="151" t="s">
-        <v>244</v>
-      </c>
-      <c r="C33" s="160"/>
-      <c r="D33" s="161" t="s">
-        <v>242</v>
-      </c>
-      <c r="E33" s="162"/>
+    <row r="32" spans="2:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="33" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B33" s="154" t="s">
+        <v>243</v>
+      </c>
+      <c r="C33" s="155"/>
+      <c r="D33" s="158" t="s">
+        <v>241</v>
+      </c>
+      <c r="E33" s="159"/>
       <c r="F33" s="65" t="s">
         <v>115</v>
       </c>
@@ -9581,13 +9575,13 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="155"/>
-      <c r="C34" s="163"/>
-      <c r="D34" s="161" t="s">
-        <v>245</v>
-      </c>
-      <c r="E34" s="162"/>
+    <row r="34" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B34" s="156"/>
+      <c r="C34" s="157"/>
+      <c r="D34" s="158" t="s">
+        <v>244</v>
+      </c>
+      <c r="E34" s="159"/>
       <c r="F34" s="41">
         <v>2</v>
       </c>
@@ -9604,16 +9598,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B37" s="151" t="s">
+    <row r="36" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B37" s="154" t="s">
+        <v>245</v>
+      </c>
+      <c r="C37" s="155"/>
+      <c r="D37" s="154" t="s">
         <v>246</v>
       </c>
-      <c r="C37" s="160"/>
-      <c r="D37" s="151" t="s">
-        <v>247</v>
-      </c>
-      <c r="E37" s="152"/>
+      <c r="E37" s="162"/>
       <c r="F37" s="65" t="s">
         <v>115</v>
       </c>
@@ -9630,11 +9624,11 @@
         <v>119</v>
       </c>
     </row>
-    <row r="38" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="153"/>
-      <c r="C38" s="164"/>
-      <c r="D38" s="165"/>
-      <c r="E38" s="166"/>
+    <row r="38" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B38" s="160"/>
+      <c r="C38" s="161"/>
+      <c r="D38" s="163"/>
+      <c r="E38" s="164"/>
       <c r="F38" s="57">
         <v>1</v>
       </c>
@@ -9651,13 +9645,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B39" s="153"/>
-      <c r="C39" s="164"/>
-      <c r="D39" s="167" t="s">
-        <v>180</v>
-      </c>
-      <c r="E39" s="168"/>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B39" s="160"/>
+      <c r="C39" s="161"/>
+      <c r="D39" s="165" t="s">
+        <v>179</v>
+      </c>
+      <c r="E39" s="166"/>
       <c r="F39" s="65" t="s">
         <v>115</v>
       </c>
@@ -9674,34 +9668,34 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="153"/>
-      <c r="C40" s="164"/>
-      <c r="D40" s="165"/>
-      <c r="E40" s="166"/>
+    <row r="40" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B40" s="160"/>
+      <c r="C40" s="161"/>
+      <c r="D40" s="163"/>
+      <c r="E40" s="164"/>
       <c r="F40" s="57" t="s">
+        <v>247</v>
+      </c>
+      <c r="G40" s="41" t="s">
         <v>248</v>
       </c>
-      <c r="G40" s="41" t="s">
+      <c r="H40" s="41" t="s">
         <v>249</v>
       </c>
-      <c r="H40" s="41" t="s">
+      <c r="I40" s="41" t="s">
         <v>250</v>
       </c>
-      <c r="I40" s="41" t="s">
+      <c r="J40" s="42" t="s">
         <v>251</v>
       </c>
-      <c r="J40" s="42" t="s">
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B41" s="160"/>
+      <c r="C41" s="161"/>
+      <c r="D41" s="165" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B41" s="153"/>
-      <c r="C41" s="164"/>
-      <c r="D41" s="167" t="s">
-        <v>253</v>
-      </c>
-      <c r="E41" s="168"/>
+      <c r="E41" s="166"/>
       <c r="F41" s="65" t="s">
         <v>115</v>
       </c>
@@ -9718,11 +9712,11 @@
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="153"/>
-      <c r="C42" s="164"/>
-      <c r="D42" s="153"/>
-      <c r="E42" s="154"/>
+    <row r="42" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B42" s="160"/>
+      <c r="C42" s="161"/>
+      <c r="D42" s="160"/>
+      <c r="E42" s="167"/>
       <c r="F42" s="57">
         <v>1</v>
       </c>
@@ -9739,21 +9733,38 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="155"/>
-      <c r="C43" s="163"/>
-      <c r="D43" s="155"/>
-      <c r="E43" s="156"/>
-      <c r="F43" s="69" t="s">
-        <v>254</v>
-      </c>
-      <c r="G43" s="70"/>
-      <c r="H43" s="70"/>
-      <c r="I43" s="70"/>
-      <c r="J43" s="71"/>
+    <row r="43" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B43" s="156"/>
+      <c r="C43" s="157"/>
+      <c r="D43" s="156"/>
+      <c r="E43" s="168"/>
+      <c r="F43" s="85" t="s">
+        <v>253</v>
+      </c>
+      <c r="G43" s="86"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="86"/>
+      <c r="J43" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B16:L16"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="D17:L17"/>
+    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="D19:L19"/>
+    <mergeCell ref="D20:L20"/>
+    <mergeCell ref="D21:L21"/>
+    <mergeCell ref="B23:C25"/>
+    <mergeCell ref="D23:J23"/>
+    <mergeCell ref="D24:E25"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="B29:C31"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:J29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
     <mergeCell ref="F43:J43"/>
     <mergeCell ref="B33:C34"/>
     <mergeCell ref="D33:E33"/>
@@ -9762,23 +9773,6 @@
     <mergeCell ref="D37:E38"/>
     <mergeCell ref="D39:E40"/>
     <mergeCell ref="D41:E43"/>
-    <mergeCell ref="B29:C31"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:J29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B23:C25"/>
-    <mergeCell ref="D23:J23"/>
-    <mergeCell ref="D24:E25"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="B27:J27"/>
-    <mergeCell ref="B16:L16"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="D17:L17"/>
-    <mergeCell ref="D18:L18"/>
-    <mergeCell ref="D19:L19"/>
-    <mergeCell ref="D20:L20"/>
-    <mergeCell ref="D21:L21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9794,82 +9788,82 @@
       <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="18" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B19" s="151" t="s">
+    <row r="18" spans="2:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B19" s="154" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="160"/>
-      <c r="D19" s="160"/>
-      <c r="E19" s="160"/>
-      <c r="F19" s="160"/>
-      <c r="G19" s="160"/>
-      <c r="H19" s="160"/>
-      <c r="I19" s="160"/>
-      <c r="J19" s="160"/>
-      <c r="K19" s="160"/>
-      <c r="L19" s="160"/>
-      <c r="M19" s="152"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="C19" s="155"/>
+      <c r="D19" s="155"/>
+      <c r="E19" s="155"/>
+      <c r="F19" s="155"/>
+      <c r="G19" s="155"/>
+      <c r="H19" s="155"/>
+      <c r="I19" s="155"/>
+      <c r="J19" s="155"/>
+      <c r="K19" s="155"/>
+      <c r="L19" s="155"/>
+      <c r="M19" s="162"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B20" s="18" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="19"/>
-      <c r="D20" s="131" t="s">
+      <c r="D20" s="148" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="132"/>
-      <c r="F20" s="132"/>
-      <c r="G20" s="132"/>
-      <c r="H20" s="132"/>
-      <c r="I20" s="132"/>
-      <c r="J20" s="132"/>
-      <c r="K20" s="132"/>
-      <c r="L20" s="132"/>
-      <c r="M20" s="133"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B21" s="181" t="s">
+      <c r="E20" s="149"/>
+      <c r="F20" s="149"/>
+      <c r="G20" s="149"/>
+      <c r="H20" s="149"/>
+      <c r="I20" s="149"/>
+      <c r="J20" s="149"/>
+      <c r="K20" s="149"/>
+      <c r="L20" s="149"/>
+      <c r="M20" s="150"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B21" s="187" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="182"/>
-      <c r="D21" s="131" t="s">
+      <c r="C21" s="188"/>
+      <c r="D21" s="148" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="132"/>
-      <c r="F21" s="132"/>
-      <c r="G21" s="132"/>
-      <c r="H21" s="132"/>
-      <c r="I21" s="132"/>
-      <c r="J21" s="132"/>
-      <c r="K21" s="132"/>
-      <c r="L21" s="132"/>
-      <c r="M21" s="133"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B22" s="183"/>
-      <c r="C22" s="184"/>
-      <c r="D22" s="131" t="s">
+      <c r="E21" s="149"/>
+      <c r="F21" s="149"/>
+      <c r="G21" s="149"/>
+      <c r="H21" s="149"/>
+      <c r="I21" s="149"/>
+      <c r="J21" s="149"/>
+      <c r="K21" s="149"/>
+      <c r="L21" s="149"/>
+      <c r="M21" s="150"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B22" s="189"/>
+      <c r="C22" s="190"/>
+      <c r="D22" s="148" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="132"/>
-      <c r="F22" s="132"/>
-      <c r="G22" s="132"/>
-      <c r="H22" s="132"/>
-      <c r="I22" s="132"/>
-      <c r="J22" s="132"/>
-      <c r="K22" s="132"/>
-      <c r="L22" s="132"/>
-      <c r="M22" s="133"/>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B23" s="181" t="s">
+      <c r="E22" s="149"/>
+      <c r="F22" s="149"/>
+      <c r="G22" s="149"/>
+      <c r="H22" s="149"/>
+      <c r="I22" s="149"/>
+      <c r="J22" s="149"/>
+      <c r="K22" s="149"/>
+      <c r="L22" s="149"/>
+      <c r="M22" s="150"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B23" s="187" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="182"/>
+      <c r="C23" s="188"/>
       <c r="D23" s="19" t="s">
         <v>30</v>
       </c>
@@ -9883,27 +9877,27 @@
       <c r="L23" s="19"/>
       <c r="M23" s="19"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B24" s="183"/>
-      <c r="C24" s="184"/>
-      <c r="D24" s="131" t="s">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B24" s="189"/>
+      <c r="C24" s="190"/>
+      <c r="D24" s="148" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="132"/>
-      <c r="F24" s="132"/>
-      <c r="G24" s="132"/>
-      <c r="H24" s="132"/>
-      <c r="I24" s="132"/>
-      <c r="J24" s="132"/>
-      <c r="K24" s="132"/>
-      <c r="L24" s="132"/>
-      <c r="M24" s="133"/>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B25" s="181" t="s">
+      <c r="E24" s="149"/>
+      <c r="F24" s="149"/>
+      <c r="G24" s="149"/>
+      <c r="H24" s="149"/>
+      <c r="I24" s="149"/>
+      <c r="J24" s="149"/>
+      <c r="K24" s="149"/>
+      <c r="L24" s="149"/>
+      <c r="M24" s="150"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B25" s="187" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="182"/>
+      <c r="C25" s="188"/>
       <c r="D25" s="19" t="s">
         <v>33</v>
       </c>
@@ -9917,34 +9911,34 @@
       <c r="L25" s="19"/>
       <c r="M25" s="19"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B26" s="183"/>
-      <c r="C26" s="184"/>
-      <c r="D26" s="131" t="s">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B26" s="189"/>
+      <c r="C26" s="190"/>
+      <c r="D26" s="148" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="132"/>
-      <c r="F26" s="132"/>
-      <c r="G26" s="132"/>
-      <c r="H26" s="132"/>
-      <c r="I26" s="132"/>
-      <c r="J26" s="132"/>
-      <c r="K26" s="132"/>
-      <c r="L26" s="132"/>
-      <c r="M26" s="133"/>
-    </row>
-    <row r="27" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B28" s="151" t="s">
+      <c r="E26" s="149"/>
+      <c r="F26" s="149"/>
+      <c r="G26" s="149"/>
+      <c r="H26" s="149"/>
+      <c r="I26" s="149"/>
+      <c r="J26" s="149"/>
+      <c r="K26" s="149"/>
+      <c r="L26" s="149"/>
+      <c r="M26" s="150"/>
+    </row>
+    <row r="27" spans="2:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B28" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="152"/>
-      <c r="D28" s="169" t="s">
+      <c r="C28" s="162"/>
+      <c r="D28" s="191" t="s">
         <v>121</v>
       </c>
-      <c r="E28" s="170"/>
-      <c r="F28" s="170"/>
-      <c r="G28" s="170"/>
+      <c r="E28" s="192"/>
+      <c r="F28" s="192"/>
+      <c r="G28" s="192"/>
       <c r="H28" s="49" t="s">
         <v>115</v>
       </c>
@@ -9961,15 +9955,15 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="153"/>
-      <c r="C29" s="154"/>
-      <c r="D29" s="171" t="s">
+    <row r="29" spans="2:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B29" s="160"/>
+      <c r="C29" s="167"/>
+      <c r="D29" s="193" t="s">
         <v>122</v>
       </c>
-      <c r="E29" s="172"/>
-      <c r="F29" s="172"/>
-      <c r="G29" s="172"/>
+      <c r="E29" s="194"/>
+      <c r="F29" s="194"/>
+      <c r="G29" s="194"/>
       <c r="H29" s="51">
         <v>5</v>
       </c>
@@ -9986,224 +9980,198 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:13" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="153"/>
-      <c r="C30" s="154"/>
-      <c r="D30" s="173" t="s">
+    <row r="30" spans="2:13" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="160"/>
+      <c r="C30" s="167"/>
+      <c r="D30" s="195" t="s">
+        <v>207</v>
+      </c>
+      <c r="E30" s="92" t="s">
         <v>208</v>
       </c>
-      <c r="E30" s="76" t="s">
+      <c r="F30" s="93"/>
+      <c r="G30" s="93"/>
+      <c r="H30" s="197"/>
+      <c r="I30" s="130" t="s">
+        <v>148</v>
+      </c>
+      <c r="J30" s="130"/>
+      <c r="K30" s="130">
+        <v>-2</v>
+      </c>
+      <c r="L30" s="131"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B31" s="160"/>
+      <c r="C31" s="167"/>
+      <c r="D31" s="196"/>
+      <c r="E31" s="94"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="81"/>
+      <c r="H31" s="146"/>
+      <c r="I31" s="78" t="s">
         <v>209</v>
       </c>
-      <c r="F30" s="77"/>
-      <c r="G30" s="77"/>
-      <c r="H30" s="175"/>
-      <c r="I30" s="176" t="s">
+      <c r="J31" s="78"/>
+      <c r="K31" s="78">
+        <v>1</v>
+      </c>
+      <c r="L31" s="116"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B32" s="160"/>
+      <c r="C32" s="167"/>
+      <c r="D32" s="186" t="s">
+        <v>210</v>
+      </c>
+      <c r="E32" s="78" t="s">
+        <v>208</v>
+      </c>
+      <c r="F32" s="78"/>
+      <c r="G32" s="78"/>
+      <c r="H32" s="78"/>
+      <c r="I32" s="153" t="s">
+        <v>211</v>
+      </c>
+      <c r="J32" s="78"/>
+      <c r="K32" s="78">
+        <v>-1</v>
+      </c>
+      <c r="L32" s="116"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B33" s="160"/>
+      <c r="C33" s="167"/>
+      <c r="D33" s="186"/>
+      <c r="E33" s="78"/>
+      <c r="F33" s="78"/>
+      <c r="G33" s="78"/>
+      <c r="H33" s="78"/>
+      <c r="I33" s="78" t="s">
+        <v>209</v>
+      </c>
+      <c r="J33" s="78"/>
+      <c r="K33" s="78">
+        <v>5</v>
+      </c>
+      <c r="L33" s="116"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B34" s="160"/>
+      <c r="C34" s="167"/>
+      <c r="D34" s="186" t="s">
+        <v>212</v>
+      </c>
+      <c r="E34" s="78" t="s">
+        <v>213</v>
+      </c>
+      <c r="F34" s="78"/>
+      <c r="G34" s="78"/>
+      <c r="H34" s="78"/>
+      <c r="I34" s="78" t="s">
         <v>148</v>
       </c>
-      <c r="J30" s="176"/>
-      <c r="K30" s="176">
+      <c r="J34" s="78"/>
+      <c r="K34" s="78">
+        <v>-1</v>
+      </c>
+      <c r="L34" s="116"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B35" s="160"/>
+      <c r="C35" s="167"/>
+      <c r="D35" s="186"/>
+      <c r="E35" s="78"/>
+      <c r="F35" s="78"/>
+      <c r="G35" s="78"/>
+      <c r="H35" s="78"/>
+      <c r="I35" s="78" t="s">
+        <v>209</v>
+      </c>
+      <c r="J35" s="78"/>
+      <c r="K35" s="78">
+        <v>4</v>
+      </c>
+      <c r="L35" s="116"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B36" s="160"/>
+      <c r="C36" s="167"/>
+      <c r="D36" s="198" t="s">
+        <v>214</v>
+      </c>
+      <c r="E36" s="78" t="s">
+        <v>213</v>
+      </c>
+      <c r="F36" s="78"/>
+      <c r="G36" s="78"/>
+      <c r="H36" s="78"/>
+      <c r="I36" s="78" t="s">
+        <v>211</v>
+      </c>
+      <c r="J36" s="78"/>
+      <c r="K36" s="78">
         <v>-2</v>
       </c>
-      <c r="L30" s="177"/>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B31" s="153"/>
-      <c r="C31" s="154"/>
-      <c r="D31" s="174"/>
-      <c r="E31" s="78"/>
-      <c r="F31" s="79"/>
-      <c r="G31" s="79"/>
-      <c r="H31" s="119"/>
-      <c r="I31" s="91" t="s">
-        <v>210</v>
-      </c>
-      <c r="J31" s="91"/>
-      <c r="K31" s="91">
-        <v>1</v>
-      </c>
-      <c r="L31" s="98"/>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B32" s="153"/>
-      <c r="C32" s="154"/>
-      <c r="D32" s="185" t="s">
+      <c r="L36" s="116"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B37" s="160"/>
+      <c r="C37" s="167"/>
+      <c r="D37" s="199"/>
+      <c r="E37" s="200"/>
+      <c r="F37" s="200"/>
+      <c r="G37" s="200"/>
+      <c r="H37" s="200"/>
+      <c r="I37" s="200" t="s">
+        <v>215</v>
+      </c>
+      <c r="J37" s="200"/>
+      <c r="K37" s="78">
+        <v>2</v>
+      </c>
+      <c r="L37" s="116"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B38" s="160"/>
+      <c r="C38" s="167"/>
+      <c r="D38" s="184" t="s">
+        <v>216</v>
+      </c>
+      <c r="E38" s="181" t="s">
+        <v>217</v>
+      </c>
+      <c r="F38" s="182"/>
+      <c r="G38" s="182"/>
+      <c r="H38" s="182"/>
+      <c r="I38" s="78" t="s">
         <v>211</v>
       </c>
-      <c r="E32" s="91" t="s">
-        <v>209</v>
-      </c>
-      <c r="F32" s="91"/>
-      <c r="G32" s="91"/>
-      <c r="H32" s="91"/>
-      <c r="I32" s="121" t="s">
-        <v>212</v>
-      </c>
-      <c r="J32" s="91"/>
-      <c r="K32" s="91">
-        <v>-1</v>
-      </c>
-      <c r="L32" s="98"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B33" s="153"/>
-      <c r="C33" s="154"/>
-      <c r="D33" s="185"/>
-      <c r="E33" s="91"/>
-      <c r="F33" s="91"/>
-      <c r="G33" s="91"/>
-      <c r="H33" s="91"/>
-      <c r="I33" s="91" t="s">
-        <v>210</v>
-      </c>
-      <c r="J33" s="91"/>
-      <c r="K33" s="91">
-        <v>5</v>
-      </c>
-      <c r="L33" s="98"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B34" s="153"/>
-      <c r="C34" s="154"/>
-      <c r="D34" s="185" t="s">
-        <v>213</v>
-      </c>
-      <c r="E34" s="91" t="s">
-        <v>214</v>
-      </c>
-      <c r="F34" s="91"/>
-      <c r="G34" s="91"/>
-      <c r="H34" s="91"/>
-      <c r="I34" s="91" t="s">
-        <v>148</v>
-      </c>
-      <c r="J34" s="91"/>
-      <c r="K34" s="91">
-        <v>-1</v>
-      </c>
-      <c r="L34" s="98"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B35" s="153"/>
-      <c r="C35" s="154"/>
-      <c r="D35" s="185"/>
-      <c r="E35" s="91"/>
-      <c r="F35" s="91"/>
-      <c r="G35" s="91"/>
-      <c r="H35" s="91"/>
-      <c r="I35" s="91" t="s">
-        <v>210</v>
-      </c>
-      <c r="J35" s="91"/>
-      <c r="K35" s="91">
-        <v>4</v>
-      </c>
-      <c r="L35" s="98"/>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B36" s="153"/>
-      <c r="C36" s="154"/>
-      <c r="D36" s="178" t="s">
-        <v>215</v>
-      </c>
-      <c r="E36" s="91" t="s">
-        <v>214</v>
-      </c>
-      <c r="F36" s="91"/>
-      <c r="G36" s="91"/>
-      <c r="H36" s="91"/>
-      <c r="I36" s="91" t="s">
-        <v>212</v>
-      </c>
-      <c r="J36" s="91"/>
-      <c r="K36" s="91">
-        <v>-2</v>
-      </c>
-      <c r="L36" s="98"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B37" s="153"/>
-      <c r="C37" s="154"/>
-      <c r="D37" s="179"/>
-      <c r="E37" s="180"/>
-      <c r="F37" s="180"/>
-      <c r="G37" s="180"/>
-      <c r="H37" s="180"/>
-      <c r="I37" s="180" t="s">
-        <v>216</v>
-      </c>
-      <c r="J37" s="180"/>
-      <c r="K37" s="91">
-        <v>2</v>
-      </c>
-      <c r="L37" s="98"/>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B38" s="153"/>
-      <c r="C38" s="154"/>
-      <c r="D38" s="189" t="s">
-        <v>217</v>
-      </c>
-      <c r="E38" s="186" t="s">
+      <c r="J38" s="78"/>
+      <c r="K38" s="130">
+        <v>-10</v>
+      </c>
+      <c r="L38" s="131"/>
+    </row>
+    <row r="39" spans="2:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B39" s="156"/>
+      <c r="C39" s="168"/>
+      <c r="D39" s="185"/>
+      <c r="E39" s="183"/>
+      <c r="F39" s="183"/>
+      <c r="G39" s="183"/>
+      <c r="H39" s="183"/>
+      <c r="I39" s="113" t="s">
         <v>218</v>
       </c>
-      <c r="F38" s="187"/>
-      <c r="G38" s="187"/>
-      <c r="H38" s="187"/>
-      <c r="I38" s="91" t="s">
-        <v>212</v>
-      </c>
-      <c r="J38" s="91"/>
-      <c r="K38" s="176">
-        <v>-10</v>
-      </c>
-      <c r="L38" s="177"/>
-    </row>
-    <row r="39" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="155"/>
-      <c r="C39" s="156"/>
-      <c r="D39" s="190"/>
-      <c r="E39" s="188"/>
-      <c r="F39" s="188"/>
-      <c r="G39" s="188"/>
-      <c r="H39" s="188"/>
-      <c r="I39" s="100" t="s">
+      <c r="J39" s="113"/>
+      <c r="K39" s="113" t="s">
         <v>219</v>
       </c>
-      <c r="J39" s="100"/>
-      <c r="K39" s="100" t="s">
-        <v>220</v>
-      </c>
-      <c r="L39" s="101"/>
+      <c r="L39" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="E38:H39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:H33"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:H35"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="B19:M19"/>
-    <mergeCell ref="B21:C22"/>
-    <mergeCell ref="B23:C24"/>
-    <mergeCell ref="B25:C26"/>
-    <mergeCell ref="D20:M20"/>
-    <mergeCell ref="D21:M21"/>
-    <mergeCell ref="D22:M22"/>
     <mergeCell ref="B28:C39"/>
     <mergeCell ref="D28:G28"/>
     <mergeCell ref="D29:G29"/>
@@ -10220,6 +10188,32 @@
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="K36:L36"/>
     <mergeCell ref="I37:J37"/>
+    <mergeCell ref="B19:M19"/>
+    <mergeCell ref="B21:C22"/>
+    <mergeCell ref="B23:C24"/>
+    <mergeCell ref="B25:C26"/>
+    <mergeCell ref="D20:M20"/>
+    <mergeCell ref="D21:M21"/>
+    <mergeCell ref="D22:M22"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:H35"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:H33"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="E38:H39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10232,317 +10226,317 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD3B1AB3-CC49-495A-99AD-7BB4C69F9D39}">
   <dimension ref="B18:O38"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:O23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27:O27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D18" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B19" s="191"/>
-      <c r="C19" s="191"/>
-      <c r="D19" s="191"/>
-      <c r="E19" s="191"/>
-      <c r="F19" s="191"/>
-      <c r="G19" s="191"/>
-      <c r="H19" s="191"/>
-      <c r="I19" s="191"/>
-      <c r="J19" s="191"/>
-      <c r="K19" s="191"/>
-      <c r="L19" s="191"/>
-      <c r="M19" s="191"/>
-      <c r="N19" s="191"/>
-      <c r="O19" s="191"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.4">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B19" s="202"/>
+      <c r="C19" s="202"/>
+      <c r="D19" s="202"/>
+      <c r="E19" s="202"/>
+      <c r="F19" s="202"/>
+      <c r="G19" s="202"/>
+      <c r="H19" s="202"/>
+      <c r="I19" s="202"/>
+      <c r="J19" s="202"/>
+      <c r="K19" s="202"/>
+      <c r="L19" s="202"/>
+      <c r="M19" s="202"/>
+      <c r="N19" s="202"/>
+      <c r="O19" s="202"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B20" s="19" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="19"/>
-      <c r="D20" s="90" t="s">
+      <c r="D20" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
-      <c r="H20" s="90"/>
-      <c r="I20" s="90"/>
-      <c r="J20" s="90"/>
-      <c r="K20" s="90"/>
-      <c r="L20" s="90"/>
-      <c r="M20" s="90"/>
-      <c r="N20" s="90"/>
-      <c r="O20" s="90"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B21" s="91" t="s">
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="77"/>
+      <c r="N20" s="77"/>
+      <c r="O20" s="77"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B21" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="91"/>
-      <c r="D21" s="90" t="s">
+      <c r="C21" s="78"/>
+      <c r="D21" s="77" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="90"/>
-      <c r="N21" s="90"/>
-      <c r="O21" s="90"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B22" s="91"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="91" t="s">
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="77"/>
+      <c r="L21" s="77"/>
+      <c r="M21" s="77"/>
+      <c r="N21" s="77"/>
+      <c r="O21" s="77"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B22" s="78"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="78" t="s">
         <v>147</v>
       </c>
-      <c r="E22" s="91"/>
-      <c r="F22" s="91"/>
-      <c r="G22" s="91" t="s">
+      <c r="E22" s="78"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="78" t="s">
         <v>151</v>
       </c>
-      <c r="H22" s="91"/>
-      <c r="I22" s="91"/>
-      <c r="J22" s="91" t="s">
+      <c r="H22" s="78"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="78" t="s">
         <v>148</v>
       </c>
-      <c r="K22" s="91"/>
-      <c r="L22" s="91"/>
-      <c r="M22" s="91" t="s">
+      <c r="K22" s="78"/>
+      <c r="L22" s="78"/>
+      <c r="M22" s="78" t="s">
         <v>149</v>
       </c>
-      <c r="N22" s="91"/>
-      <c r="O22" s="91"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B23" s="91"/>
-      <c r="C23" s="91"/>
-      <c r="D23" s="91" t="s">
+      <c r="N22" s="78"/>
+      <c r="O22" s="78"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B23" s="78"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="78" t="s">
         <v>150</v>
       </c>
-      <c r="E23" s="91"/>
-      <c r="F23" s="91"/>
-      <c r="G23" s="91" t="s">
+      <c r="E23" s="78"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="78" t="s">
         <v>153</v>
       </c>
-      <c r="H23" s="91"/>
-      <c r="I23" s="91"/>
-      <c r="J23" s="91" t="s">
+      <c r="H23" s="78"/>
+      <c r="I23" s="78"/>
+      <c r="J23" s="78" t="s">
         <v>152</v>
       </c>
-      <c r="K23" s="91"/>
-      <c r="L23" s="91"/>
-      <c r="M23" s="193" t="s">
+      <c r="K23" s="78"/>
+      <c r="L23" s="78"/>
+      <c r="M23" s="201" t="s">
         <v>154</v>
       </c>
-      <c r="N23" s="91"/>
-      <c r="O23" s="91"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B24" s="192" t="s">
+      <c r="N23" s="78"/>
+      <c r="O23" s="78"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B24" s="127" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="192"/>
-      <c r="D24" s="90" t="s">
+      <c r="C24" s="127"/>
+      <c r="D24" s="77" t="s">
         <v>161</v>
       </c>
-      <c r="E24" s="90"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="90"/>
-      <c r="H24" s="90"/>
-      <c r="I24" s="90"/>
-      <c r="J24" s="90"/>
-      <c r="K24" s="90"/>
-      <c r="L24" s="90"/>
-      <c r="M24" s="90"/>
-      <c r="N24" s="90"/>
-      <c r="O24" s="90"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B25" s="192"/>
-      <c r="C25" s="192"/>
-      <c r="D25" s="91" t="s">
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="77"/>
+      <c r="J24" s="77"/>
+      <c r="K24" s="77"/>
+      <c r="L24" s="77"/>
+      <c r="M24" s="77"/>
+      <c r="N24" s="77"/>
+      <c r="O24" s="77"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B25" s="127"/>
+      <c r="C25" s="127"/>
+      <c r="D25" s="78" t="s">
         <v>155</v>
       </c>
-      <c r="E25" s="91"/>
-      <c r="F25" s="91"/>
-      <c r="G25" s="91" t="s">
+      <c r="E25" s="78"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="78" t="s">
         <v>117</v>
       </c>
-      <c r="H25" s="91"/>
-      <c r="I25" s="91"/>
-      <c r="J25" s="91" t="s">
+      <c r="H25" s="78"/>
+      <c r="I25" s="78"/>
+      <c r="J25" s="78" t="s">
         <v>118</v>
       </c>
-      <c r="K25" s="91"/>
-      <c r="L25" s="91"/>
-      <c r="M25" s="91" t="s">
+      <c r="K25" s="78"/>
+      <c r="L25" s="78"/>
+      <c r="M25" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="N25" s="91"/>
-      <c r="O25" s="91"/>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B26" s="192"/>
-      <c r="C26" s="192"/>
-      <c r="D26" s="91" t="s">
+      <c r="N25" s="78"/>
+      <c r="O25" s="78"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B26" s="127"/>
+      <c r="C26" s="127"/>
+      <c r="D26" s="78" t="s">
         <v>159</v>
       </c>
-      <c r="E26" s="91"/>
-      <c r="F26" s="91"/>
-      <c r="G26" s="91" t="s">
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78" t="s">
         <v>156</v>
       </c>
-      <c r="H26" s="91"/>
-      <c r="I26" s="91"/>
-      <c r="J26" s="91" t="s">
+      <c r="H26" s="78"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="78" t="s">
         <v>157</v>
       </c>
-      <c r="K26" s="91"/>
-      <c r="L26" s="91"/>
-      <c r="M26" s="91" t="s">
+      <c r="K26" s="78"/>
+      <c r="L26" s="78"/>
+      <c r="M26" s="78" t="s">
         <v>158</v>
       </c>
-      <c r="N26" s="91"/>
-      <c r="O26" s="91"/>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B27" s="192" t="s">
+      <c r="N26" s="78"/>
+      <c r="O26" s="78"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B27" s="127" t="s">
         <v>160</v>
       </c>
-      <c r="C27" s="192"/>
-      <c r="D27" s="90" t="s">
+      <c r="C27" s="127"/>
+      <c r="D27" s="77" t="s">
+        <v>270</v>
+      </c>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="77"/>
+      <c r="J27" s="77"/>
+      <c r="K27" s="77"/>
+      <c r="L27" s="77"/>
+      <c r="M27" s="77"/>
+      <c r="N27" s="77"/>
+      <c r="O27" s="77"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B28" s="127"/>
+      <c r="C28" s="127"/>
+      <c r="D28" s="78" t="s">
         <v>162</v>
       </c>
-      <c r="E27" s="90"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="90"/>
-      <c r="H27" s="90"/>
-      <c r="I27" s="90"/>
-      <c r="J27" s="90"/>
-      <c r="K27" s="90"/>
-      <c r="L27" s="90"/>
-      <c r="M27" s="90"/>
-      <c r="N27" s="90"/>
-      <c r="O27" s="90"/>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B28" s="192"/>
-      <c r="C28" s="192"/>
-      <c r="D28" s="91" t="s">
+      <c r="E28" s="78"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="78" t="s">
+        <v>164</v>
+      </c>
+      <c r="H28" s="78"/>
+      <c r="I28" s="78"/>
+      <c r="J28" s="78" t="s">
+        <v>148</v>
+      </c>
+      <c r="K28" s="78"/>
+      <c r="L28" s="78"/>
+      <c r="M28" s="78" t="s">
         <v>163</v>
       </c>
-      <c r="E28" s="91"/>
-      <c r="F28" s="91"/>
-      <c r="G28" s="91" t="s">
+      <c r="N28" s="78"/>
+      <c r="O28" s="78"/>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B29" s="127" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="127"/>
+      <c r="D29" s="78" t="s">
         <v>165</v>
       </c>
-      <c r="H28" s="91"/>
-      <c r="I28" s="91"/>
-      <c r="J28" s="91" t="s">
+      <c r="E29" s="78"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="78"/>
+      <c r="K29" s="78"/>
+      <c r="L29" s="78"/>
+      <c r="M29" s="78"/>
+      <c r="N29" s="78"/>
+      <c r="O29" s="78"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B30" s="127"/>
+      <c r="C30" s="127"/>
+      <c r="D30" s="78" t="s">
+        <v>166</v>
+      </c>
+      <c r="E30" s="78"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="78"/>
+      <c r="H30" s="78"/>
+      <c r="I30" s="78"/>
+      <c r="J30" s="78"/>
+      <c r="K30" s="78"/>
+      <c r="L30" s="78"/>
+      <c r="M30" s="78"/>
+      <c r="N30" s="78"/>
+      <c r="O30" s="78"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B31" s="127"/>
+      <c r="C31" s="127"/>
+      <c r="D31" s="78" t="s">
+        <v>167</v>
+      </c>
+      <c r="E31" s="78"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="78"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="78"/>
+      <c r="K31" s="78"/>
+      <c r="L31" s="78"/>
+      <c r="M31" s="78"/>
+      <c r="N31" s="78"/>
+      <c r="O31" s="78"/>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B32" s="127"/>
+      <c r="C32" s="127"/>
+      <c r="D32" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="E32" s="78"/>
+      <c r="F32" s="78"/>
+      <c r="G32" s="78" t="s">
+        <v>156</v>
+      </c>
+      <c r="H32" s="78"/>
+      <c r="I32" s="78"/>
+      <c r="J32" s="78" t="s">
         <v>148</v>
       </c>
-      <c r="K28" s="91"/>
-      <c r="L28" s="91"/>
-      <c r="M28" s="91" t="s">
-        <v>164</v>
-      </c>
-      <c r="N28" s="91"/>
-      <c r="O28" s="91"/>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B29" s="192" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="192"/>
-      <c r="D29" s="91" t="s">
-        <v>166</v>
-      </c>
-      <c r="E29" s="91"/>
-      <c r="F29" s="91"/>
-      <c r="G29" s="91"/>
-      <c r="H29" s="91"/>
-      <c r="I29" s="91"/>
-      <c r="J29" s="91"/>
-      <c r="K29" s="91"/>
-      <c r="L29" s="91"/>
-      <c r="M29" s="91"/>
-      <c r="N29" s="91"/>
-      <c r="O29" s="91"/>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B30" s="192"/>
-      <c r="C30" s="192"/>
-      <c r="D30" s="91" t="s">
-        <v>167</v>
-      </c>
-      <c r="E30" s="91"/>
-      <c r="F30" s="91"/>
-      <c r="G30" s="91"/>
-      <c r="H30" s="91"/>
-      <c r="I30" s="91"/>
-      <c r="J30" s="91"/>
-      <c r="K30" s="91"/>
-      <c r="L30" s="91"/>
-      <c r="M30" s="91"/>
-      <c r="N30" s="91"/>
-      <c r="O30" s="91"/>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B31" s="192"/>
-      <c r="C31" s="192"/>
-      <c r="D31" s="91" t="s">
-        <v>168</v>
-      </c>
-      <c r="E31" s="91"/>
-      <c r="F31" s="91"/>
-      <c r="G31" s="91"/>
-      <c r="H31" s="91"/>
-      <c r="I31" s="91"/>
-      <c r="J31" s="91"/>
-      <c r="K31" s="91"/>
-      <c r="L31" s="91"/>
-      <c r="M31" s="91"/>
-      <c r="N31" s="91"/>
-      <c r="O31" s="91"/>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B32" s="192"/>
-      <c r="C32" s="192"/>
-      <c r="D32" s="91" t="s">
+      <c r="K32" s="78"/>
+      <c r="L32" s="78"/>
+      <c r="M32" s="78" t="s">
         <v>169</v>
       </c>
-      <c r="E32" s="91"/>
-      <c r="F32" s="91"/>
-      <c r="G32" s="91" t="s">
-        <v>156</v>
-      </c>
-      <c r="H32" s="91"/>
-      <c r="I32" s="91"/>
-      <c r="J32" s="91" t="s">
-        <v>148</v>
-      </c>
-      <c r="K32" s="91"/>
-      <c r="L32" s="91"/>
-      <c r="M32" s="91" t="s">
-        <v>170</v>
-      </c>
-      <c r="N32" s="91"/>
-      <c r="O32" s="91"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="N32" s="78"/>
+      <c r="O32" s="78"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="31"/>
@@ -10558,7 +10552,7 @@
       <c r="N34" s="31"/>
       <c r="O34" s="31"/>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="31"/>
@@ -10574,7 +10568,7 @@
       <c r="N35" s="31"/>
       <c r="O35" s="31"/>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="31"/>
@@ -10590,7 +10584,7 @@
       <c r="N36" s="31"/>
       <c r="O36" s="31"/>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
       <c r="D37" s="31"/>
@@ -10606,7 +10600,7 @@
       <c r="N37" s="31"/>
       <c r="O37" s="31"/>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
       <c r="D38" s="31"/>
@@ -10624,26 +10618,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B29:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="D29:O29"/>
-    <mergeCell ref="D31:O31"/>
-    <mergeCell ref="D30:O30"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="B27:C28"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:O25"/>
     <mergeCell ref="B19:O19"/>
     <mergeCell ref="D20:O20"/>
     <mergeCell ref="D21:O21"/>
@@ -10660,6 +10634,26 @@
     <mergeCell ref="J26:L26"/>
     <mergeCell ref="M26:O26"/>
     <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="B27:C28"/>
+    <mergeCell ref="B29:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="D29:O29"/>
+    <mergeCell ref="D31:O31"/>
+    <mergeCell ref="D30:O30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10670,322 +10664,315 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3CCAFE-CEE6-48A9-8735-EA3AFEF10E87}">
-  <dimension ref="B36:O51"/>
+  <dimension ref="B36:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="16" max="16" width="8.796875" customWidth="1"/>
+    <col min="16" max="16" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="36" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="37" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="205" t="s">
+    <row r="36" spans="2:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="37" spans="2:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B37" s="204" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="206"/>
-      <c r="D37" s="206"/>
-      <c r="E37" s="206"/>
-      <c r="F37" s="206"/>
-      <c r="G37" s="206"/>
-      <c r="H37" s="206"/>
-      <c r="I37" s="206"/>
-      <c r="J37" s="206"/>
-      <c r="K37" s="206"/>
-      <c r="L37" s="207"/>
-    </row>
-    <row r="38" spans="2:15" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="198" t="s">
+      <c r="C37" s="205"/>
+      <c r="D37" s="205"/>
+      <c r="E37" s="205"/>
+      <c r="F37" s="205"/>
+      <c r="G37" s="205"/>
+      <c r="H37" s="205"/>
+      <c r="I37" s="205"/>
+      <c r="J37" s="205"/>
+      <c r="K37" s="205"/>
+      <c r="L37" s="206"/>
+    </row>
+    <row r="38" spans="2:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="125" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="93"/>
-      <c r="D38" s="176" t="s">
+      <c r="C38" s="80"/>
+      <c r="D38" s="130" t="s">
         <v>53</v>
       </c>
-      <c r="E38" s="176"/>
-      <c r="F38" s="176"/>
-      <c r="G38" s="176"/>
-      <c r="H38" s="176"/>
-      <c r="I38" s="176"/>
-      <c r="J38" s="176"/>
-      <c r="K38" s="176"/>
-      <c r="L38" s="177"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B39" s="194" t="s">
+      <c r="E38" s="130"/>
+      <c r="F38" s="130"/>
+      <c r="G38" s="130"/>
+      <c r="H38" s="130"/>
+      <c r="I38" s="130"/>
+      <c r="J38" s="130"/>
+      <c r="K38" s="130"/>
+      <c r="L38" s="131"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B39" s="126" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="192"/>
-      <c r="D39" s="91" t="s">
+      <c r="C39" s="127"/>
+      <c r="D39" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="E39" s="91"/>
-      <c r="F39" s="91"/>
-      <c r="G39" s="91"/>
-      <c r="H39" s="91"/>
-      <c r="I39" s="91"/>
-      <c r="J39" s="91"/>
-      <c r="K39" s="91"/>
-      <c r="L39" s="98"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B40" s="194"/>
-      <c r="C40" s="192"/>
-      <c r="D40" s="91" t="s">
+      <c r="E39" s="78"/>
+      <c r="F39" s="78"/>
+      <c r="G39" s="78"/>
+      <c r="H39" s="78"/>
+      <c r="I39" s="78"/>
+      <c r="J39" s="78"/>
+      <c r="K39" s="78"/>
+      <c r="L39" s="116"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B40" s="126"/>
+      <c r="C40" s="127"/>
+      <c r="D40" s="78" t="s">
         <v>148</v>
       </c>
-      <c r="E40" s="91"/>
-      <c r="F40" s="91" t="s">
-        <v>179</v>
-      </c>
-      <c r="G40" s="91"/>
-      <c r="H40" s="91" t="s">
+      <c r="E40" s="78"/>
+      <c r="F40" s="78" t="s">
         <v>178</v>
       </c>
-      <c r="I40" s="91"/>
-      <c r="J40" s="91" t="s">
+      <c r="G40" s="78"/>
+      <c r="H40" s="78" t="s">
         <v>177</v>
       </c>
-      <c r="K40" s="91"/>
-      <c r="L40" s="98"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B41" s="194"/>
-      <c r="C41" s="192"/>
-      <c r="D41" s="91" t="s">
+      <c r="I40" s="78"/>
+      <c r="J40" s="78" t="s">
         <v>176</v>
       </c>
-      <c r="E41" s="91"/>
-      <c r="F41" s="91" t="s">
+      <c r="K40" s="78"/>
+      <c r="L40" s="116"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B41" s="126"/>
+      <c r="C41" s="127"/>
+      <c r="D41" s="78" t="s">
+        <v>175</v>
+      </c>
+      <c r="E41" s="78"/>
+      <c r="F41" s="78" t="s">
         <v>151</v>
       </c>
-      <c r="G41" s="91"/>
-      <c r="H41" s="91" t="s">
-        <v>175</v>
-      </c>
-      <c r="I41" s="91"/>
-      <c r="J41" s="91">
+      <c r="G41" s="78"/>
+      <c r="H41" s="78" t="s">
+        <v>174</v>
+      </c>
+      <c r="I41" s="78"/>
+      <c r="J41" s="78">
         <v>1</v>
       </c>
-      <c r="K41" s="91"/>
-      <c r="L41" s="98"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B42" s="97" t="s">
+      <c r="K41" s="78"/>
+      <c r="L41" s="116"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B42" s="106" t="s">
+        <v>220</v>
+      </c>
+      <c r="C42" s="78"/>
+      <c r="D42" s="78" t="s">
         <v>221</v>
       </c>
-      <c r="C42" s="91"/>
-      <c r="D42" s="91" t="s">
+      <c r="E42" s="78"/>
+      <c r="F42" s="78"/>
+      <c r="G42" s="78"/>
+      <c r="H42" s="78"/>
+      <c r="I42" s="78"/>
+      <c r="J42" s="78"/>
+      <c r="K42" s="78"/>
+      <c r="L42" s="116"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B43" s="106"/>
+      <c r="C43" s="78"/>
+      <c r="D43" s="78" t="s">
+        <v>148</v>
+      </c>
+      <c r="E43" s="78"/>
+      <c r="F43" s="78" t="s">
+        <v>169</v>
+      </c>
+      <c r="G43" s="78"/>
+      <c r="H43" s="78" t="s">
+        <v>177</v>
+      </c>
+      <c r="I43" s="78"/>
+      <c r="J43" s="78" t="s">
         <v>222</v>
       </c>
-      <c r="E42" s="91"/>
-      <c r="F42" s="91"/>
-      <c r="G42" s="91"/>
-      <c r="H42" s="91"/>
-      <c r="I42" s="91"/>
-      <c r="J42" s="91"/>
-      <c r="K42" s="91"/>
-      <c r="L42" s="98"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B43" s="97"/>
-      <c r="C43" s="91"/>
-      <c r="D43" s="91" t="s">
+      <c r="K43" s="78"/>
+      <c r="L43" s="116"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B44" s="106"/>
+      <c r="C44" s="78"/>
+      <c r="D44" s="78" t="s">
+        <v>223</v>
+      </c>
+      <c r="E44" s="78"/>
+      <c r="F44" s="78" t="s">
+        <v>151</v>
+      </c>
+      <c r="G44" s="78"/>
+      <c r="H44" s="78" t="s">
+        <v>224</v>
+      </c>
+      <c r="I44" s="78"/>
+      <c r="J44" s="78" t="s">
+        <v>225</v>
+      </c>
+      <c r="K44" s="78"/>
+      <c r="L44" s="116"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B45" s="106" t="s">
+        <v>226</v>
+      </c>
+      <c r="C45" s="78"/>
+      <c r="D45" s="78" t="s">
+        <v>227</v>
+      </c>
+      <c r="E45" s="78"/>
+      <c r="F45" s="78"/>
+      <c r="G45" s="78"/>
+      <c r="H45" s="78"/>
+      <c r="I45" s="78"/>
+      <c r="J45" s="78"/>
+      <c r="K45" s="78"/>
+      <c r="L45" s="116"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B46" s="106"/>
+      <c r="C46" s="78"/>
+      <c r="D46" s="78" t="s">
         <v>148</v>
       </c>
-      <c r="E43" s="91"/>
-      <c r="F43" s="91" t="s">
-        <v>170</v>
-      </c>
-      <c r="G43" s="91"/>
-      <c r="H43" s="91" t="s">
-        <v>178</v>
-      </c>
-      <c r="I43" s="91"/>
-      <c r="J43" s="91" t="s">
+      <c r="E46" s="78"/>
+      <c r="F46" s="78" t="s">
+        <v>228</v>
+      </c>
+      <c r="G46" s="78"/>
+      <c r="H46" s="78" t="s">
+        <v>150</v>
+      </c>
+      <c r="I46" s="78"/>
+      <c r="J46" s="78" t="s">
+        <v>229</v>
+      </c>
+      <c r="K46" s="78"/>
+      <c r="L46" s="116"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B47" s="106"/>
+      <c r="C47" s="78"/>
+      <c r="D47" s="78" t="s">
         <v>223</v>
       </c>
-      <c r="K43" s="91"/>
-      <c r="L43" s="98"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B44" s="97"/>
-      <c r="C44" s="91"/>
-      <c r="D44" s="91" t="s">
+      <c r="E47" s="78"/>
+      <c r="F47" s="78" t="s">
+        <v>230</v>
+      </c>
+      <c r="G47" s="78"/>
+      <c r="H47" s="78" t="s">
         <v>224</v>
       </c>
-      <c r="E44" s="91"/>
-      <c r="F44" s="91" t="s">
+      <c r="I47" s="78"/>
+      <c r="J47" s="78" t="s">
+        <v>231</v>
+      </c>
+      <c r="K47" s="78"/>
+      <c r="L47" s="116"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B48" s="203" t="s">
+        <v>269</v>
+      </c>
+      <c r="C48" s="78"/>
+      <c r="D48" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48" s="78"/>
+      <c r="F48" s="78"/>
+      <c r="G48" s="78"/>
+      <c r="H48" s="78"/>
+      <c r="I48" s="78"/>
+      <c r="J48" s="78"/>
+      <c r="K48" s="78"/>
+      <c r="L48" s="116"/>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B49" s="106"/>
+      <c r="C49" s="78"/>
+      <c r="D49" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="E49" s="19"/>
+      <c r="F49" s="78" t="s">
         <v>151</v>
       </c>
-      <c r="G44" s="91"/>
-      <c r="H44" s="91" t="s">
-        <v>225</v>
-      </c>
-      <c r="I44" s="91"/>
-      <c r="J44" s="91" t="s">
-        <v>226</v>
-      </c>
-      <c r="K44" s="91"/>
-      <c r="L44" s="98"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B45" s="97" t="s">
-        <v>227</v>
-      </c>
-      <c r="C45" s="91"/>
-      <c r="D45" s="91" t="s">
-        <v>228</v>
-      </c>
-      <c r="E45" s="91"/>
-      <c r="F45" s="91"/>
-      <c r="G45" s="91"/>
-      <c r="H45" s="91"/>
-      <c r="I45" s="91"/>
-      <c r="J45" s="91"/>
-      <c r="K45" s="91"/>
-      <c r="L45" s="98"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B46" s="97"/>
-      <c r="C46" s="91"/>
-      <c r="D46" s="91" t="s">
-        <v>148</v>
-      </c>
-      <c r="E46" s="91"/>
-      <c r="F46" s="91" t="s">
-        <v>229</v>
-      </c>
-      <c r="G46" s="91"/>
-      <c r="H46" s="91" t="s">
+      <c r="G49" s="78"/>
+      <c r="H49" s="78" t="s">
+        <v>266</v>
+      </c>
+      <c r="I49" s="78"/>
+      <c r="J49" s="78" t="s">
+        <v>149</v>
+      </c>
+      <c r="K49" s="78"/>
+      <c r="L49" s="116"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B50" s="106"/>
+      <c r="C50" s="78"/>
+      <c r="D50" s="78" t="s">
         <v>150</v>
       </c>
-      <c r="I46" s="91"/>
-      <c r="J46" s="91" t="s">
-        <v>230</v>
-      </c>
-      <c r="K46" s="91"/>
-      <c r="L46" s="98"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B47" s="97"/>
-      <c r="C47" s="91"/>
-      <c r="D47" s="91" t="s">
-        <v>224</v>
-      </c>
-      <c r="E47" s="91"/>
-      <c r="F47" s="91" t="s">
-        <v>231</v>
-      </c>
-      <c r="G47" s="91"/>
-      <c r="H47" s="91" t="s">
-        <v>225</v>
-      </c>
-      <c r="I47" s="91"/>
-      <c r="J47" s="91" t="s">
-        <v>232</v>
-      </c>
-      <c r="K47" s="91"/>
-      <c r="L47" s="98"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B48" s="208" t="s">
-        <v>270</v>
-      </c>
-      <c r="C48" s="91"/>
-      <c r="D48" s="91" t="s">
-        <v>49</v>
-      </c>
-      <c r="E48" s="91"/>
-      <c r="F48" s="91"/>
-      <c r="G48" s="91"/>
-      <c r="H48" s="91"/>
-      <c r="I48" s="91"/>
-      <c r="J48" s="91"/>
-      <c r="K48" s="91"/>
-      <c r="L48" s="98"/>
-      <c r="M48" s="204"/>
-      <c r="N48" s="204"/>
-      <c r="O48" s="204"/>
-    </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B49" s="97"/>
-      <c r="C49" s="91"/>
-      <c r="D49" s="203" t="s">
-        <v>147</v>
-      </c>
-      <c r="E49" s="203"/>
-      <c r="F49" s="91" t="s">
-        <v>151</v>
-      </c>
-      <c r="G49" s="91"/>
-      <c r="H49" s="91" t="s">
+      <c r="E50" s="78"/>
+      <c r="F50" s="78" t="s">
+        <v>153</v>
+      </c>
+      <c r="G50" s="78"/>
+      <c r="H50" s="78"/>
+      <c r="I50" s="78"/>
+      <c r="J50" s="78"/>
+      <c r="K50" s="78"/>
+      <c r="L50" s="116"/>
+    </row>
+    <row r="51" spans="2:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B51" s="112"/>
+      <c r="C51" s="113"/>
+      <c r="D51" s="113" t="s">
         <v>267</v>
       </c>
-      <c r="I49" s="91"/>
-      <c r="J49" s="91" t="s">
-        <v>149</v>
-      </c>
-      <c r="K49" s="91"/>
-      <c r="L49" s="98"/>
-      <c r="M49" s="204"/>
-      <c r="N49" s="204"/>
-      <c r="O49" s="204"/>
-    </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B50" s="97"/>
-      <c r="C50" s="91"/>
-      <c r="D50" s="91" t="s">
-        <v>150</v>
-      </c>
-      <c r="E50" s="91"/>
-      <c r="F50" s="91" t="s">
-        <v>153</v>
-      </c>
-      <c r="G50" s="91"/>
-      <c r="H50" s="91"/>
-      <c r="I50" s="91"/>
-      <c r="J50" s="91"/>
-      <c r="K50" s="91"/>
-      <c r="L50" s="98"/>
-      <c r="M50" s="204"/>
-      <c r="N50" s="204"/>
-      <c r="O50" s="204"/>
-    </row>
-    <row r="51" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="99"/>
-      <c r="C51" s="100"/>
-      <c r="D51" s="100" t="s">
+      <c r="E51" s="113"/>
+      <c r="F51" s="113"/>
+      <c r="G51" s="113"/>
+      <c r="H51" s="113" t="s">
         <v>268</v>
       </c>
-      <c r="E51" s="100"/>
-      <c r="F51" s="100"/>
-      <c r="G51" s="100"/>
-      <c r="H51" s="100" t="s">
-        <v>269</v>
-      </c>
-      <c r="I51" s="100"/>
-      <c r="J51" s="100"/>
-      <c r="K51" s="100"/>
-      <c r="L51" s="101"/>
+      <c r="I51" s="113"/>
+      <c r="J51" s="113"/>
+      <c r="K51" s="113"/>
+      <c r="L51" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="F50:L50"/>
-    <mergeCell ref="H51:L51"/>
-    <mergeCell ref="D48:L48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="B37:L37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:L38"/>
+    <mergeCell ref="B39:C41"/>
+    <mergeCell ref="D39:L39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="D45:L45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="J46:L46"/>
     <mergeCell ref="B48:C51"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="F41:G41"/>
@@ -11002,20 +10989,18 @@
     <mergeCell ref="H44:I44"/>
     <mergeCell ref="J44:L44"/>
     <mergeCell ref="B45:C47"/>
-    <mergeCell ref="D45:L45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="B39:C41"/>
-    <mergeCell ref="D39:L39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="B37:L37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:L38"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="F50:L50"/>
+    <mergeCell ref="H51:L51"/>
+    <mergeCell ref="D48:L48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="D50:E50"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/기획서/스핀그로우 기획서_작성완료.xlsx
+++ b/기획서/스핀그로우 기획서_작성완료.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752D6B5A-B985-495E-8494-B29239EF1139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F7EF14-25D8-4113-A8C0-778D46D25097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" firstSheet="4" activeTab="6" xr2:uid="{6831196C-BD2B-4079-A5C5-73E04D2210C2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="6" xr2:uid="{6831196C-BD2B-4079-A5C5-73E04D2210C2}"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="8" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="272">
   <si>
     <t>ex) 던그리드</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -624,10 +624,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">창의 찌르는 주기 : </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>데미지 :</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -644,15 +640,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>창의 찌르는 범위</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>병정 주위의 8cm^2(8블록)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/2 x 4 x 1/4 (부채꼴)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1120,14 +1108,6 @@
   </si>
   <si>
     <t>데미지 :</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">창의 찌르는 범위 : </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/2 x 4 x 1/4 (부채꼴)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1156,6 +1136,30 @@
   </si>
   <si>
     <t>레벨업한 상태로 해당 부분을 지나갈 경우 구덩이 아래에 있는 가시와 접촉하게 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격속도 :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 범위 :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동할때 창에 찔리지 않게 주의하며 지나간다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2 x 3 x 5 (부채꼴)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>병정 주위의 4cm^2(4블록)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2183,7 +2187,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="207">
+  <cellXfs count="209">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2325,9 +2329,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -2385,6 +2386,48 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2427,176 +2470,167 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2610,96 +2644,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2727,6 +2674,105 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2742,67 +2788,31 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="56" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="73" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="74" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="73" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="74" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2866,8 +2876,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="701040" y="5932394"/>
-          <a:ext cx="2676939" cy="1490561"/>
+          <a:off x="687892" y="5869790"/>
+          <a:ext cx="2624346" cy="1460231"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7390,43 +7400,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB769FD-CCE9-4E61-AE6E-542587FE93AD}">
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q34" sqref="Q34"/>
+    <sheetView topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T46" sqref="T46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="2:16" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B2" s="82" t="s">
-        <v>255</v>
-      </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="84"/>
+      <c r="B2" s="66" t="s">
+        <v>252</v>
+      </c>
+      <c r="C2" s="67"/>
+      <c r="D2" s="68"/>
     </row>
     <row r="3" spans="2:16" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="85"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="71"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="84" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="90" t="s">
         <v>125</v>
       </c>
-      <c r="D5" s="77"/>
+      <c r="D5" s="90"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B6" s="71"/>
+      <c r="B6" s="84"/>
       <c r="C6" s="19" t="s">
         <v>126</v>
       </c>
       <c r="D6" s="19"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="54" t="s">
         <v>127</v>
       </c>
       <c r="C7" s="19" t="s">
@@ -7435,16 +7445,16 @@
       <c r="D7" s="19"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="54" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="77" t="s">
+      <c r="C8" s="90" t="s">
         <v>130</v>
       </c>
-      <c r="D8" s="77"/>
+      <c r="D8" s="90"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="54" t="s">
         <v>131</v>
       </c>
       <c r="C9" s="19" t="s">
@@ -7453,90 +7463,93 @@
       <c r="D9" s="19"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B10" s="55" t="s">
-        <v>234</v>
-      </c>
-      <c r="C10" s="77" t="s">
-        <v>235</v>
-      </c>
-      <c r="D10" s="77"/>
+      <c r="B10" s="54" t="s">
+        <v>231</v>
+      </c>
+      <c r="C10" s="90" t="s">
+        <v>232</v>
+      </c>
+      <c r="D10" s="90"/>
     </row>
     <row r="11" spans="2:16" ht="13.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="13" spans="2:16" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="74" t="s">
+      <c r="B13" s="87" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="75"/>
-      <c r="N13" s="75"/>
-      <c r="O13" s="75"/>
-      <c r="P13" s="76"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="88"/>
+      <c r="L13" s="88"/>
+      <c r="M13" s="88"/>
+      <c r="N13" s="88"/>
+      <c r="O13" s="88"/>
+      <c r="P13" s="89"/>
     </row>
     <row r="14" spans="2:16" ht="185.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="70" t="s">
-        <v>232</v>
-      </c>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="70"/>
-      <c r="N14" s="70"/>
-      <c r="O14" s="70"/>
-      <c r="P14" s="70"/>
+      <c r="B14" s="83" t="s">
+        <v>229</v>
+      </c>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="83"/>
+      <c r="L14" s="83"/>
+      <c r="M14" s="83"/>
+      <c r="N14" s="83"/>
+      <c r="O14" s="83"/>
+      <c r="P14" s="83"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="N15" s="54"/>
+      <c r="N15" s="53"/>
     </row>
     <row r="16" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="72" t="s">
+      <c r="B16" s="85" t="s">
         <v>133</v>
       </c>
-      <c r="C16" s="73"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="59"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B17" s="88" t="s">
+      <c r="C16" s="86"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="58"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B17" s="72" t="s">
         <v>134</v>
       </c>
-      <c r="C17" s="89"/>
+      <c r="C17" s="73"/>
       <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="M17" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B18" s="1"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B19" s="1"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B20" s="1"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21" s="28"/>
       <c r="B21" s="38"/>
       <c r="C21" s="28"/>
@@ -7548,52 +7561,52 @@
       <c r="I21" s="28"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B22" s="1"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B23" s="1"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B24" s="1"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B25" s="1"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B26" s="92" t="s">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B26" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="93"/>
-      <c r="D26" s="93"/>
-      <c r="E26" s="93"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="77"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B27" s="94" t="s">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B27" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="81"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="81" t="s">
+      <c r="C27" s="79"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="G27" s="81"/>
-      <c r="H27" s="81"/>
-      <c r="I27" s="81"/>
-      <c r="J27" s="81"/>
-      <c r="K27" s="47"/>
+      <c r="G27" s="79"/>
+      <c r="H27" s="79"/>
+      <c r="I27" s="79"/>
+      <c r="J27" s="79"/>
+      <c r="K27" s="133"/>
     </row>
     <row r="43" spans="2:16" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B43" s="90" t="s">
+      <c r="B43" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="91"/>
+      <c r="C43" s="75"/>
       <c r="D43" s="32"/>
       <c r="E43" s="32"/>
       <c r="F43" s="32"/>
@@ -7693,7 +7706,7 @@
       <c r="B48" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C48" s="60" t="s">
+      <c r="C48" s="59" t="s">
         <v>14</v>
       </c>
       <c r="D48" s="14"/>
@@ -7713,13 +7726,13 @@
       <c r="P48" s="5"/>
     </row>
     <row r="49" spans="2:16" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="79" t="s">
+      <c r="B49" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="C49" s="78" t="s">
+      <c r="C49" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="D49" s="78"/>
+      <c r="D49" s="91"/>
       <c r="E49" s="16" t="s">
         <v>21</v>
       </c>
@@ -7736,9 +7749,9 @@
       <c r="P49" s="14"/>
     </row>
     <row r="50" spans="2:16" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B50" s="80"/>
-      <c r="C50" s="78"/>
-      <c r="D50" s="78"/>
+      <c r="B50" s="93"/>
+      <c r="C50" s="91"/>
+      <c r="D50" s="91"/>
       <c r="E50" s="9" t="s">
         <v>22</v>
       </c>
@@ -7759,29 +7772,24 @@
       <c r="C51" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D51" s="67" t="s">
-        <v>233</v>
-      </c>
-      <c r="E51" s="68"/>
-      <c r="F51" s="68"/>
-      <c r="G51" s="68"/>
-      <c r="H51" s="68"/>
-      <c r="I51" s="68"/>
-      <c r="J51" s="68"/>
-      <c r="K51" s="68"/>
-      <c r="L51" s="68"/>
-      <c r="M51" s="68"/>
-      <c r="N51" s="68"/>
-      <c r="O51" s="68"/>
-      <c r="P51" s="69"/>
+      <c r="D51" s="80" t="s">
+        <v>230</v>
+      </c>
+      <c r="E51" s="81"/>
+      <c r="F51" s="81"/>
+      <c r="G51" s="81"/>
+      <c r="H51" s="81"/>
+      <c r="I51" s="81"/>
+      <c r="J51" s="81"/>
+      <c r="K51" s="81"/>
+      <c r="L51" s="81"/>
+      <c r="M51" s="81"/>
+      <c r="N51" s="81"/>
+      <c r="O51" s="81"/>
+      <c r="P51" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
     <mergeCell ref="D51:P51"/>
     <mergeCell ref="B14:P14"/>
     <mergeCell ref="B5:B6"/>
@@ -7792,7 +7800,12 @@
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C49:D50"/>
     <mergeCell ref="B49:B50"/>
-    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="F27:K27"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7804,28 +7817,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D56172-F97B-4DA2-B700-ED6E77845DD1}">
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J58" sqref="J58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="114" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="99"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="116"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="113" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="96"/>
+      <c r="B2" s="102"/>
       <c r="C2" s="22" t="s">
         <v>58</v>
       </c>
@@ -7843,10 +7856,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="113" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="96"/>
+      <c r="B3" s="102"/>
       <c r="C3" s="22">
         <v>10</v>
       </c>
@@ -7864,10 +7877,10 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="113" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="96"/>
+      <c r="B4" s="102"/>
       <c r="C4" s="22">
         <v>10</v>
       </c>
@@ -7885,10 +7898,10 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="113" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="96"/>
+      <c r="B5" s="102"/>
       <c r="C5" s="22">
         <v>5</v>
       </c>
@@ -7906,10 +7919,10 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="113" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="96"/>
+      <c r="B6" s="102"/>
       <c r="C6" s="22">
         <v>1</v>
       </c>
@@ -7927,10 +7940,10 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="96"/>
+      <c r="B7" s="102"/>
       <c r="C7" s="22">
         <v>1</v>
       </c>
@@ -7948,10 +7961,10 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="95" t="s">
+      <c r="A8" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="96"/>
+      <c r="B8" s="102"/>
       <c r="C8" s="22">
         <v>2</v>
       </c>
@@ -7969,10 +7982,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="95" t="s">
+      <c r="A9" s="113" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="96"/>
+      <c r="B9" s="102"/>
       <c r="C9" s="22">
         <v>0</v>
       </c>
@@ -7990,10 +8003,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" s="95" t="s">
+      <c r="A10" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="96"/>
+      <c r="B10" s="102"/>
       <c r="C10" s="22">
         <v>0</v>
       </c>
@@ -8011,10 +8024,10 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="95" t="s">
+      <c r="A11" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="96"/>
+      <c r="B11" s="102"/>
       <c r="C11" s="22">
         <v>0</v>
       </c>
@@ -8032,10 +8045,10 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="95" t="s">
+      <c r="A12" s="113" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="96"/>
+      <c r="B12" s="102"/>
       <c r="C12" s="22">
         <v>100</v>
       </c>
@@ -8053,10 +8066,10 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="100" t="s">
+      <c r="A13" s="111" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="101"/>
+      <c r="B13" s="112"/>
       <c r="C13" s="25">
         <v>1</v>
       </c>
@@ -8074,93 +8087,93 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" s="102" t="s">
+      <c r="A17" s="110" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="102"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="102"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="102"/>
+      <c r="B17" s="110"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="110"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" s="96" t="s">
+      <c r="A18" s="102" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="96"/>
-      <c r="C18" s="96" t="s">
+      <c r="B18" s="102"/>
+      <c r="C18" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="96"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="96"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="102"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" s="96" t="s">
+      <c r="A19" s="102" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="96"/>
-      <c r="C19" s="96" t="s">
+      <c r="B19" s="102"/>
+      <c r="C19" s="102" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="96"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="96"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="102"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A20" s="96" t="s">
+      <c r="A20" s="102" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="96"/>
-      <c r="C20" s="96" t="s">
+      <c r="B20" s="102"/>
+      <c r="C20" s="102" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="96"/>
-      <c r="E20" s="96"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="96"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="102"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A21" s="96" t="s">
+      <c r="A21" s="102" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="96"/>
-      <c r="C21" s="96" t="s">
+      <c r="B21" s="102"/>
+      <c r="C21" s="102" t="s">
         <v>83</v>
       </c>
-      <c r="D21" s="96"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="96"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="102"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A22" s="96" t="s">
+      <c r="A22" s="102" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="96"/>
-      <c r="C22" s="96" t="s">
+      <c r="B22" s="102"/>
+      <c r="C22" s="102" t="s">
         <v>85</v>
       </c>
-      <c r="D22" s="96"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="96"/>
+      <c r="D22" s="102"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="102"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A23" s="96" t="s">
+      <c r="A23" s="102" t="s">
         <v>86</v>
       </c>
-      <c r="B23" s="96"/>
-      <c r="C23" s="96" t="s">
+      <c r="B23" s="102"/>
+      <c r="C23" s="102" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="96"/>
-      <c r="E23" s="96"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="96"/>
+      <c r="D23" s="102"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="102"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="27"/>
@@ -8182,139 +8195,139 @@
     </row>
     <row r="26" spans="1:7" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A27" s="103" t="s">
+      <c r="A27" s="94" t="s">
         <v>88</v>
       </c>
-      <c r="B27" s="104"/>
-      <c r="C27" s="104"/>
-      <c r="D27" s="104"/>
-      <c r="E27" s="104"/>
-      <c r="F27" s="104"/>
-      <c r="G27" s="105"/>
+      <c r="B27" s="95"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="95"/>
+      <c r="G27" s="96"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A28" s="106" t="s">
+      <c r="A28" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="B28" s="78"/>
-      <c r="C28" s="107" t="s">
+      <c r="B28" s="91"/>
+      <c r="C28" s="104" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="108"/>
-      <c r="E28" s="108"/>
-      <c r="F28" s="108"/>
-      <c r="G28" s="109"/>
+      <c r="D28" s="105"/>
+      <c r="E28" s="105"/>
+      <c r="F28" s="105"/>
+      <c r="G28" s="106"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A29" s="106"/>
-      <c r="B29" s="78"/>
-      <c r="C29" s="92"/>
-      <c r="D29" s="93"/>
-      <c r="E29" s="93"/>
-      <c r="F29" s="93"/>
-      <c r="G29" s="110"/>
+      <c r="A29" s="97"/>
+      <c r="B29" s="91"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="77"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="107"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A30" s="106"/>
-      <c r="B30" s="78"/>
-      <c r="C30" s="94"/>
-      <c r="D30" s="81"/>
-      <c r="E30" s="81"/>
-      <c r="F30" s="81"/>
-      <c r="G30" s="111"/>
+      <c r="A30" s="97"/>
+      <c r="B30" s="91"/>
+      <c r="C30" s="78"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="79"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="108"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A31" s="106" t="s">
+      <c r="A31" s="97" t="s">
         <v>91</v>
       </c>
-      <c r="B31" s="78"/>
-      <c r="C31" s="107" t="s">
+      <c r="B31" s="91"/>
+      <c r="C31" s="104" t="s">
         <v>92</v>
       </c>
-      <c r="D31" s="108"/>
-      <c r="E31" s="108"/>
-      <c r="F31" s="108"/>
-      <c r="G31" s="109"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="105"/>
+      <c r="F31" s="105"/>
+      <c r="G31" s="106"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A32" s="106"/>
-      <c r="B32" s="78"/>
-      <c r="C32" s="92"/>
-      <c r="D32" s="93"/>
-      <c r="E32" s="93"/>
-      <c r="F32" s="93"/>
-      <c r="G32" s="110"/>
+      <c r="A32" s="97"/>
+      <c r="B32" s="91"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="107"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A33" s="106"/>
-      <c r="B33" s="78"/>
-      <c r="C33" s="94"/>
-      <c r="D33" s="81"/>
-      <c r="E33" s="81"/>
-      <c r="F33" s="81"/>
-      <c r="G33" s="111"/>
+      <c r="A33" s="97"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="79"/>
+      <c r="E33" s="79"/>
+      <c r="F33" s="79"/>
+      <c r="G33" s="108"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A34" s="106" t="s">
+      <c r="A34" s="97" t="s">
         <v>93</v>
       </c>
-      <c r="B34" s="78"/>
-      <c r="C34" s="107" t="s">
+      <c r="B34" s="91"/>
+      <c r="C34" s="104" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="108"/>
-      <c r="E34" s="108"/>
-      <c r="F34" s="108"/>
-      <c r="G34" s="109"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="105"/>
+      <c r="F34" s="105"/>
+      <c r="G34" s="106"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A35" s="106"/>
-      <c r="B35" s="78"/>
-      <c r="C35" s="92"/>
-      <c r="D35" s="93"/>
-      <c r="E35" s="93"/>
-      <c r="F35" s="93"/>
-      <c r="G35" s="110"/>
+      <c r="A35" s="97"/>
+      <c r="B35" s="91"/>
+      <c r="C35" s="76"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="107"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A36" s="106"/>
-      <c r="B36" s="78"/>
-      <c r="C36" s="94"/>
-      <c r="D36" s="81"/>
-      <c r="E36" s="81"/>
-      <c r="F36" s="81"/>
-      <c r="G36" s="111"/>
+      <c r="A36" s="97"/>
+      <c r="B36" s="91"/>
+      <c r="C36" s="78"/>
+      <c r="D36" s="79"/>
+      <c r="E36" s="79"/>
+      <c r="F36" s="79"/>
+      <c r="G36" s="108"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A37" s="106" t="s">
+      <c r="A37" s="97" t="s">
         <v>94</v>
       </c>
-      <c r="B37" s="78"/>
-      <c r="C37" s="107" t="s">
+      <c r="B37" s="91"/>
+      <c r="C37" s="104" t="s">
         <v>95</v>
       </c>
-      <c r="D37" s="108"/>
-      <c r="E37" s="108"/>
-      <c r="F37" s="108"/>
-      <c r="G37" s="109"/>
+      <c r="D37" s="105"/>
+      <c r="E37" s="105"/>
+      <c r="F37" s="105"/>
+      <c r="G37" s="106"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A38" s="106"/>
-      <c r="B38" s="78"/>
-      <c r="C38" s="92"/>
-      <c r="D38" s="93"/>
-      <c r="E38" s="93"/>
-      <c r="F38" s="93"/>
-      <c r="G38" s="110"/>
+      <c r="A38" s="97"/>
+      <c r="B38" s="91"/>
+      <c r="C38" s="76"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="77"/>
+      <c r="G38" s="107"/>
     </row>
     <row r="39" spans="1:7" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A39" s="112"/>
-      <c r="B39" s="113"/>
-      <c r="C39" s="114"/>
-      <c r="D39" s="86"/>
-      <c r="E39" s="86"/>
-      <c r="F39" s="86"/>
-      <c r="G39" s="87"/>
+      <c r="A39" s="99"/>
+      <c r="B39" s="100"/>
+      <c r="C39" s="109"/>
+      <c r="D39" s="70"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="71"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="28"/>
@@ -8344,211 +8357,212 @@
       <c r="G42" s="28"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A43" s="102" t="s">
+      <c r="A43" s="110" t="s">
         <v>96</v>
       </c>
-      <c r="B43" s="102"/>
-      <c r="C43" s="102"/>
-      <c r="D43" s="102"/>
-      <c r="E43" s="102"/>
-      <c r="F43" s="102"/>
-      <c r="G43" s="102"/>
+      <c r="B43" s="110"/>
+      <c r="C43" s="110"/>
+      <c r="D43" s="110"/>
+      <c r="E43" s="110"/>
+      <c r="F43" s="110"/>
+      <c r="G43" s="110"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A44" s="96" t="s">
+      <c r="A44" s="102" t="s">
         <v>97</v>
       </c>
-      <c r="B44" s="96"/>
-      <c r="C44" s="96" t="s">
+      <c r="B44" s="102"/>
+      <c r="C44" s="102" t="s">
         <v>98</v>
       </c>
-      <c r="D44" s="96"/>
-      <c r="E44" s="96"/>
-      <c r="F44" s="96"/>
-      <c r="G44" s="96"/>
+      <c r="D44" s="102"/>
+      <c r="E44" s="102"/>
+      <c r="F44" s="102"/>
+      <c r="G44" s="102"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A45" s="96" t="s">
+      <c r="A45" s="102" t="s">
         <v>99</v>
       </c>
-      <c r="B45" s="96"/>
-      <c r="C45" s="96" t="s">
+      <c r="B45" s="102"/>
+      <c r="C45" s="102" t="s">
         <v>100</v>
       </c>
-      <c r="D45" s="96"/>
-      <c r="E45" s="96"/>
-      <c r="F45" s="96"/>
-      <c r="G45" s="96"/>
+      <c r="D45" s="102"/>
+      <c r="E45" s="102"/>
+      <c r="F45" s="102"/>
+      <c r="G45" s="102"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A46" s="115" t="s">
+      <c r="A46" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="B46" s="115"/>
-      <c r="C46" s="115" t="s">
+      <c r="B46" s="103"/>
+      <c r="C46" s="103" t="s">
         <v>102</v>
       </c>
-      <c r="D46" s="115"/>
-      <c r="E46" s="115"/>
-      <c r="F46" s="115"/>
-      <c r="G46" s="115"/>
+      <c r="D46" s="103"/>
+      <c r="E46" s="103"/>
+      <c r="F46" s="103"/>
+      <c r="G46" s="103"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A47" s="96" t="s">
+      <c r="A47" s="102" t="s">
         <v>103</v>
       </c>
-      <c r="B47" s="96"/>
-      <c r="C47" s="96" t="s">
+      <c r="B47" s="102"/>
+      <c r="C47" s="102" t="s">
         <v>104</v>
       </c>
-      <c r="D47" s="96"/>
-      <c r="E47" s="96"/>
-      <c r="F47" s="96"/>
-      <c r="G47" s="96"/>
+      <c r="D47" s="102"/>
+      <c r="E47" s="102"/>
+      <c r="F47" s="102"/>
+      <c r="G47" s="102"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A48" s="96" t="s">
+      <c r="A48" s="102" t="s">
         <v>105</v>
       </c>
-      <c r="B48" s="96"/>
-      <c r="C48" s="96" t="s">
+      <c r="B48" s="102"/>
+      <c r="C48" s="102" t="s">
         <v>106</v>
       </c>
-      <c r="D48" s="96"/>
-      <c r="E48" s="96"/>
-      <c r="F48" s="96"/>
-      <c r="G48" s="96"/>
+      <c r="D48" s="102"/>
+      <c r="E48" s="102"/>
+      <c r="F48" s="102"/>
+      <c r="G48" s="102"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A49" s="96" t="s">
+      <c r="A49" s="102" t="s">
         <v>107</v>
       </c>
-      <c r="B49" s="96"/>
-      <c r="C49" s="96" t="s">
+      <c r="B49" s="102"/>
+      <c r="C49" s="102" t="s">
         <v>108</v>
       </c>
-      <c r="D49" s="96"/>
-      <c r="E49" s="96"/>
-      <c r="F49" s="96"/>
-      <c r="G49" s="96"/>
+      <c r="D49" s="102"/>
+      <c r="E49" s="102"/>
+      <c r="F49" s="102"/>
+      <c r="G49" s="102"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A50" s="93"/>
-      <c r="B50" s="93"/>
-      <c r="C50" s="93"/>
-      <c r="D50" s="93"/>
-      <c r="E50" s="93"/>
-      <c r="F50" s="93"/>
-      <c r="G50" s="93"/>
+      <c r="A50" s="207"/>
+      <c r="B50" s="207"/>
+      <c r="C50" s="207"/>
+      <c r="D50" s="207"/>
+      <c r="E50" s="207"/>
+      <c r="F50" s="207"/>
+      <c r="G50" s="207"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A51" s="93"/>
-      <c r="B51" s="93"/>
-      <c r="C51" s="93"/>
-      <c r="D51" s="93"/>
-      <c r="E51" s="93"/>
-      <c r="F51" s="93"/>
-      <c r="G51" s="93"/>
+      <c r="A51" s="206"/>
+      <c r="B51" s="206"/>
+      <c r="C51" s="206"/>
+      <c r="D51" s="206"/>
+      <c r="E51" s="206"/>
+      <c r="F51" s="206"/>
+      <c r="G51" s="206"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A52" s="93"/>
-      <c r="B52" s="93"/>
-      <c r="C52" s="93"/>
-      <c r="D52" s="93"/>
-      <c r="E52" s="93"/>
-      <c r="F52" s="93"/>
-      <c r="G52" s="93"/>
+      <c r="A52" s="206"/>
+      <c r="B52" s="206"/>
+      <c r="C52" s="206"/>
+      <c r="D52" s="206"/>
+      <c r="E52" s="206"/>
+      <c r="F52" s="206"/>
+      <c r="G52" s="206"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A53" s="93"/>
-      <c r="B53" s="93"/>
-      <c r="C53" s="93"/>
-      <c r="D53" s="93"/>
-      <c r="E53" s="93"/>
-      <c r="F53" s="93"/>
-      <c r="G53" s="93"/>
+      <c r="A53" s="206"/>
+      <c r="B53" s="206"/>
+      <c r="C53" s="206"/>
+      <c r="D53" s="206"/>
+      <c r="E53" s="206"/>
+      <c r="F53" s="206"/>
+      <c r="G53" s="206"/>
     </row>
     <row r="54" spans="1:7" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="55" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A55" s="103" t="s">
+      <c r="A55" s="94" t="s">
         <v>109</v>
       </c>
-      <c r="B55" s="104"/>
-      <c r="C55" s="104"/>
-      <c r="D55" s="104"/>
-      <c r="E55" s="104"/>
-      <c r="F55" s="104"/>
-      <c r="G55" s="105"/>
+      <c r="B55" s="95"/>
+      <c r="C55" s="95"/>
+      <c r="D55" s="95"/>
+      <c r="E55" s="95"/>
+      <c r="F55" s="95"/>
+      <c r="G55" s="96"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A56" s="106" t="s">
+      <c r="A56" s="97" t="s">
         <v>110</v>
       </c>
-      <c r="B56" s="78"/>
-      <c r="C56" s="78"/>
-      <c r="D56" s="78"/>
-      <c r="E56" s="78"/>
-      <c r="F56" s="78"/>
-      <c r="G56" s="116"/>
+      <c r="B56" s="91"/>
+      <c r="C56" s="91"/>
+      <c r="D56" s="91"/>
+      <c r="E56" s="91"/>
+      <c r="F56" s="91"/>
+      <c r="G56" s="98"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A57" s="106" t="s">
+      <c r="A57" s="97" t="s">
         <v>111</v>
       </c>
-      <c r="B57" s="78"/>
-      <c r="C57" s="78"/>
-      <c r="D57" s="78"/>
-      <c r="E57" s="78"/>
-      <c r="F57" s="78"/>
-      <c r="G57" s="116"/>
+      <c r="B57" s="91"/>
+      <c r="C57" s="91"/>
+      <c r="D57" s="91"/>
+      <c r="E57" s="91"/>
+      <c r="F57" s="91"/>
+      <c r="G57" s="98"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A58" s="106" t="s">
+      <c r="A58" s="97" t="s">
         <v>112</v>
       </c>
-      <c r="B58" s="78"/>
-      <c r="C58" s="78"/>
-      <c r="D58" s="78"/>
-      <c r="E58" s="78"/>
-      <c r="F58" s="78"/>
-      <c r="G58" s="116"/>
+      <c r="B58" s="91"/>
+      <c r="C58" s="91"/>
+      <c r="D58" s="91"/>
+      <c r="E58" s="91"/>
+      <c r="F58" s="91"/>
+      <c r="G58" s="98"/>
     </row>
     <row r="59" spans="1:7" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A59" s="112" t="s">
+      <c r="A59" s="99" t="s">
         <v>113</v>
       </c>
-      <c r="B59" s="113"/>
-      <c r="C59" s="113"/>
-      <c r="D59" s="113"/>
-      <c r="E59" s="113"/>
-      <c r="F59" s="113"/>
-      <c r="G59" s="117"/>
+      <c r="B59" s="100"/>
+      <c r="C59" s="100"/>
+      <c r="D59" s="100"/>
+      <c r="E59" s="100"/>
+      <c r="F59" s="100"/>
+      <c r="G59" s="101"/>
     </row>
   </sheetData>
-  <mergeCells count="61">
-    <mergeCell ref="A55:G55"/>
-    <mergeCell ref="A56:G56"/>
-    <mergeCell ref="A57:G57"/>
-    <mergeCell ref="A58:G58"/>
-    <mergeCell ref="A59:G59"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:G47"/>
+  <mergeCells count="53">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="C44:G44"/>
     <mergeCell ref="A23:B23"/>
@@ -8563,30 +8577,21 @@
     <mergeCell ref="A37:B39"/>
     <mergeCell ref="C37:G39"/>
     <mergeCell ref="A43:G43"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="A55:G55"/>
+    <mergeCell ref="A56:G56"/>
+    <mergeCell ref="A57:G57"/>
+    <mergeCell ref="A58:G58"/>
+    <mergeCell ref="A59:G59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8598,102 +8603,102 @@
   <dimension ref="B2:J41"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
     </row>
     <row r="17" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="18" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="118" t="s">
+      <c r="B18" s="117" t="s">
+        <v>253</v>
+      </c>
+      <c r="C18" s="118"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="118"/>
+      <c r="G18" s="118"/>
+      <c r="H18" s="118"/>
+      <c r="I18" s="118"/>
+      <c r="J18" s="119"/>
+    </row>
+    <row r="19" spans="2:10" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="124" t="s">
+        <v>254</v>
+      </c>
+      <c r="C19" s="93"/>
+      <c r="D19" s="129" t="s">
+        <v>257</v>
+      </c>
+      <c r="E19" s="129"/>
+      <c r="F19" s="129"/>
+      <c r="G19" s="129"/>
+      <c r="H19" s="129"/>
+      <c r="I19" s="129"/>
+      <c r="J19" s="130"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B20" s="125" t="s">
+        <v>255</v>
+      </c>
+      <c r="C20" s="126"/>
+      <c r="D20" s="91" t="s">
+        <v>258</v>
+      </c>
+      <c r="E20" s="91"/>
+      <c r="F20" s="91"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="91"/>
+      <c r="J20" s="98"/>
+    </row>
+    <row r="21" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B21" s="127" t="s">
         <v>256</v>
       </c>
-      <c r="C18" s="119"/>
-      <c r="D18" s="119"/>
-      <c r="E18" s="119"/>
-      <c r="F18" s="119"/>
-      <c r="G18" s="119"/>
-      <c r="H18" s="119"/>
-      <c r="I18" s="119"/>
-      <c r="J18" s="120"/>
-    </row>
-    <row r="19" spans="2:10" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="125" t="s">
-        <v>257</v>
-      </c>
-      <c r="C19" s="80"/>
-      <c r="D19" s="130" t="s">
-        <v>260</v>
-      </c>
-      <c r="E19" s="130"/>
-      <c r="F19" s="130"/>
-      <c r="G19" s="130"/>
-      <c r="H19" s="130"/>
-      <c r="I19" s="130"/>
-      <c r="J19" s="131"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B20" s="126" t="s">
-        <v>258</v>
-      </c>
-      <c r="C20" s="127"/>
-      <c r="D20" s="78" t="s">
-        <v>261</v>
-      </c>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="116"/>
-    </row>
-    <row r="21" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B21" s="128" t="s">
+      <c r="C21" s="128"/>
+      <c r="D21" s="100" t="s">
         <v>259</v>
       </c>
-      <c r="C21" s="129"/>
-      <c r="D21" s="113" t="s">
-        <v>262</v>
-      </c>
-      <c r="E21" s="113"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="117"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="100"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="100"/>
+      <c r="I21" s="100"/>
+      <c r="J21" s="101"/>
     </row>
     <row r="39" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="40" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B40" s="118" t="s">
-        <v>263</v>
-      </c>
-      <c r="C40" s="119"/>
-      <c r="D40" s="119"/>
-      <c r="E40" s="119"/>
-      <c r="F40" s="119"/>
-      <c r="G40" s="119"/>
-      <c r="H40" s="119"/>
-      <c r="I40" s="119"/>
-      <c r="J40" s="120"/>
+      <c r="B40" s="117" t="s">
+        <v>260</v>
+      </c>
+      <c r="C40" s="118"/>
+      <c r="D40" s="118"/>
+      <c r="E40" s="118"/>
+      <c r="F40" s="118"/>
+      <c r="G40" s="118"/>
+      <c r="H40" s="118"/>
+      <c r="I40" s="118"/>
+      <c r="J40" s="119"/>
     </row>
     <row r="41" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B41" s="121" t="s">
-        <v>264</v>
-      </c>
-      <c r="C41" s="122"/>
-      <c r="D41" s="123" t="s">
-        <v>265</v>
-      </c>
-      <c r="E41" s="123"/>
-      <c r="F41" s="123"/>
-      <c r="G41" s="123"/>
-      <c r="H41" s="123"/>
-      <c r="I41" s="123"/>
-      <c r="J41" s="124"/>
+      <c r="B41" s="120" t="s">
+        <v>261</v>
+      </c>
+      <c r="C41" s="121"/>
+      <c r="D41" s="122" t="s">
+        <v>262</v>
+      </c>
+      <c r="E41" s="122"/>
+      <c r="F41" s="122"/>
+      <c r="G41" s="122"/>
+      <c r="H41" s="122"/>
+      <c r="I41" s="122"/>
+      <c r="J41" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -8718,8 +8723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C138E6A2-E98E-49D8-A28E-55F40F154BA0}">
   <dimension ref="B19:O82"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O73" sqref="O73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -8732,29 +8737,29 @@
       <c r="B19" s="29"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B23" s="151" t="s">
+      <c r="B23" s="131" t="s">
         <v>146</v>
       </c>
-      <c r="C23" s="151"/>
-      <c r="D23" s="151"/>
-      <c r="E23" s="151"/>
-      <c r="F23" s="151"/>
-      <c r="G23" s="151"/>
-      <c r="H23" s="151"/>
-      <c r="I23" s="151"/>
-      <c r="J23" s="151"/>
-      <c r="K23" s="151"/>
-      <c r="L23" s="151"/>
-      <c r="M23" s="151"/>
-      <c r="N23" s="151"/>
+      <c r="C23" s="131"/>
+      <c r="D23" s="131"/>
+      <c r="E23" s="131"/>
+      <c r="F23" s="131"/>
+      <c r="G23" s="131"/>
+      <c r="H23" s="131"/>
+      <c r="I23" s="131"/>
+      <c r="J23" s="131"/>
+      <c r="K23" s="131"/>
+      <c r="L23" s="131"/>
+      <c r="M23" s="131"/>
+      <c r="N23" s="131"/>
     </row>
     <row r="24" spans="2:14" ht="150.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="132" t="s">
+      <c r="B24" s="136" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="133"/>
+      <c r="C24" s="137"/>
       <c r="D24" s="142" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E24" s="143"/>
       <c r="F24" s="143"/>
@@ -8767,46 +8772,46 @@
       <c r="M24" s="144"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B25" s="136"/>
-      <c r="C25" s="137"/>
-      <c r="D25" s="107" t="s">
+      <c r="B25" s="138"/>
+      <c r="C25" s="139"/>
+      <c r="D25" s="104" t="s">
         <v>144</v>
       </c>
-      <c r="E25" s="145"/>
-      <c r="F25" s="152" t="s">
+      <c r="E25" s="132"/>
+      <c r="F25" s="134" t="s">
         <v>135</v>
       </c>
-      <c r="G25" s="153"/>
-      <c r="H25" s="152" t="s">
+      <c r="G25" s="135"/>
+      <c r="H25" s="134" t="s">
         <v>143</v>
       </c>
-      <c r="I25" s="153"/>
+      <c r="I25" s="135"/>
       <c r="J25" s="19"/>
       <c r="K25" s="19"/>
       <c r="L25" s="19"/>
       <c r="M25" s="19"/>
     </row>
     <row r="26" spans="2:14" ht="21.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="136"/>
-      <c r="C26" s="137"/>
-      <c r="D26" s="94"/>
-      <c r="E26" s="146"/>
-      <c r="F26" s="152">
+      <c r="B26" s="138"/>
+      <c r="C26" s="139"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="133"/>
+      <c r="F26" s="134">
         <v>20</v>
       </c>
-      <c r="G26" s="153"/>
-      <c r="H26" s="152" t="s">
+      <c r="G26" s="135"/>
+      <c r="H26" s="134" t="s">
         <v>140</v>
       </c>
-      <c r="I26" s="153"/>
+      <c r="I26" s="135"/>
       <c r="J26" s="19"/>
       <c r="K26" s="19"/>
       <c r="L26" s="19"/>
       <c r="M26" s="19"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B27" s="136"/>
-      <c r="C27" s="137"/>
+      <c r="B27" s="138"/>
+      <c r="C27" s="139"/>
       <c r="D27" s="19"/>
       <c r="E27" s="19" t="s">
         <v>136</v>
@@ -8829,8 +8834,8 @@
       <c r="M27" s="19"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B28" s="136"/>
-      <c r="C28" s="137"/>
+      <c r="B28" s="138"/>
+      <c r="C28" s="139"/>
       <c r="D28" s="19" t="s">
         <v>142</v>
       </c>
@@ -8855,44 +8860,44 @@
       <c r="M28" s="19"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B29" s="136"/>
-      <c r="C29" s="137"/>
+      <c r="B29" s="138"/>
+      <c r="C29" s="139"/>
       <c r="D29" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="E29" s="152" t="s">
-        <v>169</v>
-      </c>
-      <c r="F29" s="153"/>
+        <v>176</v>
+      </c>
+      <c r="E29" s="134" t="s">
+        <v>166</v>
+      </c>
+      <c r="F29" s="135"/>
       <c r="G29" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="H29" s="152">
+      <c r="H29" s="134">
         <v>20</v>
       </c>
-      <c r="I29" s="153"/>
+      <c r="I29" s="135"/>
       <c r="J29" s="19"/>
       <c r="K29" s="19"/>
       <c r="L29" s="19"/>
       <c r="M29" s="19"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B30" s="134"/>
-      <c r="C30" s="135"/>
+      <c r="B30" s="140"/>
+      <c r="C30" s="141"/>
       <c r="D30" s="19" t="s">
         <v>145</v>
       </c>
       <c r="E30" s="19"/>
-      <c r="F30" s="148" t="s">
-        <v>180</v>
-      </c>
-      <c r="G30" s="149"/>
-      <c r="H30" s="149"/>
-      <c r="I30" s="149"/>
-      <c r="J30" s="149"/>
-      <c r="K30" s="149"/>
-      <c r="L30" s="149"/>
-      <c r="M30" s="150"/>
+      <c r="F30" s="145" t="s">
+        <v>177</v>
+      </c>
+      <c r="G30" s="146"/>
+      <c r="H30" s="146"/>
+      <c r="I30" s="146"/>
+      <c r="J30" s="146"/>
+      <c r="K30" s="146"/>
+      <c r="L30" s="146"/>
+      <c r="M30" s="147"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B31" s="45"/>
@@ -8907,104 +8912,104 @@
       <c r="C33" s="45"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B35" s="48" t="s">
+      <c r="B35" s="47" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B66" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="C66" s="84"/>
+      <c r="D66" s="90" t="s">
+        <v>170</v>
+      </c>
+      <c r="E66" s="90"/>
+      <c r="F66" s="90"/>
+      <c r="G66" s="90"/>
+      <c r="H66" s="90"/>
+      <c r="I66" s="90"/>
+      <c r="J66" s="90"/>
+      <c r="K66" s="90"/>
+      <c r="L66" s="90"/>
+      <c r="M66" s="90"/>
+      <c r="N66" s="90"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B67" s="84"/>
+      <c r="C67" s="84"/>
+      <c r="D67" s="91" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B66" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="C66" s="71"/>
-      <c r="D66" s="77" t="s">
-        <v>173</v>
-      </c>
-      <c r="E66" s="77"/>
-      <c r="F66" s="77"/>
-      <c r="G66" s="77"/>
-      <c r="H66" s="77"/>
-      <c r="I66" s="77"/>
-      <c r="J66" s="77"/>
-      <c r="K66" s="77"/>
-      <c r="L66" s="77"/>
-      <c r="M66" s="77"/>
-      <c r="N66" s="77"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B67" s="71"/>
-      <c r="C67" s="71"/>
-      <c r="D67" s="78" t="s">
-        <v>206</v>
-      </c>
-      <c r="E67" s="78"/>
-      <c r="F67" s="78"/>
+      <c r="E67" s="91"/>
+      <c r="F67" s="91"/>
       <c r="G67" s="19" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H67" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B68" s="71"/>
-      <c r="C68" s="71"/>
-      <c r="D68" s="78"/>
-      <c r="E68" s="78"/>
-      <c r="F68" s="78"/>
+      <c r="B68" s="84"/>
+      <c r="C68" s="84"/>
+      <c r="D68" s="91"/>
+      <c r="E68" s="91"/>
+      <c r="F68" s="91"/>
       <c r="G68" s="19" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H68" s="19">
         <v>1.5</v>
       </c>
     </row>
     <row r="69" spans="2:15" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="147" t="s">
-        <v>182</v>
-      </c>
-      <c r="C69" s="56" t="s">
-        <v>170</v>
-      </c>
-      <c r="D69" s="148" t="s">
-        <v>254</v>
-      </c>
-      <c r="E69" s="149"/>
-      <c r="F69" s="149"/>
-      <c r="G69" s="149"/>
-      <c r="H69" s="149"/>
-      <c r="I69" s="149"/>
-      <c r="J69" s="149"/>
-      <c r="K69" s="149"/>
-      <c r="L69" s="149"/>
-      <c r="M69" s="149"/>
-      <c r="N69" s="150"/>
+      <c r="B69" s="152" t="s">
+        <v>179</v>
+      </c>
+      <c r="C69" s="55" t="s">
+        <v>167</v>
+      </c>
+      <c r="D69" s="145" t="s">
+        <v>251</v>
+      </c>
+      <c r="E69" s="146"/>
+      <c r="F69" s="146"/>
+      <c r="G69" s="146"/>
+      <c r="H69" s="146"/>
+      <c r="I69" s="146"/>
+      <c r="J69" s="146"/>
+      <c r="K69" s="146"/>
+      <c r="L69" s="146"/>
+      <c r="M69" s="146"/>
+      <c r="N69" s="147"/>
     </row>
     <row r="70" spans="2:15" ht="16.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="147"/>
-      <c r="C70" s="56" t="s">
-        <v>171</v>
-      </c>
-      <c r="D70" s="148" t="s">
-        <v>172</v>
-      </c>
-      <c r="E70" s="149"/>
-      <c r="F70" s="149"/>
-      <c r="G70" s="149"/>
-      <c r="H70" s="149"/>
-      <c r="I70" s="149"/>
-      <c r="J70" s="149"/>
-      <c r="K70" s="149"/>
-      <c r="L70" s="149"/>
-      <c r="M70" s="149"/>
-      <c r="N70" s="150"/>
+      <c r="B70" s="152"/>
+      <c r="C70" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="D70" s="145" t="s">
+        <v>169</v>
+      </c>
+      <c r="E70" s="146"/>
+      <c r="F70" s="146"/>
+      <c r="G70" s="146"/>
+      <c r="H70" s="146"/>
+      <c r="I70" s="146"/>
+      <c r="J70" s="146"/>
+      <c r="K70" s="146"/>
+      <c r="L70" s="146"/>
+      <c r="M70" s="146"/>
+      <c r="N70" s="147"/>
     </row>
     <row r="71" spans="2:15" ht="34.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="132" t="s">
-        <v>197</v>
-      </c>
-      <c r="C71" s="133"/>
+      <c r="B71" s="136" t="s">
+        <v>194</v>
+      </c>
+      <c r="C71" s="137"/>
       <c r="D71" s="142" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E71" s="143"/>
       <c r="F71" s="143"/>
@@ -9018,12 +9023,12 @@
       <c r="N71" s="144"/>
     </row>
     <row r="72" spans="2:15" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="136"/>
-      <c r="C72" s="137"/>
-      <c r="D72" s="138" t="s">
-        <v>183</v>
-      </c>
-      <c r="E72" s="139"/>
+      <c r="B72" s="138"/>
+      <c r="C72" s="139"/>
+      <c r="D72" s="148" t="s">
+        <v>180</v>
+      </c>
+      <c r="E72" s="149"/>
       <c r="F72" s="19" t="s">
         <v>136</v>
       </c>
@@ -9045,24 +9050,24 @@
       <c r="N72" s="19"/>
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B73" s="134"/>
-      <c r="C73" s="135"/>
-      <c r="D73" s="140"/>
-      <c r="E73" s="141"/>
+      <c r="B73" s="140"/>
+      <c r="C73" s="141"/>
+      <c r="D73" s="150"/>
+      <c r="E73" s="151"/>
       <c r="F73" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="G73" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="H73" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="I73" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="G73" s="19" t="s">
+      <c r="J73" s="19" t="s">
         <v>185</v>
-      </c>
-      <c r="H73" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="I73" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="J73" s="19" t="s">
-        <v>188</v>
       </c>
       <c r="K73" s="19"/>
       <c r="L73" s="19"/>
@@ -9070,12 +9075,12 @@
       <c r="N73" s="19"/>
     </row>
     <row r="74" spans="2:15" ht="52.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="132" t="s">
-        <v>198</v>
-      </c>
-      <c r="C74" s="133"/>
+      <c r="B74" s="136" t="s">
+        <v>195</v>
+      </c>
+      <c r="C74" s="137"/>
       <c r="D74" s="142" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E74" s="143"/>
       <c r="F74" s="143"/>
@@ -9089,14 +9094,14 @@
       <c r="N74" s="144"/>
     </row>
     <row r="75" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B75" s="136"/>
-      <c r="C75" s="137"/>
+      <c r="B75" s="138"/>
+      <c r="C75" s="139"/>
       <c r="D75" s="19" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E75" s="19"/>
       <c r="F75" s="35" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G75" s="36"/>
       <c r="H75" s="36"/>
@@ -9108,13 +9113,13 @@
       <c r="N75" s="37"/>
     </row>
     <row r="76" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B76" s="136"/>
-      <c r="C76" s="137"/>
-      <c r="D76" s="107" t="s">
-        <v>192</v>
-      </c>
-      <c r="E76" s="108"/>
-      <c r="F76" s="145"/>
+      <c r="B76" s="138"/>
+      <c r="C76" s="139"/>
+      <c r="D76" s="104" t="s">
+        <v>189</v>
+      </c>
+      <c r="E76" s="105"/>
+      <c r="F76" s="132"/>
       <c r="G76" s="15" t="s">
         <v>136</v>
       </c>
@@ -9135,11 +9140,11 @@
       <c r="N76" s="19"/>
     </row>
     <row r="77" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B77" s="136"/>
-      <c r="C77" s="137"/>
-      <c r="D77" s="94"/>
-      <c r="E77" s="81"/>
-      <c r="F77" s="146"/>
+      <c r="B77" s="138"/>
+      <c r="C77" s="139"/>
+      <c r="D77" s="78"/>
+      <c r="E77" s="79"/>
+      <c r="F77" s="133"/>
       <c r="G77" s="46">
         <v>0</v>
       </c>
@@ -9160,13 +9165,13 @@
       <c r="N77" s="19"/>
     </row>
     <row r="78" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B78" s="134"/>
-      <c r="C78" s="135"/>
+      <c r="B78" s="140"/>
+      <c r="C78" s="141"/>
       <c r="D78" s="19" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E78" s="35" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F78" s="36"/>
       <c r="G78" s="36"/>
@@ -9179,12 +9184,12 @@
       <c r="N78" s="37"/>
     </row>
     <row r="79" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B79" s="132" t="s">
-        <v>199</v>
-      </c>
-      <c r="C79" s="133"/>
+      <c r="B79" s="136" t="s">
+        <v>196</v>
+      </c>
+      <c r="C79" s="137"/>
       <c r="D79" s="35" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E79" s="36"/>
       <c r="F79" s="36"/>
@@ -9198,13 +9203,13 @@
       <c r="N79" s="37"/>
     </row>
     <row r="80" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B80" s="134"/>
-      <c r="C80" s="135"/>
+      <c r="B80" s="140"/>
+      <c r="C80" s="141"/>
       <c r="D80" s="19" t="s">
         <v>66</v>
       </c>
       <c r="E80" s="35" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F80" s="36"/>
       <c r="G80" s="36"/>
@@ -9218,12 +9223,12 @@
       <c r="O80" s="31"/>
     </row>
     <row r="81" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B81" s="132" t="s">
-        <v>200</v>
-      </c>
-      <c r="C81" s="133"/>
+      <c r="B81" s="136" t="s">
+        <v>197</v>
+      </c>
+      <c r="C81" s="137"/>
       <c r="D81" s="35" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E81" s="36"/>
       <c r="F81" s="36"/>
@@ -9238,13 +9243,13 @@
       <c r="O81" s="31"/>
     </row>
     <row r="82" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B82" s="134"/>
-      <c r="C82" s="135"/>
+      <c r="B82" s="140"/>
+      <c r="C82" s="141"/>
       <c r="D82" s="19" t="s">
         <v>66</v>
       </c>
       <c r="E82" s="35" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F82" s="36"/>
       <c r="G82" s="36"/>
@@ -9258,18 +9263,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B23:N23"/>
-    <mergeCell ref="D66:N66"/>
-    <mergeCell ref="D25:E26"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="B24:C30"/>
-    <mergeCell ref="D24:M24"/>
-    <mergeCell ref="F30:M30"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
     <mergeCell ref="B81:C82"/>
     <mergeCell ref="B66:C68"/>
     <mergeCell ref="D67:F68"/>
@@ -9283,6 +9276,18 @@
     <mergeCell ref="B69:B70"/>
     <mergeCell ref="D69:N69"/>
     <mergeCell ref="D70:N70"/>
+    <mergeCell ref="B23:N23"/>
+    <mergeCell ref="D66:N66"/>
+    <mergeCell ref="D25:E26"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="B24:C30"/>
+    <mergeCell ref="D24:M24"/>
+    <mergeCell ref="F30:M30"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9294,135 +9299,135 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB61364C-7092-4374-B974-5D8E093825D9}">
   <dimension ref="B15:L43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M45" sqref="M45"/>
+    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="15" spans="2:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="16" spans="2:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="118" t="s">
+      <c r="B16" s="117" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
-      <c r="F16" s="119"/>
-      <c r="G16" s="119"/>
-      <c r="H16" s="119"/>
-      <c r="I16" s="119"/>
-      <c r="J16" s="119"/>
-      <c r="K16" s="119"/>
-      <c r="L16" s="120"/>
+      <c r="C16" s="118"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="118"/>
+      <c r="F16" s="118"/>
+      <c r="G16" s="118"/>
+      <c r="H16" s="118"/>
+      <c r="I16" s="118"/>
+      <c r="J16" s="118"/>
+      <c r="K16" s="118"/>
+      <c r="L16" s="119"/>
     </row>
     <row r="17" spans="2:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B17" s="21" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="15"/>
-      <c r="D17" s="176" t="s">
+      <c r="D17" s="157" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="176"/>
-      <c r="F17" s="176"/>
-      <c r="G17" s="176"/>
-      <c r="H17" s="176"/>
-      <c r="I17" s="176"/>
-      <c r="J17" s="176"/>
-      <c r="K17" s="176"/>
-      <c r="L17" s="177"/>
+      <c r="E17" s="157"/>
+      <c r="F17" s="157"/>
+      <c r="G17" s="157"/>
+      <c r="H17" s="157"/>
+      <c r="I17" s="157"/>
+      <c r="J17" s="157"/>
+      <c r="K17" s="157"/>
+      <c r="L17" s="158"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B18" s="20" t="s">
         <v>40</v>
       </c>
       <c r="C18" s="19"/>
-      <c r="D18" s="77" t="s">
+      <c r="D18" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="77"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="77"/>
-      <c r="K18" s="77"/>
-      <c r="L18" s="178"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="90"/>
+      <c r="J18" s="90"/>
+      <c r="K18" s="90"/>
+      <c r="L18" s="159"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B19" s="20" t="s">
         <v>42</v>
       </c>
       <c r="C19" s="19"/>
-      <c r="D19" s="77" t="s">
+      <c r="D19" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="178"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="90"/>
+      <c r="I19" s="90"/>
+      <c r="J19" s="90"/>
+      <c r="K19" s="90"/>
+      <c r="L19" s="159"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B20" s="172" t="s">
+      <c r="B20" s="153" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="173"/>
-      <c r="D20" s="77" t="s">
+      <c r="C20" s="154"/>
+      <c r="D20" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="178"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="90"/>
+      <c r="H20" s="90"/>
+      <c r="I20" s="90"/>
+      <c r="J20" s="90"/>
+      <c r="K20" s="90"/>
+      <c r="L20" s="159"/>
     </row>
     <row r="21" spans="2:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B21" s="174"/>
-      <c r="C21" s="175"/>
-      <c r="D21" s="179" t="s">
+      <c r="B21" s="155"/>
+      <c r="C21" s="156"/>
+      <c r="D21" s="160" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="179"/>
-      <c r="F21" s="179"/>
-      <c r="G21" s="179"/>
-      <c r="H21" s="179"/>
-      <c r="I21" s="179"/>
-      <c r="J21" s="179"/>
-      <c r="K21" s="179"/>
-      <c r="L21" s="180"/>
+      <c r="E21" s="160"/>
+      <c r="F21" s="160"/>
+      <c r="G21" s="160"/>
+      <c r="H21" s="160"/>
+      <c r="I21" s="160"/>
+      <c r="J21" s="160"/>
+      <c r="K21" s="160"/>
+      <c r="L21" s="161"/>
     </row>
     <row r="22" spans="2:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="23" spans="2:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B23" s="154" t="s">
+      <c r="B23" s="162" t="s">
         <v>114</v>
       </c>
-      <c r="C23" s="162"/>
-      <c r="D23" s="169" t="s">
-        <v>236</v>
-      </c>
-      <c r="E23" s="170"/>
-      <c r="F23" s="170"/>
-      <c r="G23" s="170"/>
-      <c r="H23" s="170"/>
-      <c r="I23" s="170"/>
-      <c r="J23" s="171"/>
+      <c r="C23" s="163"/>
+      <c r="D23" s="168" t="s">
+        <v>233</v>
+      </c>
+      <c r="E23" s="169"/>
+      <c r="F23" s="169"/>
+      <c r="G23" s="169"/>
+      <c r="H23" s="169"/>
+      <c r="I23" s="169"/>
+      <c r="J23" s="170"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B24" s="160"/>
-      <c r="C24" s="167"/>
-      <c r="D24" s="154" t="s">
+      <c r="B24" s="164"/>
+      <c r="C24" s="165"/>
+      <c r="D24" s="162" t="s">
         <v>120</v>
       </c>
-      <c r="E24" s="162"/>
-      <c r="F24" s="61" t="s">
+      <c r="E24" s="163"/>
+      <c r="F24" s="60" t="s">
         <v>115</v>
       </c>
       <c r="G24" s="44" t="s">
@@ -9434,15 +9439,15 @@
       <c r="I24" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="J24" s="53" t="s">
+      <c r="J24" s="52" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="25" spans="2:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B25" s="156"/>
-      <c r="C25" s="168"/>
-      <c r="D25" s="156"/>
-      <c r="E25" s="168"/>
+      <c r="B25" s="166"/>
+      <c r="C25" s="167"/>
+      <c r="D25" s="166"/>
+      <c r="E25" s="167"/>
       <c r="F25" s="39">
         <v>1</v>
       </c>
@@ -9460,79 +9465,79 @@
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B26" s="82" t="s">
-        <v>237</v>
-      </c>
-      <c r="C26" s="83"/>
-      <c r="D26" s="83"/>
-      <c r="E26" s="83"/>
-      <c r="F26" s="83"/>
-      <c r="G26" s="83"/>
-      <c r="H26" s="83"/>
-      <c r="I26" s="83"/>
-      <c r="J26" s="84"/>
+      <c r="B26" s="66" t="s">
+        <v>234</v>
+      </c>
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="68"/>
     </row>
     <row r="27" spans="2:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B27" s="85" t="s">
-        <v>238</v>
-      </c>
-      <c r="C27" s="86"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="86"/>
-      <c r="I27" s="86"/>
-      <c r="J27" s="87"/>
+      <c r="B27" s="69" t="s">
+        <v>235</v>
+      </c>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="71"/>
     </row>
     <row r="28" spans="2:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="29" spans="2:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B29" s="154" t="s">
+      <c r="B29" s="162" t="s">
+        <v>236</v>
+      </c>
+      <c r="C29" s="171"/>
+      <c r="D29" s="172" t="s">
+        <v>237</v>
+      </c>
+      <c r="E29" s="173"/>
+      <c r="F29" s="168">
+        <v>2</v>
+      </c>
+      <c r="G29" s="169"/>
+      <c r="H29" s="169"/>
+      <c r="I29" s="169"/>
+      <c r="J29" s="170"/>
+    </row>
+    <row r="30" spans="2:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B30" s="164"/>
+      <c r="C30" s="165"/>
+      <c r="D30" s="166" t="s">
+        <v>238</v>
+      </c>
+      <c r="E30" s="167"/>
+      <c r="F30" s="61" t="s">
+        <v>115</v>
+      </c>
+      <c r="G30" s="62" t="s">
+        <v>116</v>
+      </c>
+      <c r="H30" s="62" t="s">
+        <v>117</v>
+      </c>
+      <c r="I30" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="J30" s="63" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B31" s="166"/>
+      <c r="C31" s="167"/>
+      <c r="D31" s="166" t="s">
         <v>239</v>
       </c>
-      <c r="C29" s="155"/>
-      <c r="D29" s="158" t="s">
-        <v>240</v>
-      </c>
-      <c r="E29" s="159"/>
-      <c r="F29" s="169">
-        <v>2</v>
-      </c>
-      <c r="G29" s="170"/>
-      <c r="H29" s="170"/>
-      <c r="I29" s="170"/>
-      <c r="J29" s="171"/>
-    </row>
-    <row r="30" spans="2:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B30" s="160"/>
-      <c r="C30" s="167"/>
-      <c r="D30" s="156" t="s">
-        <v>241</v>
-      </c>
-      <c r="E30" s="168"/>
-      <c r="F30" s="62" t="s">
-        <v>115</v>
-      </c>
-      <c r="G30" s="63" t="s">
-        <v>116</v>
-      </c>
-      <c r="H30" s="63" t="s">
-        <v>117</v>
-      </c>
-      <c r="I30" s="63" t="s">
-        <v>118</v>
-      </c>
-      <c r="J30" s="64" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B31" s="156"/>
-      <c r="C31" s="168"/>
-      <c r="D31" s="156" t="s">
-        <v>242</v>
-      </c>
-      <c r="E31" s="168"/>
+      <c r="E31" s="167"/>
       <c r="F31" s="41">
         <v>0</v>
       </c>
@@ -9551,37 +9556,37 @@
     </row>
     <row r="32" spans="2:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="33" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B33" s="154" t="s">
-        <v>243</v>
-      </c>
-      <c r="C33" s="155"/>
-      <c r="D33" s="158" t="s">
+      <c r="B33" s="162" t="s">
+        <v>240</v>
+      </c>
+      <c r="C33" s="171"/>
+      <c r="D33" s="172" t="s">
+        <v>238</v>
+      </c>
+      <c r="E33" s="173"/>
+      <c r="F33" s="64" t="s">
+        <v>115</v>
+      </c>
+      <c r="G33" s="62" t="s">
+        <v>116</v>
+      </c>
+      <c r="H33" s="62" t="s">
+        <v>117</v>
+      </c>
+      <c r="I33" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="J33" s="63" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B34" s="166"/>
+      <c r="C34" s="174"/>
+      <c r="D34" s="172" t="s">
         <v>241</v>
       </c>
-      <c r="E33" s="159"/>
-      <c r="F33" s="65" t="s">
-        <v>115</v>
-      </c>
-      <c r="G33" s="63" t="s">
-        <v>116</v>
-      </c>
-      <c r="H33" s="63" t="s">
-        <v>117</v>
-      </c>
-      <c r="I33" s="63" t="s">
-        <v>118</v>
-      </c>
-      <c r="J33" s="64" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B34" s="156"/>
-      <c r="C34" s="157"/>
-      <c r="D34" s="158" t="s">
-        <v>244</v>
-      </c>
-      <c r="E34" s="159"/>
+      <c r="E34" s="173"/>
       <c r="F34" s="41">
         <v>2</v>
       </c>
@@ -9600,36 +9605,36 @@
     </row>
     <row r="36" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="37" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B37" s="154" t="s">
-        <v>245</v>
-      </c>
-      <c r="C37" s="155"/>
-      <c r="D37" s="154" t="s">
-        <v>246</v>
-      </c>
-      <c r="E37" s="162"/>
-      <c r="F37" s="65" t="s">
+      <c r="B37" s="162" t="s">
+        <v>242</v>
+      </c>
+      <c r="C37" s="171"/>
+      <c r="D37" s="162" t="s">
+        <v>243</v>
+      </c>
+      <c r="E37" s="163"/>
+      <c r="F37" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="G37" s="63" t="s">
+      <c r="G37" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="H37" s="63" t="s">
+      <c r="H37" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="I37" s="63" t="s">
+      <c r="I37" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="J37" s="64" t="s">
+      <c r="J37" s="63" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="38" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B38" s="160"/>
-      <c r="C38" s="161"/>
-      <c r="D38" s="163"/>
-      <c r="E38" s="164"/>
-      <c r="F38" s="57">
+      <c r="B38" s="164"/>
+      <c r="C38" s="175"/>
+      <c r="D38" s="176"/>
+      <c r="E38" s="177"/>
+      <c r="F38" s="56">
         <v>1</v>
       </c>
       <c r="G38" s="41">
@@ -9646,78 +9651,78 @@
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B39" s="160"/>
-      <c r="C39" s="161"/>
-      <c r="D39" s="165" t="s">
-        <v>179</v>
-      </c>
-      <c r="E39" s="166"/>
-      <c r="F39" s="65" t="s">
+      <c r="B39" s="164"/>
+      <c r="C39" s="175"/>
+      <c r="D39" s="178" t="s">
+        <v>176</v>
+      </c>
+      <c r="E39" s="179"/>
+      <c r="F39" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="G39" s="63" t="s">
+      <c r="G39" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="H39" s="63" t="s">
+      <c r="H39" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="I39" s="63" t="s">
+      <c r="I39" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="J39" s="64" t="s">
+      <c r="J39" s="63" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="40" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B40" s="160"/>
-      <c r="C40" s="161"/>
-      <c r="D40" s="163"/>
-      <c r="E40" s="164"/>
-      <c r="F40" s="57" t="s">
+      <c r="B40" s="164"/>
+      <c r="C40" s="175"/>
+      <c r="D40" s="176"/>
+      <c r="E40" s="177"/>
+      <c r="F40" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="G40" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="H40" s="41" t="s">
+        <v>246</v>
+      </c>
+      <c r="I40" s="41" t="s">
         <v>247</v>
       </c>
-      <c r="G40" s="41" t="s">
+      <c r="J40" s="42" t="s">
         <v>248</v>
       </c>
-      <c r="H40" s="41" t="s">
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B41" s="164"/>
+      <c r="C41" s="175"/>
+      <c r="D41" s="178" t="s">
         <v>249</v>
       </c>
-      <c r="I40" s="41" t="s">
-        <v>250</v>
-      </c>
-      <c r="J40" s="42" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B41" s="160"/>
-      <c r="C41" s="161"/>
-      <c r="D41" s="165" t="s">
-        <v>252</v>
-      </c>
-      <c r="E41" s="166"/>
-      <c r="F41" s="65" t="s">
+      <c r="E41" s="179"/>
+      <c r="F41" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="G41" s="63" t="s">
+      <c r="G41" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="H41" s="63" t="s">
+      <c r="H41" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="I41" s="63" t="s">
+      <c r="I41" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="J41" s="64" t="s">
+      <c r="J41" s="63" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="42" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B42" s="160"/>
-      <c r="C42" s="161"/>
-      <c r="D42" s="160"/>
-      <c r="E42" s="167"/>
-      <c r="F42" s="57">
+      <c r="B42" s="164"/>
+      <c r="C42" s="175"/>
+      <c r="D42" s="164"/>
+      <c r="E42" s="165"/>
+      <c r="F42" s="56">
         <v>1</v>
       </c>
       <c r="G42" s="41">
@@ -9734,37 +9739,20 @@
       </c>
     </row>
     <row r="43" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B43" s="156"/>
-      <c r="C43" s="157"/>
-      <c r="D43" s="156"/>
-      <c r="E43" s="168"/>
-      <c r="F43" s="85" t="s">
-        <v>253</v>
-      </c>
-      <c r="G43" s="86"/>
-      <c r="H43" s="86"/>
-      <c r="I43" s="86"/>
-      <c r="J43" s="87"/>
+      <c r="B43" s="166"/>
+      <c r="C43" s="174"/>
+      <c r="D43" s="166"/>
+      <c r="E43" s="167"/>
+      <c r="F43" s="69" t="s">
+        <v>250</v>
+      </c>
+      <c r="G43" s="70"/>
+      <c r="H43" s="70"/>
+      <c r="I43" s="70"/>
+      <c r="J43" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B16:L16"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="D17:L17"/>
-    <mergeCell ref="D18:L18"/>
-    <mergeCell ref="D19:L19"/>
-    <mergeCell ref="D20:L20"/>
-    <mergeCell ref="D21:L21"/>
-    <mergeCell ref="B23:C25"/>
-    <mergeCell ref="D23:J23"/>
-    <mergeCell ref="D24:E25"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="B27:J27"/>
-    <mergeCell ref="B29:C31"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:J29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
     <mergeCell ref="F43:J43"/>
     <mergeCell ref="B33:C34"/>
     <mergeCell ref="D33:E33"/>
@@ -9773,6 +9761,23 @@
     <mergeCell ref="D37:E38"/>
     <mergeCell ref="D39:E40"/>
     <mergeCell ref="D41:E43"/>
+    <mergeCell ref="B29:C31"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:J29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B23:C25"/>
+    <mergeCell ref="D23:J23"/>
+    <mergeCell ref="D24:E25"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="B16:L16"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="D17:L17"/>
+    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="D19:L19"/>
+    <mergeCell ref="D20:L20"/>
+    <mergeCell ref="D21:L21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9784,86 +9789,86 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C618D004-48C5-4283-AC4B-B7089F5CE503}">
   <dimension ref="B18:M39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O40" sqref="O40"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="18" spans="2:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="19" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B19" s="154" t="s">
+      <c r="B19" s="162" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="155"/>
-      <c r="D19" s="155"/>
-      <c r="E19" s="155"/>
-      <c r="F19" s="155"/>
-      <c r="G19" s="155"/>
-      <c r="H19" s="155"/>
-      <c r="I19" s="155"/>
-      <c r="J19" s="155"/>
-      <c r="K19" s="155"/>
-      <c r="L19" s="155"/>
-      <c r="M19" s="162"/>
+      <c r="C19" s="171"/>
+      <c r="D19" s="171"/>
+      <c r="E19" s="171"/>
+      <c r="F19" s="171"/>
+      <c r="G19" s="171"/>
+      <c r="H19" s="171"/>
+      <c r="I19" s="171"/>
+      <c r="J19" s="171"/>
+      <c r="K19" s="171"/>
+      <c r="L19" s="171"/>
+      <c r="M19" s="163"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B20" s="18" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="19"/>
-      <c r="D20" s="148" t="s">
+      <c r="D20" s="145" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="149"/>
-      <c r="F20" s="149"/>
-      <c r="G20" s="149"/>
-      <c r="H20" s="149"/>
-      <c r="I20" s="149"/>
-      <c r="J20" s="149"/>
-      <c r="K20" s="149"/>
-      <c r="L20" s="149"/>
-      <c r="M20" s="150"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="146"/>
+      <c r="G20" s="146"/>
+      <c r="H20" s="146"/>
+      <c r="I20" s="146"/>
+      <c r="J20" s="146"/>
+      <c r="K20" s="146"/>
+      <c r="L20" s="146"/>
+      <c r="M20" s="147"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B21" s="187" t="s">
+      <c r="B21" s="190" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="188"/>
-      <c r="D21" s="148" t="s">
+      <c r="C21" s="191"/>
+      <c r="D21" s="145" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="149"/>
-      <c r="F21" s="149"/>
-      <c r="G21" s="149"/>
-      <c r="H21" s="149"/>
-      <c r="I21" s="149"/>
-      <c r="J21" s="149"/>
-      <c r="K21" s="149"/>
-      <c r="L21" s="149"/>
-      <c r="M21" s="150"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="146"/>
+      <c r="G21" s="146"/>
+      <c r="H21" s="146"/>
+      <c r="I21" s="146"/>
+      <c r="J21" s="146"/>
+      <c r="K21" s="146"/>
+      <c r="L21" s="146"/>
+      <c r="M21" s="147"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B22" s="189"/>
-      <c r="C22" s="190"/>
-      <c r="D22" s="148" t="s">
+      <c r="B22" s="192"/>
+      <c r="C22" s="193"/>
+      <c r="D22" s="145" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="149"/>
-      <c r="F22" s="149"/>
-      <c r="G22" s="149"/>
-      <c r="H22" s="149"/>
-      <c r="I22" s="149"/>
-      <c r="J22" s="149"/>
-      <c r="K22" s="149"/>
-      <c r="L22" s="149"/>
-      <c r="M22" s="150"/>
+      <c r="E22" s="146"/>
+      <c r="F22" s="146"/>
+      <c r="G22" s="146"/>
+      <c r="H22" s="146"/>
+      <c r="I22" s="146"/>
+      <c r="J22" s="146"/>
+      <c r="K22" s="146"/>
+      <c r="L22" s="146"/>
+      <c r="M22" s="147"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B23" s="187" t="s">
+      <c r="B23" s="190" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="188"/>
+      <c r="C23" s="191"/>
       <c r="D23" s="19" t="s">
         <v>30</v>
       </c>
@@ -9878,26 +9883,26 @@
       <c r="M23" s="19"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B24" s="189"/>
-      <c r="C24" s="190"/>
-      <c r="D24" s="148" t="s">
+      <c r="B24" s="192"/>
+      <c r="C24" s="193"/>
+      <c r="D24" s="145" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="149"/>
-      <c r="F24" s="149"/>
-      <c r="G24" s="149"/>
-      <c r="H24" s="149"/>
-      <c r="I24" s="149"/>
-      <c r="J24" s="149"/>
-      <c r="K24" s="149"/>
-      <c r="L24" s="149"/>
-      <c r="M24" s="150"/>
+      <c r="E24" s="146"/>
+      <c r="F24" s="146"/>
+      <c r="G24" s="146"/>
+      <c r="H24" s="146"/>
+      <c r="I24" s="146"/>
+      <c r="J24" s="146"/>
+      <c r="K24" s="146"/>
+      <c r="L24" s="146"/>
+      <c r="M24" s="147"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B25" s="187" t="s">
+      <c r="B25" s="190" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="188"/>
+      <c r="C25" s="191"/>
       <c r="D25" s="19" t="s">
         <v>33</v>
       </c>
@@ -9912,266 +9917,292 @@
       <c r="M25" s="19"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B26" s="189"/>
-      <c r="C26" s="190"/>
-      <c r="D26" s="148" t="s">
+      <c r="B26" s="192"/>
+      <c r="C26" s="193"/>
+      <c r="D26" s="145" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="149"/>
-      <c r="F26" s="149"/>
-      <c r="G26" s="149"/>
-      <c r="H26" s="149"/>
-      <c r="I26" s="149"/>
-      <c r="J26" s="149"/>
-      <c r="K26" s="149"/>
-      <c r="L26" s="149"/>
-      <c r="M26" s="150"/>
+      <c r="E26" s="146"/>
+      <c r="F26" s="146"/>
+      <c r="G26" s="146"/>
+      <c r="H26" s="146"/>
+      <c r="I26" s="146"/>
+      <c r="J26" s="146"/>
+      <c r="K26" s="146"/>
+      <c r="L26" s="146"/>
+      <c r="M26" s="147"/>
     </row>
     <row r="27" spans="2:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="28" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B28" s="154" t="s">
+      <c r="B28" s="162" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="162"/>
-      <c r="D28" s="191" t="s">
+      <c r="C28" s="163"/>
+      <c r="D28" s="180" t="s">
         <v>121</v>
       </c>
-      <c r="E28" s="192"/>
-      <c r="F28" s="192"/>
-      <c r="G28" s="192"/>
-      <c r="H28" s="49" t="s">
+      <c r="E28" s="181"/>
+      <c r="F28" s="181"/>
+      <c r="G28" s="181"/>
+      <c r="H28" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="I28" s="49" t="s">
+      <c r="I28" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="J28" s="49" t="s">
+      <c r="J28" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="K28" s="49" t="s">
+      <c r="K28" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="L28" s="50" t="s">
+      <c r="L28" s="49" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="29" spans="2:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B29" s="160"/>
-      <c r="C29" s="167"/>
-      <c r="D29" s="193" t="s">
+      <c r="B29" s="164"/>
+      <c r="C29" s="165"/>
+      <c r="D29" s="182" t="s">
         <v>122</v>
       </c>
-      <c r="E29" s="194"/>
-      <c r="F29" s="194"/>
-      <c r="G29" s="194"/>
-      <c r="H29" s="51">
+      <c r="E29" s="183"/>
+      <c r="F29" s="183"/>
+      <c r="G29" s="183"/>
+      <c r="H29" s="50">
         <v>5</v>
       </c>
-      <c r="I29" s="51">
+      <c r="I29" s="50">
         <v>4</v>
       </c>
-      <c r="J29" s="51">
+      <c r="J29" s="50">
         <v>3</v>
       </c>
-      <c r="K29" s="51">
+      <c r="K29" s="50">
         <v>2</v>
       </c>
-      <c r="L29" s="52">
+      <c r="L29" s="51">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="2:13" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="160"/>
-      <c r="C30" s="167"/>
-      <c r="D30" s="195" t="s">
+      <c r="B30" s="164"/>
+      <c r="C30" s="165"/>
+      <c r="D30" s="184" t="s">
+        <v>204</v>
+      </c>
+      <c r="E30" s="76" t="s">
+        <v>205</v>
+      </c>
+      <c r="F30" s="77"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="186"/>
+      <c r="I30" s="129" t="s">
+        <v>147</v>
+      </c>
+      <c r="J30" s="129"/>
+      <c r="K30" s="129">
+        <v>-2</v>
+      </c>
+      <c r="L30" s="130"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B31" s="164"/>
+      <c r="C31" s="165"/>
+      <c r="D31" s="185"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="79"/>
+      <c r="G31" s="79"/>
+      <c r="H31" s="133"/>
+      <c r="I31" s="91" t="s">
+        <v>206</v>
+      </c>
+      <c r="J31" s="91"/>
+      <c r="K31" s="91">
+        <v>1</v>
+      </c>
+      <c r="L31" s="98"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B32" s="164"/>
+      <c r="C32" s="165"/>
+      <c r="D32" s="194" t="s">
         <v>207</v>
       </c>
-      <c r="E30" s="92" t="s">
+      <c r="E32" s="91" t="s">
+        <v>205</v>
+      </c>
+      <c r="F32" s="91"/>
+      <c r="G32" s="91"/>
+      <c r="H32" s="91"/>
+      <c r="I32" s="135" t="s">
         <v>208</v>
       </c>
-      <c r="F30" s="93"/>
-      <c r="G30" s="93"/>
-      <c r="H30" s="197"/>
-      <c r="I30" s="130" t="s">
-        <v>148</v>
-      </c>
-      <c r="J30" s="130"/>
-      <c r="K30" s="130">
+      <c r="J32" s="91"/>
+      <c r="K32" s="91">
+        <v>-1</v>
+      </c>
+      <c r="L32" s="98"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B33" s="164"/>
+      <c r="C33" s="165"/>
+      <c r="D33" s="194"/>
+      <c r="E33" s="91"/>
+      <c r="F33" s="91"/>
+      <c r="G33" s="91"/>
+      <c r="H33" s="91"/>
+      <c r="I33" s="91" t="s">
+        <v>206</v>
+      </c>
+      <c r="J33" s="91"/>
+      <c r="K33" s="91">
+        <v>5</v>
+      </c>
+      <c r="L33" s="98"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B34" s="164"/>
+      <c r="C34" s="165"/>
+      <c r="D34" s="194" t="s">
+        <v>209</v>
+      </c>
+      <c r="E34" s="91" t="s">
+        <v>210</v>
+      </c>
+      <c r="F34" s="91"/>
+      <c r="G34" s="91"/>
+      <c r="H34" s="91"/>
+      <c r="I34" s="91" t="s">
+        <v>147</v>
+      </c>
+      <c r="J34" s="91"/>
+      <c r="K34" s="91">
+        <v>-1</v>
+      </c>
+      <c r="L34" s="98"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B35" s="164"/>
+      <c r="C35" s="165"/>
+      <c r="D35" s="194"/>
+      <c r="E35" s="91"/>
+      <c r="F35" s="91"/>
+      <c r="G35" s="91"/>
+      <c r="H35" s="91"/>
+      <c r="I35" s="91" t="s">
+        <v>206</v>
+      </c>
+      <c r="J35" s="91"/>
+      <c r="K35" s="91">
+        <v>4</v>
+      </c>
+      <c r="L35" s="98"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B36" s="164"/>
+      <c r="C36" s="165"/>
+      <c r="D36" s="187" t="s">
+        <v>211</v>
+      </c>
+      <c r="E36" s="91" t="s">
+        <v>210</v>
+      </c>
+      <c r="F36" s="91"/>
+      <c r="G36" s="91"/>
+      <c r="H36" s="91"/>
+      <c r="I36" s="91" t="s">
+        <v>208</v>
+      </c>
+      <c r="J36" s="91"/>
+      <c r="K36" s="91">
         <v>-2</v>
       </c>
-      <c r="L30" s="131"/>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B31" s="160"/>
-      <c r="C31" s="167"/>
-      <c r="D31" s="196"/>
-      <c r="E31" s="94"/>
-      <c r="F31" s="81"/>
-      <c r="G31" s="81"/>
-      <c r="H31" s="146"/>
-      <c r="I31" s="78" t="s">
-        <v>209</v>
-      </c>
-      <c r="J31" s="78"/>
-      <c r="K31" s="78">
-        <v>1</v>
-      </c>
-      <c r="L31" s="116"/>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B32" s="160"/>
-      <c r="C32" s="167"/>
-      <c r="D32" s="186" t="s">
-        <v>210</v>
-      </c>
-      <c r="E32" s="78" t="s">
+      <c r="L36" s="98"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B37" s="164"/>
+      <c r="C37" s="165"/>
+      <c r="D37" s="188"/>
+      <c r="E37" s="189"/>
+      <c r="F37" s="189"/>
+      <c r="G37" s="189"/>
+      <c r="H37" s="189"/>
+      <c r="I37" s="189" t="s">
+        <v>212</v>
+      </c>
+      <c r="J37" s="189"/>
+      <c r="K37" s="91">
+        <v>2</v>
+      </c>
+      <c r="L37" s="98"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B38" s="164"/>
+      <c r="C38" s="165"/>
+      <c r="D38" s="198" t="s">
+        <v>213</v>
+      </c>
+      <c r="E38" s="195" t="s">
+        <v>214</v>
+      </c>
+      <c r="F38" s="196"/>
+      <c r="G38" s="196"/>
+      <c r="H38" s="196"/>
+      <c r="I38" s="91" t="s">
         <v>208</v>
       </c>
-      <c r="F32" s="78"/>
-      <c r="G32" s="78"/>
-      <c r="H32" s="78"/>
-      <c r="I32" s="153" t="s">
-        <v>211</v>
-      </c>
-      <c r="J32" s="78"/>
-      <c r="K32" s="78">
-        <v>-1</v>
-      </c>
-      <c r="L32" s="116"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B33" s="160"/>
-      <c r="C33" s="167"/>
-      <c r="D33" s="186"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="78"/>
-      <c r="G33" s="78"/>
-      <c r="H33" s="78"/>
-      <c r="I33" s="78" t="s">
-        <v>209</v>
-      </c>
-      <c r="J33" s="78"/>
-      <c r="K33" s="78">
-        <v>5</v>
-      </c>
-      <c r="L33" s="116"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B34" s="160"/>
-      <c r="C34" s="167"/>
-      <c r="D34" s="186" t="s">
-        <v>212</v>
-      </c>
-      <c r="E34" s="78" t="s">
-        <v>213</v>
-      </c>
-      <c r="F34" s="78"/>
-      <c r="G34" s="78"/>
-      <c r="H34" s="78"/>
-      <c r="I34" s="78" t="s">
-        <v>148</v>
-      </c>
-      <c r="J34" s="78"/>
-      <c r="K34" s="78">
-        <v>-1</v>
-      </c>
-      <c r="L34" s="116"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B35" s="160"/>
-      <c r="C35" s="167"/>
-      <c r="D35" s="186"/>
-      <c r="E35" s="78"/>
-      <c r="F35" s="78"/>
-      <c r="G35" s="78"/>
-      <c r="H35" s="78"/>
-      <c r="I35" s="78" t="s">
-        <v>209</v>
-      </c>
-      <c r="J35" s="78"/>
-      <c r="K35" s="78">
-        <v>4</v>
-      </c>
-      <c r="L35" s="116"/>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B36" s="160"/>
-      <c r="C36" s="167"/>
-      <c r="D36" s="198" t="s">
-        <v>214</v>
-      </c>
-      <c r="E36" s="78" t="s">
-        <v>213</v>
-      </c>
-      <c r="F36" s="78"/>
-      <c r="G36" s="78"/>
-      <c r="H36" s="78"/>
-      <c r="I36" s="78" t="s">
-        <v>211</v>
-      </c>
-      <c r="J36" s="78"/>
-      <c r="K36" s="78">
-        <v>-2</v>
-      </c>
-      <c r="L36" s="116"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B37" s="160"/>
-      <c r="C37" s="167"/>
-      <c r="D37" s="199"/>
-      <c r="E37" s="200"/>
-      <c r="F37" s="200"/>
-      <c r="G37" s="200"/>
-      <c r="H37" s="200"/>
-      <c r="I37" s="200" t="s">
+      <c r="J38" s="91"/>
+      <c r="K38" s="129">
+        <v>-10</v>
+      </c>
+      <c r="L38" s="130"/>
+    </row>
+    <row r="39" spans="2:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B39" s="166"/>
+      <c r="C39" s="167"/>
+      <c r="D39" s="199"/>
+      <c r="E39" s="197"/>
+      <c r="F39" s="197"/>
+      <c r="G39" s="197"/>
+      <c r="H39" s="197"/>
+      <c r="I39" s="100" t="s">
         <v>215</v>
       </c>
-      <c r="J37" s="200"/>
-      <c r="K37" s="78">
-        <v>2</v>
-      </c>
-      <c r="L37" s="116"/>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B38" s="160"/>
-      <c r="C38" s="167"/>
-      <c r="D38" s="184" t="s">
+      <c r="J39" s="100"/>
+      <c r="K39" s="100" t="s">
         <v>216</v>
       </c>
-      <c r="E38" s="181" t="s">
-        <v>217</v>
-      </c>
-      <c r="F38" s="182"/>
-      <c r="G38" s="182"/>
-      <c r="H38" s="182"/>
-      <c r="I38" s="78" t="s">
-        <v>211</v>
-      </c>
-      <c r="J38" s="78"/>
-      <c r="K38" s="130">
-        <v>-10</v>
-      </c>
-      <c r="L38" s="131"/>
-    </row>
-    <row r="39" spans="2:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B39" s="156"/>
-      <c r="C39" s="168"/>
-      <c r="D39" s="185"/>
-      <c r="E39" s="183"/>
-      <c r="F39" s="183"/>
-      <c r="G39" s="183"/>
-      <c r="H39" s="183"/>
-      <c r="I39" s="113" t="s">
-        <v>218</v>
-      </c>
-      <c r="J39" s="113"/>
-      <c r="K39" s="113" t="s">
-        <v>219</v>
-      </c>
-      <c r="L39" s="117"/>
+      <c r="L39" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="E38:H39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:H33"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:H35"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="B19:M19"/>
+    <mergeCell ref="B21:C22"/>
+    <mergeCell ref="B23:C24"/>
+    <mergeCell ref="B25:C26"/>
+    <mergeCell ref="D20:M20"/>
+    <mergeCell ref="D21:M21"/>
+    <mergeCell ref="D22:M22"/>
     <mergeCell ref="B28:C39"/>
     <mergeCell ref="D28:G28"/>
     <mergeCell ref="D29:G29"/>
@@ -10188,32 +10219,6 @@
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="K36:L36"/>
     <mergeCell ref="I37:J37"/>
-    <mergeCell ref="B19:M19"/>
-    <mergeCell ref="B21:C22"/>
-    <mergeCell ref="B23:C24"/>
-    <mergeCell ref="B25:C26"/>
-    <mergeCell ref="D20:M20"/>
-    <mergeCell ref="D21:M21"/>
-    <mergeCell ref="D22:M22"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:H35"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:H33"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="E38:H39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10226,315 +10231,315 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD3B1AB3-CC49-495A-99AD-7BB4C69F9D39}">
   <dimension ref="B18:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27:O27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="18" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D18" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B19" s="202"/>
-      <c r="C19" s="202"/>
-      <c r="D19" s="202"/>
-      <c r="E19" s="202"/>
-      <c r="F19" s="202"/>
-      <c r="G19" s="202"/>
-      <c r="H19" s="202"/>
-      <c r="I19" s="202"/>
-      <c r="J19" s="202"/>
-      <c r="K19" s="202"/>
-      <c r="L19" s="202"/>
-      <c r="M19" s="202"/>
-      <c r="N19" s="202"/>
-      <c r="O19" s="202"/>
+      <c r="B19" s="200"/>
+      <c r="C19" s="200"/>
+      <c r="D19" s="200"/>
+      <c r="E19" s="200"/>
+      <c r="F19" s="200"/>
+      <c r="G19" s="200"/>
+      <c r="H19" s="200"/>
+      <c r="I19" s="200"/>
+      <c r="J19" s="200"/>
+      <c r="K19" s="200"/>
+      <c r="L19" s="200"/>
+      <c r="M19" s="200"/>
+      <c r="N19" s="200"/>
+      <c r="O19" s="200"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B20" s="19" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="19"/>
-      <c r="D20" s="77" t="s">
+      <c r="D20" s="134" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="77"/>
-      <c r="M20" s="77"/>
-      <c r="N20" s="77"/>
-      <c r="O20" s="77"/>
+      <c r="E20" s="208"/>
+      <c r="F20" s="208"/>
+      <c r="G20" s="208"/>
+      <c r="H20" s="208"/>
+      <c r="I20" s="208"/>
+      <c r="J20" s="208"/>
+      <c r="K20" s="208"/>
+      <c r="L20" s="208"/>
+      <c r="M20" s="208"/>
+      <c r="N20" s="208"/>
+      <c r="O20" s="135"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B21" s="78" t="s">
+      <c r="B21" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="78"/>
-      <c r="D21" s="77" t="s">
+      <c r="C21" s="91"/>
+      <c r="D21" s="90" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="77"/>
-      <c r="I21" s="77"/>
-      <c r="J21" s="77"/>
-      <c r="K21" s="77"/>
-      <c r="L21" s="77"/>
-      <c r="M21" s="77"/>
-      <c r="N21" s="77"/>
-      <c r="O21" s="77"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="90"/>
+      <c r="K21" s="90"/>
+      <c r="L21" s="90"/>
+      <c r="M21" s="90"/>
+      <c r="N21" s="90"/>
+      <c r="O21" s="90"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B22" s="78"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="78" t="s">
+      <c r="B22" s="91"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="91" t="s">
+        <v>267</v>
+      </c>
+      <c r="E22" s="91"/>
+      <c r="F22" s="91"/>
+      <c r="G22" s="91" t="s">
+        <v>150</v>
+      </c>
+      <c r="H22" s="91"/>
+      <c r="I22" s="91"/>
+      <c r="J22" s="91" t="s">
         <v>147</v>
       </c>
-      <c r="E22" s="78"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78" t="s">
+      <c r="K22" s="91"/>
+      <c r="L22" s="91"/>
+      <c r="M22" s="91" t="s">
+        <v>148</v>
+      </c>
+      <c r="N22" s="91"/>
+      <c r="O22" s="91"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B23" s="91"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="91" t="s">
+        <v>149</v>
+      </c>
+      <c r="E23" s="91"/>
+      <c r="F23" s="91"/>
+      <c r="G23" s="91" t="s">
         <v>151</v>
       </c>
-      <c r="H22" s="78"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="78" t="s">
-        <v>148</v>
-      </c>
-      <c r="K22" s="78"/>
-      <c r="L22" s="78"/>
-      <c r="M22" s="78" t="s">
-        <v>149</v>
-      </c>
-      <c r="N22" s="78"/>
-      <c r="O22" s="78"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B23" s="78"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="78" t="s">
-        <v>150</v>
-      </c>
-      <c r="E23" s="78"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="78" t="s">
+      <c r="H23" s="91"/>
+      <c r="I23" s="91"/>
+      <c r="J23" s="91" t="s">
+        <v>268</v>
+      </c>
+      <c r="K23" s="91"/>
+      <c r="L23" s="91"/>
+      <c r="M23" s="201" t="s">
+        <v>270</v>
+      </c>
+      <c r="N23" s="91"/>
+      <c r="O23" s="91"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B24" s="126" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="126"/>
+      <c r="D24" s="134" t="s">
+        <v>158</v>
+      </c>
+      <c r="E24" s="208"/>
+      <c r="F24" s="208"/>
+      <c r="G24" s="208"/>
+      <c r="H24" s="208"/>
+      <c r="I24" s="208"/>
+      <c r="J24" s="208"/>
+      <c r="K24" s="208"/>
+      <c r="L24" s="208"/>
+      <c r="M24" s="208"/>
+      <c r="N24" s="208"/>
+      <c r="O24" s="135"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B25" s="126"/>
+      <c r="C25" s="126"/>
+      <c r="D25" s="91" t="s">
+        <v>152</v>
+      </c>
+      <c r="E25" s="91"/>
+      <c r="F25" s="91"/>
+      <c r="G25" s="91" t="s">
+        <v>117</v>
+      </c>
+      <c r="H25" s="91"/>
+      <c r="I25" s="91"/>
+      <c r="J25" s="91" t="s">
+        <v>118</v>
+      </c>
+      <c r="K25" s="91"/>
+      <c r="L25" s="91"/>
+      <c r="M25" s="91" t="s">
+        <v>119</v>
+      </c>
+      <c r="N25" s="91"/>
+      <c r="O25" s="91"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B26" s="126"/>
+      <c r="C26" s="126"/>
+      <c r="D26" s="91" t="s">
+        <v>156</v>
+      </c>
+      <c r="E26" s="91"/>
+      <c r="F26" s="91"/>
+      <c r="G26" s="91" t="s">
         <v>153</v>
       </c>
-      <c r="H23" s="78"/>
-      <c r="I23" s="78"/>
-      <c r="J23" s="78" t="s">
-        <v>152</v>
-      </c>
-      <c r="K23" s="78"/>
-      <c r="L23" s="78"/>
-      <c r="M23" s="201" t="s">
+      <c r="H26" s="91"/>
+      <c r="I26" s="91"/>
+      <c r="J26" s="91" t="s">
         <v>154</v>
       </c>
-      <c r="N23" s="78"/>
-      <c r="O23" s="78"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B24" s="127" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="127"/>
-      <c r="D24" s="77" t="s">
+      <c r="K26" s="91"/>
+      <c r="L26" s="91"/>
+      <c r="M26" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="N26" s="91"/>
+      <c r="O26" s="91"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B27" s="126" t="s">
+        <v>157</v>
+      </c>
+      <c r="C27" s="126"/>
+      <c r="D27" s="134" t="s">
+        <v>265</v>
+      </c>
+      <c r="E27" s="208"/>
+      <c r="F27" s="208"/>
+      <c r="G27" s="208"/>
+      <c r="H27" s="208"/>
+      <c r="I27" s="208"/>
+      <c r="J27" s="208"/>
+      <c r="K27" s="208"/>
+      <c r="L27" s="208"/>
+      <c r="M27" s="208"/>
+      <c r="N27" s="208"/>
+      <c r="O27" s="135"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B28" s="126"/>
+      <c r="C28" s="126"/>
+      <c r="D28" s="91" t="s">
+        <v>159</v>
+      </c>
+      <c r="E28" s="91"/>
+      <c r="F28" s="91"/>
+      <c r="G28" s="91" t="s">
         <v>161</v>
       </c>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="77"/>
-      <c r="J24" s="77"/>
-      <c r="K24" s="77"/>
-      <c r="L24" s="77"/>
-      <c r="M24" s="77"/>
-      <c r="N24" s="77"/>
-      <c r="O24" s="77"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B25" s="127"/>
-      <c r="C25" s="127"/>
-      <c r="D25" s="78" t="s">
-        <v>155</v>
-      </c>
-      <c r="E25" s="78"/>
-      <c r="F25" s="78"/>
-      <c r="G25" s="78" t="s">
-        <v>117</v>
-      </c>
-      <c r="H25" s="78"/>
-      <c r="I25" s="78"/>
-      <c r="J25" s="78" t="s">
-        <v>118</v>
-      </c>
-      <c r="K25" s="78"/>
-      <c r="L25" s="78"/>
-      <c r="M25" s="78" t="s">
-        <v>119</v>
-      </c>
-      <c r="N25" s="78"/>
-      <c r="O25" s="78"/>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B26" s="127"/>
-      <c r="C26" s="127"/>
-      <c r="D26" s="78" t="s">
-        <v>159</v>
-      </c>
-      <c r="E26" s="78"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78" t="s">
-        <v>156</v>
-      </c>
-      <c r="H26" s="78"/>
-      <c r="I26" s="78"/>
-      <c r="J26" s="78" t="s">
-        <v>157</v>
-      </c>
-      <c r="K26" s="78"/>
-      <c r="L26" s="78"/>
-      <c r="M26" s="78" t="s">
-        <v>158</v>
-      </c>
-      <c r="N26" s="78"/>
-      <c r="O26" s="78"/>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B27" s="127" t="s">
+      <c r="H28" s="91"/>
+      <c r="I28" s="91"/>
+      <c r="J28" s="91" t="s">
+        <v>147</v>
+      </c>
+      <c r="K28" s="91"/>
+      <c r="L28" s="91"/>
+      <c r="M28" s="91" t="s">
         <v>160</v>
       </c>
-      <c r="C27" s="127"/>
-      <c r="D27" s="77" t="s">
-        <v>270</v>
-      </c>
-      <c r="E27" s="77"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="77"/>
-      <c r="I27" s="77"/>
-      <c r="J27" s="77"/>
-      <c r="K27" s="77"/>
-      <c r="L27" s="77"/>
-      <c r="M27" s="77"/>
-      <c r="N27" s="77"/>
-      <c r="O27" s="77"/>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B28" s="127"/>
-      <c r="C28" s="127"/>
-      <c r="D28" s="78" t="s">
+      <c r="N28" s="91"/>
+      <c r="O28" s="91"/>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B29" s="126" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="126"/>
+      <c r="D29" s="91" t="s">
         <v>162</v>
       </c>
-      <c r="E28" s="78"/>
-      <c r="F28" s="78"/>
-      <c r="G28" s="78" t="s">
+      <c r="E29" s="91"/>
+      <c r="F29" s="91"/>
+      <c r="G29" s="91"/>
+      <c r="H29" s="91"/>
+      <c r="I29" s="91"/>
+      <c r="J29" s="91"/>
+      <c r="K29" s="91"/>
+      <c r="L29" s="91"/>
+      <c r="M29" s="91"/>
+      <c r="N29" s="91"/>
+      <c r="O29" s="91"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B30" s="126"/>
+      <c r="C30" s="126"/>
+      <c r="D30" s="91" t="s">
+        <v>163</v>
+      </c>
+      <c r="E30" s="91"/>
+      <c r="F30" s="91"/>
+      <c r="G30" s="91"/>
+      <c r="H30" s="91"/>
+      <c r="I30" s="91"/>
+      <c r="J30" s="91"/>
+      <c r="K30" s="91"/>
+      <c r="L30" s="91"/>
+      <c r="M30" s="91"/>
+      <c r="N30" s="91"/>
+      <c r="O30" s="91"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B31" s="126"/>
+      <c r="C31" s="126"/>
+      <c r="D31" s="91" t="s">
         <v>164</v>
       </c>
-      <c r="H28" s="78"/>
-      <c r="I28" s="78"/>
-      <c r="J28" s="78" t="s">
-        <v>148</v>
-      </c>
-      <c r="K28" s="78"/>
-      <c r="L28" s="78"/>
-      <c r="M28" s="78" t="s">
-        <v>163</v>
-      </c>
-      <c r="N28" s="78"/>
-      <c r="O28" s="78"/>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B29" s="127" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="127"/>
-      <c r="D29" s="78" t="s">
+      <c r="E31" s="91"/>
+      <c r="F31" s="91"/>
+      <c r="G31" s="91"/>
+      <c r="H31" s="91"/>
+      <c r="I31" s="91"/>
+      <c r="J31" s="91"/>
+      <c r="K31" s="91"/>
+      <c r="L31" s="91"/>
+      <c r="M31" s="91"/>
+      <c r="N31" s="91"/>
+      <c r="O31" s="91"/>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B32" s="126"/>
+      <c r="C32" s="126"/>
+      <c r="D32" s="91" t="s">
         <v>165</v>
       </c>
-      <c r="E29" s="78"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="78"/>
-      <c r="I29" s="78"/>
-      <c r="J29" s="78"/>
-      <c r="K29" s="78"/>
-      <c r="L29" s="78"/>
-      <c r="M29" s="78"/>
-      <c r="N29" s="78"/>
-      <c r="O29" s="78"/>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B30" s="127"/>
-      <c r="C30" s="127"/>
-      <c r="D30" s="78" t="s">
+      <c r="E32" s="91"/>
+      <c r="F32" s="91"/>
+      <c r="G32" s="91" t="s">
+        <v>153</v>
+      </c>
+      <c r="H32" s="91"/>
+      <c r="I32" s="91"/>
+      <c r="J32" s="91" t="s">
+        <v>147</v>
+      </c>
+      <c r="K32" s="91"/>
+      <c r="L32" s="91"/>
+      <c r="M32" s="91" t="s">
         <v>166</v>
       </c>
-      <c r="E30" s="78"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="78"/>
-      <c r="H30" s="78"/>
-      <c r="I30" s="78"/>
-      <c r="J30" s="78"/>
-      <c r="K30" s="78"/>
-      <c r="L30" s="78"/>
-      <c r="M30" s="78"/>
-      <c r="N30" s="78"/>
-      <c r="O30" s="78"/>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B31" s="127"/>
-      <c r="C31" s="127"/>
-      <c r="D31" s="78" t="s">
-        <v>167</v>
-      </c>
-      <c r="E31" s="78"/>
-      <c r="F31" s="78"/>
-      <c r="G31" s="78"/>
-      <c r="H31" s="78"/>
-      <c r="I31" s="78"/>
-      <c r="J31" s="78"/>
-      <c r="K31" s="78"/>
-      <c r="L31" s="78"/>
-      <c r="M31" s="78"/>
-      <c r="N31" s="78"/>
-      <c r="O31" s="78"/>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B32" s="127"/>
-      <c r="C32" s="127"/>
-      <c r="D32" s="78" t="s">
-        <v>168</v>
-      </c>
-      <c r="E32" s="78"/>
-      <c r="F32" s="78"/>
-      <c r="G32" s="78" t="s">
-        <v>156</v>
-      </c>
-      <c r="H32" s="78"/>
-      <c r="I32" s="78"/>
-      <c r="J32" s="78" t="s">
-        <v>148</v>
-      </c>
-      <c r="K32" s="78"/>
-      <c r="L32" s="78"/>
-      <c r="M32" s="78" t="s">
-        <v>169</v>
-      </c>
-      <c r="N32" s="78"/>
-      <c r="O32" s="78"/>
+      <c r="N32" s="91"/>
+      <c r="O32" s="91"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B34" s="30"/>
@@ -10618,6 +10623,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B29:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="D29:O29"/>
+    <mergeCell ref="D31:O31"/>
+    <mergeCell ref="D30:O30"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="B27:C28"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:O25"/>
     <mergeCell ref="B19:O19"/>
     <mergeCell ref="D20:O20"/>
     <mergeCell ref="D21:O21"/>
@@ -10634,26 +10659,6 @@
     <mergeCell ref="J26:L26"/>
     <mergeCell ref="M26:O26"/>
     <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="B27:C28"/>
-    <mergeCell ref="B29:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="D29:O29"/>
-    <mergeCell ref="D31:O31"/>
-    <mergeCell ref="D30:O30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10666,8 +10671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3CCAFE-CEE6-48A9-8735-EA3AFEF10E87}">
   <dimension ref="B36:L51"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -10677,302 +10682,301 @@
   <sheetData>
     <row r="36" spans="2:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="37" spans="2:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B37" s="204" t="s">
+      <c r="B37" s="202" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="205"/>
-      <c r="D37" s="205"/>
-      <c r="E37" s="205"/>
-      <c r="F37" s="205"/>
-      <c r="G37" s="205"/>
-      <c r="H37" s="205"/>
-      <c r="I37" s="205"/>
-      <c r="J37" s="205"/>
-      <c r="K37" s="205"/>
-      <c r="L37" s="206"/>
+      <c r="C37" s="203"/>
+      <c r="D37" s="203"/>
+      <c r="E37" s="203"/>
+      <c r="F37" s="203"/>
+      <c r="G37" s="203"/>
+      <c r="H37" s="203"/>
+      <c r="I37" s="203"/>
+      <c r="J37" s="203"/>
+      <c r="K37" s="203"/>
+      <c r="L37" s="204"/>
     </row>
     <row r="38" spans="2:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="125" t="s">
+      <c r="B38" s="124" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="80"/>
-      <c r="D38" s="130" t="s">
+      <c r="C38" s="93"/>
+      <c r="D38" s="129" t="s">
         <v>53</v>
       </c>
-      <c r="E38" s="130"/>
-      <c r="F38" s="130"/>
-      <c r="G38" s="130"/>
-      <c r="H38" s="130"/>
-      <c r="I38" s="130"/>
-      <c r="J38" s="130"/>
-      <c r="K38" s="130"/>
-      <c r="L38" s="131"/>
+      <c r="E38" s="129"/>
+      <c r="F38" s="129"/>
+      <c r="G38" s="129"/>
+      <c r="H38" s="129"/>
+      <c r="I38" s="129"/>
+      <c r="J38" s="129"/>
+      <c r="K38" s="129"/>
+      <c r="L38" s="130"/>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B39" s="126" t="s">
+      <c r="B39" s="125" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="127"/>
-      <c r="D39" s="78" t="s">
+      <c r="C39" s="126"/>
+      <c r="D39" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="E39" s="78"/>
-      <c r="F39" s="78"/>
-      <c r="G39" s="78"/>
-      <c r="H39" s="78"/>
-      <c r="I39" s="78"/>
-      <c r="J39" s="78"/>
-      <c r="K39" s="78"/>
-      <c r="L39" s="116"/>
+      <c r="E39" s="91"/>
+      <c r="F39" s="91"/>
+      <c r="G39" s="91"/>
+      <c r="H39" s="91"/>
+      <c r="I39" s="91"/>
+      <c r="J39" s="91"/>
+      <c r="K39" s="91"/>
+      <c r="L39" s="98"/>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B40" s="126"/>
-      <c r="C40" s="127"/>
-      <c r="D40" s="78" t="s">
+      <c r="B40" s="125"/>
+      <c r="C40" s="126"/>
+      <c r="D40" s="91" t="s">
+        <v>147</v>
+      </c>
+      <c r="E40" s="91"/>
+      <c r="F40" s="91" t="s">
+        <v>175</v>
+      </c>
+      <c r="G40" s="91"/>
+      <c r="H40" s="91" t="s">
+        <v>174</v>
+      </c>
+      <c r="I40" s="91"/>
+      <c r="J40" s="91" t="s">
+        <v>173</v>
+      </c>
+      <c r="K40" s="91"/>
+      <c r="L40" s="98"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B41" s="125"/>
+      <c r="C41" s="126"/>
+      <c r="D41" s="91" t="s">
+        <v>172</v>
+      </c>
+      <c r="E41" s="91"/>
+      <c r="F41" s="91" t="s">
+        <v>150</v>
+      </c>
+      <c r="G41" s="91"/>
+      <c r="H41" s="91" t="s">
+        <v>171</v>
+      </c>
+      <c r="I41" s="91"/>
+      <c r="J41" s="91">
+        <v>1</v>
+      </c>
+      <c r="K41" s="91"/>
+      <c r="L41" s="98"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B42" s="97" t="s">
+        <v>217</v>
+      </c>
+      <c r="C42" s="91"/>
+      <c r="D42" s="91" t="s">
+        <v>218</v>
+      </c>
+      <c r="E42" s="91"/>
+      <c r="F42" s="91"/>
+      <c r="G42" s="91"/>
+      <c r="H42" s="91"/>
+      <c r="I42" s="91"/>
+      <c r="J42" s="91"/>
+      <c r="K42" s="91"/>
+      <c r="L42" s="98"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B43" s="97"/>
+      <c r="C43" s="91"/>
+      <c r="D43" s="91" t="s">
+        <v>147</v>
+      </c>
+      <c r="E43" s="91"/>
+      <c r="F43" s="91" t="s">
+        <v>166</v>
+      </c>
+      <c r="G43" s="91"/>
+      <c r="H43" s="91" t="s">
+        <v>174</v>
+      </c>
+      <c r="I43" s="91"/>
+      <c r="J43" s="91" t="s">
+        <v>219</v>
+      </c>
+      <c r="K43" s="91"/>
+      <c r="L43" s="98"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B44" s="97"/>
+      <c r="C44" s="91"/>
+      <c r="D44" s="91" t="s">
+        <v>220</v>
+      </c>
+      <c r="E44" s="91"/>
+      <c r="F44" s="91" t="s">
+        <v>150</v>
+      </c>
+      <c r="G44" s="91"/>
+      <c r="H44" s="91" t="s">
+        <v>221</v>
+      </c>
+      <c r="I44" s="91"/>
+      <c r="J44" s="91" t="s">
+        <v>222</v>
+      </c>
+      <c r="K44" s="91"/>
+      <c r="L44" s="98"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B45" s="97" t="s">
+        <v>223</v>
+      </c>
+      <c r="C45" s="91"/>
+      <c r="D45" s="91" t="s">
+        <v>224</v>
+      </c>
+      <c r="E45" s="91"/>
+      <c r="F45" s="91"/>
+      <c r="G45" s="91"/>
+      <c r="H45" s="91"/>
+      <c r="I45" s="91"/>
+      <c r="J45" s="91"/>
+      <c r="K45" s="91"/>
+      <c r="L45" s="98"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B46" s="97"/>
+      <c r="C46" s="91"/>
+      <c r="D46" s="91" t="s">
+        <v>147</v>
+      </c>
+      <c r="E46" s="91"/>
+      <c r="F46" s="91" t="s">
+        <v>225</v>
+      </c>
+      <c r="G46" s="91"/>
+      <c r="H46" s="91" t="s">
+        <v>149</v>
+      </c>
+      <c r="I46" s="91"/>
+      <c r="J46" s="91" t="s">
+        <v>226</v>
+      </c>
+      <c r="K46" s="91"/>
+      <c r="L46" s="98"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B47" s="97"/>
+      <c r="C47" s="91"/>
+      <c r="D47" s="91" t="s">
+        <v>220</v>
+      </c>
+      <c r="E47" s="91"/>
+      <c r="F47" s="91" t="s">
+        <v>227</v>
+      </c>
+      <c r="G47" s="91"/>
+      <c r="H47" s="91" t="s">
+        <v>221</v>
+      </c>
+      <c r="I47" s="91"/>
+      <c r="J47" s="91" t="s">
+        <v>228</v>
+      </c>
+      <c r="K47" s="91"/>
+      <c r="L47" s="98"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B48" s="205" t="s">
+        <v>264</v>
+      </c>
+      <c r="C48" s="91"/>
+      <c r="D48" s="91" t="s">
+        <v>269</v>
+      </c>
+      <c r="E48" s="91"/>
+      <c r="F48" s="91"/>
+      <c r="G48" s="91"/>
+      <c r="H48" s="91"/>
+      <c r="I48" s="91"/>
+      <c r="J48" s="91"/>
+      <c r="K48" s="91"/>
+      <c r="L48" s="98"/>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B49" s="97"/>
+      <c r="C49" s="91"/>
+      <c r="D49" s="134" t="s">
+        <v>220</v>
+      </c>
+      <c r="E49" s="135"/>
+      <c r="F49" s="91" t="s">
+        <v>150</v>
+      </c>
+      <c r="G49" s="91"/>
+      <c r="H49" s="91" t="s">
+        <v>263</v>
+      </c>
+      <c r="I49" s="91"/>
+      <c r="J49" s="91" t="s">
         <v>148</v>
       </c>
-      <c r="E40" s="78"/>
-      <c r="F40" s="78" t="s">
-        <v>178</v>
-      </c>
-      <c r="G40" s="78"/>
-      <c r="H40" s="78" t="s">
-        <v>177</v>
-      </c>
-      <c r="I40" s="78"/>
-      <c r="J40" s="78" t="s">
-        <v>176</v>
-      </c>
-      <c r="K40" s="78"/>
-      <c r="L40" s="116"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B41" s="126"/>
-      <c r="C41" s="127"/>
-      <c r="D41" s="78" t="s">
-        <v>175</v>
-      </c>
-      <c r="E41" s="78"/>
-      <c r="F41" s="78" t="s">
-        <v>151</v>
-      </c>
-      <c r="G41" s="78"/>
-      <c r="H41" s="78" t="s">
-        <v>174</v>
-      </c>
-      <c r="I41" s="78"/>
-      <c r="J41" s="78">
-        <v>1</v>
-      </c>
-      <c r="K41" s="78"/>
-      <c r="L41" s="116"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B42" s="106" t="s">
-        <v>220</v>
-      </c>
-      <c r="C42" s="78"/>
-      <c r="D42" s="78" t="s">
-        <v>221</v>
-      </c>
-      <c r="E42" s="78"/>
-      <c r="F42" s="78"/>
-      <c r="G42" s="78"/>
-      <c r="H42" s="78"/>
-      <c r="I42" s="78"/>
-      <c r="J42" s="78"/>
-      <c r="K42" s="78"/>
-      <c r="L42" s="116"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B43" s="106"/>
-      <c r="C43" s="78"/>
-      <c r="D43" s="78" t="s">
-        <v>148</v>
-      </c>
-      <c r="E43" s="78"/>
-      <c r="F43" s="78" t="s">
-        <v>169</v>
-      </c>
-      <c r="G43" s="78"/>
-      <c r="H43" s="78" t="s">
-        <v>177</v>
-      </c>
-      <c r="I43" s="78"/>
-      <c r="J43" s="78" t="s">
-        <v>222</v>
-      </c>
-      <c r="K43" s="78"/>
-      <c r="L43" s="116"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B44" s="106"/>
-      <c r="C44" s="78"/>
-      <c r="D44" s="78" t="s">
-        <v>223</v>
-      </c>
-      <c r="E44" s="78"/>
-      <c r="F44" s="78" t="s">
-        <v>151</v>
-      </c>
-      <c r="G44" s="78"/>
-      <c r="H44" s="78" t="s">
-        <v>224</v>
-      </c>
-      <c r="I44" s="78"/>
-      <c r="J44" s="78" t="s">
-        <v>225</v>
-      </c>
-      <c r="K44" s="78"/>
-      <c r="L44" s="116"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B45" s="106" t="s">
-        <v>226</v>
-      </c>
-      <c r="C45" s="78"/>
-      <c r="D45" s="78" t="s">
-        <v>227</v>
-      </c>
-      <c r="E45" s="78"/>
-      <c r="F45" s="78"/>
-      <c r="G45" s="78"/>
-      <c r="H45" s="78"/>
-      <c r="I45" s="78"/>
-      <c r="J45" s="78"/>
-      <c r="K45" s="78"/>
-      <c r="L45" s="116"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B46" s="106"/>
-      <c r="C46" s="78"/>
-      <c r="D46" s="78" t="s">
-        <v>148</v>
-      </c>
-      <c r="E46" s="78"/>
-      <c r="F46" s="78" t="s">
-        <v>228</v>
-      </c>
-      <c r="G46" s="78"/>
-      <c r="H46" s="78" t="s">
-        <v>150</v>
-      </c>
-      <c r="I46" s="78"/>
-      <c r="J46" s="78" t="s">
-        <v>229</v>
-      </c>
-      <c r="K46" s="78"/>
-      <c r="L46" s="116"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B47" s="106"/>
-      <c r="C47" s="78"/>
-      <c r="D47" s="78" t="s">
-        <v>223</v>
-      </c>
-      <c r="E47" s="78"/>
-      <c r="F47" s="78" t="s">
-        <v>230</v>
-      </c>
-      <c r="G47" s="78"/>
-      <c r="H47" s="78" t="s">
-        <v>224</v>
-      </c>
-      <c r="I47" s="78"/>
-      <c r="J47" s="78" t="s">
-        <v>231</v>
-      </c>
-      <c r="K47" s="78"/>
-      <c r="L47" s="116"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B48" s="203" t="s">
-        <v>269</v>
-      </c>
-      <c r="C48" s="78"/>
-      <c r="D48" s="78" t="s">
-        <v>49</v>
-      </c>
-      <c r="E48" s="78"/>
-      <c r="F48" s="78"/>
-      <c r="G48" s="78"/>
-      <c r="H48" s="78"/>
-      <c r="I48" s="78"/>
-      <c r="J48" s="78"/>
-      <c r="K48" s="78"/>
-      <c r="L48" s="116"/>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B49" s="106"/>
-      <c r="C49" s="78"/>
-      <c r="D49" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="E49" s="19"/>
-      <c r="F49" s="78" t="s">
-        <v>151</v>
-      </c>
-      <c r="G49" s="78"/>
-      <c r="H49" s="78" t="s">
-        <v>266</v>
-      </c>
-      <c r="I49" s="78"/>
-      <c r="J49" s="78" t="s">
+      <c r="K49" s="91"/>
+      <c r="L49" s="98"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B50" s="97"/>
+      <c r="C50" s="91"/>
+      <c r="D50" s="91" t="s">
         <v>149</v>
       </c>
-      <c r="K49" s="78"/>
-      <c r="L49" s="116"/>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B50" s="106"/>
-      <c r="C50" s="78"/>
-      <c r="D50" s="78" t="s">
-        <v>150</v>
-      </c>
-      <c r="E50" s="78"/>
-      <c r="F50" s="78" t="s">
-        <v>153</v>
-      </c>
-      <c r="G50" s="78"/>
-      <c r="H50" s="78"/>
-      <c r="I50" s="78"/>
-      <c r="J50" s="78"/>
-      <c r="K50" s="78"/>
-      <c r="L50" s="116"/>
+      <c r="E50" s="91"/>
+      <c r="F50" s="91" t="s">
+        <v>271</v>
+      </c>
+      <c r="G50" s="91"/>
+      <c r="H50" s="91"/>
+      <c r="I50" s="91"/>
+      <c r="J50" s="91"/>
+      <c r="K50" s="91"/>
+      <c r="L50" s="98"/>
     </row>
     <row r="51" spans="2:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B51" s="112"/>
-      <c r="C51" s="113"/>
-      <c r="D51" s="113" t="s">
-        <v>267</v>
-      </c>
-      <c r="E51" s="113"/>
-      <c r="F51" s="113"/>
-      <c r="G51" s="113"/>
-      <c r="H51" s="113" t="s">
+      <c r="B51" s="99"/>
+      <c r="C51" s="100"/>
+      <c r="D51" s="100" t="s">
         <v>268</v>
       </c>
-      <c r="I51" s="113"/>
-      <c r="J51" s="113"/>
-      <c r="K51" s="113"/>
-      <c r="L51" s="117"/>
+      <c r="E51" s="100"/>
+      <c r="F51" s="100"/>
+      <c r="G51" s="100"/>
+      <c r="H51" s="100" t="s">
+        <v>270</v>
+      </c>
+      <c r="I51" s="100"/>
+      <c r="J51" s="100"/>
+      <c r="K51" s="100"/>
+      <c r="L51" s="101"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="B37:L37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:L38"/>
-    <mergeCell ref="B39:C41"/>
-    <mergeCell ref="D39:L39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="D45:L45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="J46:L46"/>
+  <mergeCells count="43">
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="F50:L50"/>
+    <mergeCell ref="H51:L51"/>
+    <mergeCell ref="D48:L48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="J49:L49"/>
     <mergeCell ref="B48:C51"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="F41:G41"/>
@@ -10989,18 +10993,20 @@
     <mergeCell ref="H44:I44"/>
     <mergeCell ref="J44:L44"/>
     <mergeCell ref="B45:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="F50:L50"/>
-    <mergeCell ref="H51:L51"/>
-    <mergeCell ref="D48:L48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D45:L45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="B37:L37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:L38"/>
+    <mergeCell ref="B39:C41"/>
+    <mergeCell ref="D39:L39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:L40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/기획서/스핀그로우 기획서_작성완료.xlsx
+++ b/기획서/스핀그로우 기획서_작성완료.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\08Extra\유니티 게임프로젝트\NoJump\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752D6B5A-B985-495E-8494-B29239EF1139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B78448-2FF4-4AD2-96F8-B810826CAFD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" firstSheet="4" activeTab="6" xr2:uid="{6831196C-BD2B-4079-A5C5-73E04D2210C2}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="13656" windowHeight="12336" firstSheet="1" activeTab="3" xr2:uid="{6831196C-BD2B-4079-A5C5-73E04D2210C2}"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="8" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="290">
   <si>
     <t>ex) 던그리드</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -716,14 +716,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>표지판</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>표지판 아래에 상자를 두고 그 안에 해드라이트를 두어 헤드라이트를 획득하여 시야를 확보할 수 있다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -757,17 +749,6 @@
   </si>
   <si>
     <t>가시에 닿아서 자폭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 몸의 크기를 늘려서 양쪽 끝에 있는 코인을 벽과 닿지 않게 먹는다. 
-- 몸이 벽에 닿았을 경우 체력이 감소한다.
-2. 코인을 일정 개수 이상 먹고 특정 무게 이상으로 버튼을 누르면 2구역으로 넘어가는 문이 열린다.
-3. 버튼 옆의 가시에 닿으면 닿아있는 동안 체력이 계속 닳는다.
-- 코인을 일정 개수 이상 못먹었을 경우, 문이 안열려서 재시작을 해야한다.
-- 특정 무게 이상으로 버튼을 누르지 않았을 경우에도, 문이 열리지 않아서 재시작 해야한다.
-3. 2구역으로 넘어가는 문에서 문이 열리는 조건을 상세히 확인할 수 있다.
-문 : 현재 코인 개수(x/20) 및 버튼 누름 유무(o/x) 파악 가능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -868,10 +849,6 @@
   </si>
   <si>
     <t>전등</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장애물 떨어지는 속도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1068,10 +1045,6 @@
   </si>
   <si>
     <t>앨리스의 눈물은 랜덤 LV로 등장한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"너무 어두워! 잘 보이지 않아ㅜㅜ 아래 상자에서 헤드라이트를 꺼낼 수 있어"라는 표지판을 둔다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1158,6 +1131,109 @@
     <t>레벨업한 상태로 해당 부분을 지나갈 경우 구덩이 아래에 있는 가시와 접촉하게 된다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">기본 시야 밝기 : 0.1 / 명도 : 0.2 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤드라이트 밝기 : 0.8 / 명도 : 0.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부딪쳤을 때의 속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 몸의 크기를 늘려서 양쪽 끝에 있는 코인을 벽과 닿지 않게 먹는다. 
+- 몸이 벽에 닿았을 경우 체력이 감소한다.
+2. 코인을 일정 개수 이상 먹고 특정 무게 이상으로 버튼을 누르면 2구역으로 넘어가는 문이 열린다.
+3. 버튼 옆의 가시에 닿으면 닿아있는 동안 1초당 체력이 계속 닳는다.
+- 코인을 일정 개수 이상 못먹었을 경우, 문이 안열려서 재시작을 해야한다.
+- 특정 무게 이상으로 버튼을 누르지 않았을 경우에도, 문이 열리지 않아서 재시작 해야한다.
+3. 2구역으로 넘어가는 문에서 문이 열리는 조건을 상세히 확인할 수 있다.
+문 : 현재 코인 개수(x/20) 및 버튼 누름 유무(o/x) 파악 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>딜레이시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장애물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인식범위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격범위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2~0.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8~1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>떨어지는 주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2x5x7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가로크기 X 5(벽높이)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진동 주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5~2sec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3~1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특징</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진동 크기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진동의 크기에 따라 떨어지는 장애물의 수가 달라진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1166,7 +1242,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1208,6 +1284,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -2183,7 +2275,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="207">
+  <cellXfs count="222">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2352,9 +2444,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2385,6 +2474,51 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2427,176 +2561,167 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2610,96 +2735,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2727,6 +2762,105 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2742,68 +2876,71 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="56" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="73" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="74" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="73" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="74" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3978,14 +4115,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>19483</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>591727</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>158455</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>158456</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4021,13 +4158,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>35620</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>165628</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>326525</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>194762</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4092,13 +4229,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>12292</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>201038</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>300079</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>9192</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4163,13 +4300,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>179055</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>219417</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>468167</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>27571</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4234,14 +4371,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>658062</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>184185</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>583680</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>170913</xdr:rowOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>170914</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4278,13 +4415,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>137194</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>22648</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>428099</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>51782</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4349,13 +4486,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>68769</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>151055</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>463216</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>18269</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4393,13 +4530,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>9154</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>26448</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>301852</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>55582</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4464,13 +4601,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>193847</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>25100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>322248</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>186068</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4508,13 +4645,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>98801</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>222773</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>388381</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>27790</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4579,13 +4716,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>42578</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>1964</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>333483</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>31097</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7394,38 +7531,38 @@
       <selection activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="2:16" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B2" s="82" t="s">
-        <v>255</v>
-      </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="84"/>
-    </row>
-    <row r="3" spans="2:16" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="85"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B5" s="71" t="s">
+    <row r="1" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B2" s="67" t="s">
+        <v>250</v>
+      </c>
+      <c r="C2" s="68"/>
+      <c r="D2" s="69"/>
+    </row>
+    <row r="3" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="70"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="72"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B5" s="85" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="D5" s="77"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B6" s="71"/>
+      <c r="D5" s="91"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B6" s="85"/>
       <c r="C6" s="19" t="s">
         <v>126</v>
       </c>
       <c r="D6" s="19"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B7" s="55" t="s">
         <v>127</v>
       </c>
@@ -7434,16 +7571,16 @@
       </c>
       <c r="D7" s="19"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B8" s="55" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="77" t="s">
+      <c r="C8" s="91" t="s">
         <v>130</v>
       </c>
-      <c r="D8" s="77"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="D8" s="91"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B9" s="55" t="s">
         <v>131</v>
       </c>
@@ -7452,91 +7589,91 @@
       </c>
       <c r="D9" s="19"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B10" s="55" t="s">
-        <v>234</v>
-      </c>
-      <c r="C10" s="77" t="s">
-        <v>235</v>
-      </c>
-      <c r="D10" s="77"/>
-    </row>
-    <row r="11" spans="2:16" ht="13.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="13" spans="2:16" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="74" t="s">
+        <v>230</v>
+      </c>
+      <c r="C10" s="91" t="s">
+        <v>231</v>
+      </c>
+      <c r="D10" s="91"/>
+    </row>
+    <row r="11" spans="2:16" ht="13.8" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="2:16" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="88" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="75"/>
-      <c r="N13" s="75"/>
-      <c r="O13" s="75"/>
-      <c r="P13" s="76"/>
-    </row>
-    <row r="14" spans="2:16" ht="185.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="70" t="s">
-        <v>232</v>
-      </c>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="70"/>
-      <c r="N14" s="70"/>
-      <c r="O14" s="70"/>
-      <c r="P14" s="70"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="C13" s="89"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="89"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="89"/>
+      <c r="N13" s="89"/>
+      <c r="O13" s="89"/>
+      <c r="P13" s="90"/>
+    </row>
+    <row r="14" spans="2:16" ht="185.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="84" t="s">
+        <v>228</v>
+      </c>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="84"/>
+      <c r="N14" s="84"/>
+      <c r="O14" s="84"/>
+      <c r="P14" s="84"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.4">
       <c r="N15" s="54"/>
     </row>
-    <row r="16" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="72" t="s">
+    <row r="16" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="86" t="s">
         <v>133</v>
       </c>
-      <c r="C16" s="73"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="59"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B17" s="88" t="s">
+      <c r="C16" s="87"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="58"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B17" s="73" t="s">
         <v>134</v>
       </c>
-      <c r="C17" s="89"/>
+      <c r="C17" s="74"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B18" s="1"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B19" s="1"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B20" s="1"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" s="28"/>
       <c r="B21" s="38"/>
       <c r="C21" s="28"/>
@@ -7548,52 +7685,52 @@
       <c r="I21" s="28"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B22" s="1"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B23" s="1"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B24" s="1"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B25" s="1"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B26" s="92" t="s">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B26" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="93"/>
-      <c r="D26" s="93"/>
-      <c r="E26" s="93"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="78"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B27" s="94" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B27" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="81"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="81" t="s">
+      <c r="C27" s="80"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="G27" s="81"/>
-      <c r="H27" s="81"/>
-      <c r="I27" s="81"/>
-      <c r="J27" s="81"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="80"/>
+      <c r="I27" s="80"/>
+      <c r="J27" s="80"/>
       <c r="K27" s="47"/>
     </row>
-    <row r="43" spans="2:16" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B43" s="90" t="s">
+    <row r="43" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="91"/>
+      <c r="C43" s="76"/>
       <c r="D43" s="32"/>
       <c r="E43" s="32"/>
       <c r="F43" s="32"/>
@@ -7608,7 +7745,7 @@
       <c r="O43" s="32"/>
       <c r="P43" s="33"/>
     </row>
-    <row r="44" spans="2:16" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:16" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B44" s="6" t="s">
         <v>3</v>
       </c>
@@ -7620,7 +7757,7 @@
       </c>
       <c r="P44" s="2"/>
     </row>
-    <row r="45" spans="2:16" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B45" s="8" t="s">
         <v>6</v>
       </c>
@@ -7643,7 +7780,7 @@
       <c r="O45" s="9"/>
       <c r="P45" s="10"/>
     </row>
-    <row r="46" spans="2:16" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:16" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B46" s="7" t="s">
         <v>7</v>
       </c>
@@ -7666,7 +7803,7 @@
       <c r="O46" s="4"/>
       <c r="P46" s="5"/>
     </row>
-    <row r="47" spans="2:16" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:16" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B47" s="7" t="s">
         <v>10</v>
       </c>
@@ -7689,11 +7826,11 @@
       <c r="O47" s="4"/>
       <c r="P47" s="5"/>
     </row>
-    <row r="48" spans="2:16" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:16" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C48" s="60" t="s">
+      <c r="C48" s="59" t="s">
         <v>14</v>
       </c>
       <c r="D48" s="14"/>
@@ -7712,14 +7849,14 @@
       <c r="O48" s="4"/>
       <c r="P48" s="5"/>
     </row>
-    <row r="49" spans="2:16" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="79" t="s">
+    <row r="49" spans="2:16" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B49" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="C49" s="78" t="s">
+      <c r="C49" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="D49" s="78"/>
+      <c r="D49" s="92"/>
       <c r="E49" s="16" t="s">
         <v>21</v>
       </c>
@@ -7735,10 +7872,10 @@
       <c r="O49" s="16"/>
       <c r="P49" s="14"/>
     </row>
-    <row r="50" spans="2:16" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B50" s="80"/>
-      <c r="C50" s="78"/>
-      <c r="D50" s="78"/>
+    <row r="50" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="94"/>
+      <c r="C50" s="92"/>
+      <c r="D50" s="92"/>
       <c r="E50" s="9" t="s">
         <v>22</v>
       </c>
@@ -7754,34 +7891,29 @@
       <c r="O50" s="9"/>
       <c r="P50" s="10"/>
     </row>
-    <row r="51" spans="2:16" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:16" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B51" s="17"/>
       <c r="C51" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D51" s="67" t="s">
-        <v>233</v>
-      </c>
-      <c r="E51" s="68"/>
-      <c r="F51" s="68"/>
-      <c r="G51" s="68"/>
-      <c r="H51" s="68"/>
-      <c r="I51" s="68"/>
-      <c r="J51" s="68"/>
-      <c r="K51" s="68"/>
-      <c r="L51" s="68"/>
-      <c r="M51" s="68"/>
-      <c r="N51" s="68"/>
-      <c r="O51" s="68"/>
-      <c r="P51" s="69"/>
+      <c r="D51" s="81" t="s">
+        <v>229</v>
+      </c>
+      <c r="E51" s="82"/>
+      <c r="F51" s="82"/>
+      <c r="G51" s="82"/>
+      <c r="H51" s="82"/>
+      <c r="I51" s="82"/>
+      <c r="J51" s="82"/>
+      <c r="K51" s="82"/>
+      <c r="L51" s="82"/>
+      <c r="M51" s="82"/>
+      <c r="N51" s="82"/>
+      <c r="O51" s="82"/>
+      <c r="P51" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
     <mergeCell ref="D51:P51"/>
     <mergeCell ref="B14:P14"/>
     <mergeCell ref="B5:B6"/>
@@ -7793,6 +7925,11 @@
     <mergeCell ref="C49:D50"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="F27:J27"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7804,28 +7941,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D56172-F97B-4DA2-B700-ED6E77845DD1}">
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="97" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="99"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="95" t="s">
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="117"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="114" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="96"/>
+      <c r="B2" s="103"/>
       <c r="C2" s="22" t="s">
         <v>58</v>
       </c>
@@ -7842,11 +7979,11 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="95" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="114" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="96"/>
+      <c r="B3" s="103"/>
       <c r="C3" s="22">
         <v>10</v>
       </c>
@@ -7863,11 +8000,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="95" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="114" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="96"/>
+      <c r="B4" s="103"/>
       <c r="C4" s="22">
         <v>10</v>
       </c>
@@ -7884,11 +8021,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="95" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="114" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="96"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="22">
         <v>5</v>
       </c>
@@ -7905,11 +8042,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="95" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="114" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="96"/>
+      <c r="B6" s="103"/>
       <c r="C6" s="22">
         <v>1</v>
       </c>
@@ -7926,11 +8063,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="95" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" s="114" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="96"/>
+      <c r="B7" s="103"/>
       <c r="C7" s="22">
         <v>1</v>
       </c>
@@ -7947,11 +8084,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="95" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="114" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="96"/>
+      <c r="B8" s="103"/>
       <c r="C8" s="22">
         <v>2</v>
       </c>
@@ -7968,11 +8105,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="95" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="114" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="96"/>
+      <c r="B9" s="103"/>
       <c r="C9" s="22">
         <v>0</v>
       </c>
@@ -7989,11 +8126,11 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" s="95" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" s="114" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="96"/>
+      <c r="B10" s="103"/>
       <c r="C10" s="22">
         <v>0</v>
       </c>
@@ -8010,11 +8147,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="95" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" s="114" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="96"/>
+      <c r="B11" s="103"/>
       <c r="C11" s="22">
         <v>0</v>
       </c>
@@ -8031,11 +8168,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="95" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="96"/>
+      <c r="B12" s="103"/>
       <c r="C12" s="22">
         <v>100</v>
       </c>
@@ -8052,11 +8189,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="100" t="s">
+    <row r="13" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="112" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="101"/>
+      <c r="B13" s="113"/>
       <c r="C13" s="25">
         <v>1</v>
       </c>
@@ -8073,96 +8210,96 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" s="102" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17" s="111" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="102"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="102"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="102"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" s="96" t="s">
+      <c r="B17" s="111"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="111"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A18" s="103" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="96"/>
-      <c r="C18" s="96" t="s">
+      <c r="B18" s="103"/>
+      <c r="C18" s="103" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="96"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="96"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" s="96" t="s">
+      <c r="D18" s="103"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="103"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19" s="103" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="96"/>
-      <c r="C19" s="96" t="s">
+      <c r="B19" s="103"/>
+      <c r="C19" s="103" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="96"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="96"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A20" s="96" t="s">
+      <c r="D19" s="103"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="103"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A20" s="103" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="96"/>
-      <c r="C20" s="96" t="s">
+      <c r="B20" s="103"/>
+      <c r="C20" s="103" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="96"/>
-      <c r="E20" s="96"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="96"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A21" s="96" t="s">
+      <c r="D20" s="103"/>
+      <c r="E20" s="103"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="103"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A21" s="103" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="96"/>
-      <c r="C21" s="96" t="s">
+      <c r="B21" s="103"/>
+      <c r="C21" s="103" t="s">
         <v>83</v>
       </c>
-      <c r="D21" s="96"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="96"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A22" s="96" t="s">
+      <c r="D21" s="103"/>
+      <c r="E21" s="103"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="103"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A22" s="103" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="96"/>
-      <c r="C22" s="96" t="s">
+      <c r="B22" s="103"/>
+      <c r="C22" s="103" t="s">
         <v>85</v>
       </c>
-      <c r="D22" s="96"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="96"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A23" s="96" t="s">
+      <c r="D22" s="103"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="103"/>
+      <c r="G22" s="103"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A23" s="103" t="s">
         <v>86</v>
       </c>
-      <c r="B23" s="96"/>
-      <c r="C23" s="96" t="s">
+      <c r="B23" s="103"/>
+      <c r="C23" s="103" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="96"/>
-      <c r="E23" s="96"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="96"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D23" s="103"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="103"/>
+      <c r="G23" s="103"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="27"/>
       <c r="B24" s="27"/>
       <c r="C24" s="27"/>
@@ -8171,7 +8308,7 @@
       <c r="F24" s="27"/>
       <c r="G24" s="27"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="27"/>
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
@@ -8180,143 +8317,143 @@
       <c r="F25" s="27"/>
       <c r="G25" s="27"/>
     </row>
-    <row r="26" spans="1:7" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A27" s="103" t="s">
+    <row r="26" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A27" s="95" t="s">
         <v>88</v>
       </c>
-      <c r="B27" s="104"/>
-      <c r="C27" s="104"/>
-      <c r="D27" s="104"/>
-      <c r="E27" s="104"/>
-      <c r="F27" s="104"/>
-      <c r="G27" s="105"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A28" s="106" t="s">
+      <c r="B27" s="96"/>
+      <c r="C27" s="96"/>
+      <c r="D27" s="96"/>
+      <c r="E27" s="96"/>
+      <c r="F27" s="96"/>
+      <c r="G27" s="97"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A28" s="98" t="s">
         <v>89</v>
       </c>
-      <c r="B28" s="78"/>
-      <c r="C28" s="107" t="s">
+      <c r="B28" s="92"/>
+      <c r="C28" s="105" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="108"/>
-      <c r="E28" s="108"/>
-      <c r="F28" s="108"/>
-      <c r="G28" s="109"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A29" s="106"/>
-      <c r="B29" s="78"/>
-      <c r="C29" s="92"/>
-      <c r="D29" s="93"/>
-      <c r="E29" s="93"/>
-      <c r="F29" s="93"/>
-      <c r="G29" s="110"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A30" s="106"/>
-      <c r="B30" s="78"/>
-      <c r="C30" s="94"/>
-      <c r="D30" s="81"/>
-      <c r="E30" s="81"/>
-      <c r="F30" s="81"/>
-      <c r="G30" s="111"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A31" s="106" t="s">
+      <c r="D28" s="106"/>
+      <c r="E28" s="106"/>
+      <c r="F28" s="106"/>
+      <c r="G28" s="107"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A29" s="98"/>
+      <c r="B29" s="92"/>
+      <c r="C29" s="77"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="108"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A30" s="98"/>
+      <c r="B30" s="92"/>
+      <c r="C30" s="79"/>
+      <c r="D30" s="80"/>
+      <c r="E30" s="80"/>
+      <c r="F30" s="80"/>
+      <c r="G30" s="109"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A31" s="98" t="s">
         <v>91</v>
       </c>
-      <c r="B31" s="78"/>
-      <c r="C31" s="107" t="s">
+      <c r="B31" s="92"/>
+      <c r="C31" s="105" t="s">
         <v>92</v>
       </c>
-      <c r="D31" s="108"/>
-      <c r="E31" s="108"/>
-      <c r="F31" s="108"/>
-      <c r="G31" s="109"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A32" s="106"/>
-      <c r="B32" s="78"/>
-      <c r="C32" s="92"/>
-      <c r="D32" s="93"/>
-      <c r="E32" s="93"/>
-      <c r="F32" s="93"/>
-      <c r="G32" s="110"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A33" s="106"/>
-      <c r="B33" s="78"/>
-      <c r="C33" s="94"/>
-      <c r="D33" s="81"/>
-      <c r="E33" s="81"/>
-      <c r="F33" s="81"/>
-      <c r="G33" s="111"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A34" s="106" t="s">
+      <c r="D31" s="106"/>
+      <c r="E31" s="106"/>
+      <c r="F31" s="106"/>
+      <c r="G31" s="107"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A32" s="98"/>
+      <c r="B32" s="92"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="78"/>
+      <c r="E32" s="78"/>
+      <c r="F32" s="78"/>
+      <c r="G32" s="108"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A33" s="98"/>
+      <c r="B33" s="92"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="80"/>
+      <c r="G33" s="109"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A34" s="98" t="s">
         <v>93</v>
       </c>
-      <c r="B34" s="78"/>
-      <c r="C34" s="107" t="s">
+      <c r="B34" s="92"/>
+      <c r="C34" s="105" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="108"/>
-      <c r="E34" s="108"/>
-      <c r="F34" s="108"/>
-      <c r="G34" s="109"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A35" s="106"/>
-      <c r="B35" s="78"/>
-      <c r="C35" s="92"/>
-      <c r="D35" s="93"/>
-      <c r="E35" s="93"/>
-      <c r="F35" s="93"/>
-      <c r="G35" s="110"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A36" s="106"/>
-      <c r="B36" s="78"/>
-      <c r="C36" s="94"/>
-      <c r="D36" s="81"/>
-      <c r="E36" s="81"/>
-      <c r="F36" s="81"/>
-      <c r="G36" s="111"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A37" s="106" t="s">
+      <c r="D34" s="106"/>
+      <c r="E34" s="106"/>
+      <c r="F34" s="106"/>
+      <c r="G34" s="107"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A35" s="98"/>
+      <c r="B35" s="92"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="78"/>
+      <c r="E35" s="78"/>
+      <c r="F35" s="78"/>
+      <c r="G35" s="108"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A36" s="98"/>
+      <c r="B36" s="92"/>
+      <c r="C36" s="79"/>
+      <c r="D36" s="80"/>
+      <c r="E36" s="80"/>
+      <c r="F36" s="80"/>
+      <c r="G36" s="109"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A37" s="98" t="s">
         <v>94</v>
       </c>
-      <c r="B37" s="78"/>
-      <c r="C37" s="107" t="s">
+      <c r="B37" s="92"/>
+      <c r="C37" s="105" t="s">
         <v>95</v>
       </c>
-      <c r="D37" s="108"/>
-      <c r="E37" s="108"/>
-      <c r="F37" s="108"/>
-      <c r="G37" s="109"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A38" s="106"/>
-      <c r="B38" s="78"/>
-      <c r="C38" s="92"/>
-      <c r="D38" s="93"/>
-      <c r="E38" s="93"/>
-      <c r="F38" s="93"/>
-      <c r="G38" s="110"/>
-    </row>
-    <row r="39" spans="1:7" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A39" s="112"/>
-      <c r="B39" s="113"/>
-      <c r="C39" s="114"/>
-      <c r="D39" s="86"/>
-      <c r="E39" s="86"/>
-      <c r="F39" s="86"/>
-      <c r="G39" s="87"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D37" s="106"/>
+      <c r="E37" s="106"/>
+      <c r="F37" s="106"/>
+      <c r="G37" s="107"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A38" s="98"/>
+      <c r="B38" s="92"/>
+      <c r="C38" s="77"/>
+      <c r="D38" s="78"/>
+      <c r="E38" s="78"/>
+      <c r="F38" s="78"/>
+      <c r="G38" s="108"/>
+    </row>
+    <row r="39" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="100"/>
+      <c r="B39" s="101"/>
+      <c r="C39" s="110"/>
+      <c r="D39" s="71"/>
+      <c r="E39" s="71"/>
+      <c r="F39" s="71"/>
+      <c r="G39" s="72"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" s="28"/>
       <c r="B40" s="28"/>
       <c r="C40" s="28"/>
@@ -8325,7 +8462,7 @@
       <c r="F40" s="28"/>
       <c r="G40" s="28"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41" s="28"/>
       <c r="B41" s="28"/>
       <c r="C41" s="28"/>
@@ -8334,7 +8471,7 @@
       <c r="F41" s="28"/>
       <c r="G41" s="28"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42" s="28"/>
       <c r="B42" s="28"/>
       <c r="C42" s="28"/>
@@ -8343,212 +8480,213 @@
       <c r="F42" s="28"/>
       <c r="G42" s="28"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A43" s="102" t="s">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A43" s="111" t="s">
         <v>96</v>
       </c>
-      <c r="B43" s="102"/>
-      <c r="C43" s="102"/>
-      <c r="D43" s="102"/>
-      <c r="E43" s="102"/>
-      <c r="F43" s="102"/>
-      <c r="G43" s="102"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A44" s="96" t="s">
+      <c r="B43" s="111"/>
+      <c r="C43" s="111"/>
+      <c r="D43" s="111"/>
+      <c r="E43" s="111"/>
+      <c r="F43" s="111"/>
+      <c r="G43" s="111"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A44" s="103" t="s">
         <v>97</v>
       </c>
-      <c r="B44" s="96"/>
-      <c r="C44" s="96" t="s">
+      <c r="B44" s="103"/>
+      <c r="C44" s="103" t="s">
         <v>98</v>
       </c>
-      <c r="D44" s="96"/>
-      <c r="E44" s="96"/>
-      <c r="F44" s="96"/>
-      <c r="G44" s="96"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A45" s="96" t="s">
+      <c r="D44" s="103"/>
+      <c r="E44" s="103"/>
+      <c r="F44" s="103"/>
+      <c r="G44" s="103"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A45" s="103" t="s">
         <v>99</v>
       </c>
-      <c r="B45" s="96"/>
-      <c r="C45" s="96" t="s">
+      <c r="B45" s="103"/>
+      <c r="C45" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="D45" s="96"/>
-      <c r="E45" s="96"/>
-      <c r="F45" s="96"/>
-      <c r="G45" s="96"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A46" s="115" t="s">
+      <c r="D45" s="103"/>
+      <c r="E45" s="103"/>
+      <c r="F45" s="103"/>
+      <c r="G45" s="103"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A46" s="104" t="s">
         <v>101</v>
       </c>
-      <c r="B46" s="115"/>
-      <c r="C46" s="115" t="s">
+      <c r="B46" s="104"/>
+      <c r="C46" s="104" t="s">
         <v>102</v>
       </c>
-      <c r="D46" s="115"/>
-      <c r="E46" s="115"/>
-      <c r="F46" s="115"/>
-      <c r="G46" s="115"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A47" s="96" t="s">
+      <c r="D46" s="104"/>
+      <c r="E46" s="104"/>
+      <c r="F46" s="104"/>
+      <c r="G46" s="104"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A47" s="103" t="s">
         <v>103</v>
       </c>
-      <c r="B47" s="96"/>
-      <c r="C47" s="96" t="s">
+      <c r="B47" s="103"/>
+      <c r="C47" s="103" t="s">
         <v>104</v>
       </c>
-      <c r="D47" s="96"/>
-      <c r="E47" s="96"/>
-      <c r="F47" s="96"/>
-      <c r="G47" s="96"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A48" s="96" t="s">
+      <c r="D47" s="103"/>
+      <c r="E47" s="103"/>
+      <c r="F47" s="103"/>
+      <c r="G47" s="103"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A48" s="103" t="s">
         <v>105</v>
       </c>
-      <c r="B48" s="96"/>
-      <c r="C48" s="96" t="s">
+      <c r="B48" s="103"/>
+      <c r="C48" s="103" t="s">
         <v>106</v>
       </c>
-      <c r="D48" s="96"/>
-      <c r="E48" s="96"/>
-      <c r="F48" s="96"/>
-      <c r="G48" s="96"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A49" s="96" t="s">
+      <c r="D48" s="103"/>
+      <c r="E48" s="103"/>
+      <c r="F48" s="103"/>
+      <c r="G48" s="103"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A49" s="103" t="s">
         <v>107</v>
       </c>
-      <c r="B49" s="96"/>
-      <c r="C49" s="96" t="s">
+      <c r="B49" s="103"/>
+      <c r="C49" s="103" t="s">
         <v>108</v>
       </c>
-      <c r="D49" s="96"/>
-      <c r="E49" s="96"/>
-      <c r="F49" s="96"/>
-      <c r="G49" s="96"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A50" s="93"/>
-      <c r="B50" s="93"/>
-      <c r="C50" s="93"/>
-      <c r="D50" s="93"/>
-      <c r="E50" s="93"/>
-      <c r="F50" s="93"/>
-      <c r="G50" s="93"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A51" s="93"/>
-      <c r="B51" s="93"/>
-      <c r="C51" s="93"/>
-      <c r="D51" s="93"/>
-      <c r="E51" s="93"/>
-      <c r="F51" s="93"/>
-      <c r="G51" s="93"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A52" s="93"/>
-      <c r="B52" s="93"/>
-      <c r="C52" s="93"/>
-      <c r="D52" s="93"/>
-      <c r="E52" s="93"/>
-      <c r="F52" s="93"/>
-      <c r="G52" s="93"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A53" s="93"/>
-      <c r="B53" s="93"/>
-      <c r="C53" s="93"/>
-      <c r="D53" s="93"/>
-      <c r="E53" s="93"/>
-      <c r="F53" s="93"/>
-      <c r="G53" s="93"/>
-    </row>
-    <row r="54" spans="1:7" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A55" s="103" t="s">
+      <c r="D49" s="103"/>
+      <c r="E49" s="103"/>
+      <c r="F49" s="103"/>
+      <c r="G49" s="103"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A50" s="78"/>
+      <c r="B50" s="78"/>
+      <c r="C50" s="78"/>
+      <c r="D50" s="78"/>
+      <c r="E50" s="78"/>
+      <c r="F50" s="78"/>
+      <c r="G50" s="78"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A51" s="78"/>
+      <c r="B51" s="78"/>
+      <c r="C51" s="78"/>
+      <c r="D51" s="78"/>
+      <c r="E51" s="78"/>
+      <c r="F51" s="78"/>
+      <c r="G51" s="78"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A52" s="78"/>
+      <c r="B52" s="78"/>
+      <c r="C52" s="78"/>
+      <c r="D52" s="78"/>
+      <c r="E52" s="78"/>
+      <c r="F52" s="78"/>
+      <c r="G52" s="78"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A53" s="78"/>
+      <c r="B53" s="78"/>
+      <c r="C53" s="78"/>
+      <c r="D53" s="78"/>
+      <c r="E53" s="78"/>
+      <c r="F53" s="78"/>
+      <c r="G53" s="78"/>
+    </row>
+    <row r="54" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A55" s="95" t="s">
         <v>109</v>
       </c>
-      <c r="B55" s="104"/>
-      <c r="C55" s="104"/>
-      <c r="D55" s="104"/>
-      <c r="E55" s="104"/>
-      <c r="F55" s="104"/>
-      <c r="G55" s="105"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A56" s="106" t="s">
+      <c r="B55" s="96"/>
+      <c r="C55" s="96"/>
+      <c r="D55" s="96"/>
+      <c r="E55" s="96"/>
+      <c r="F55" s="96"/>
+      <c r="G55" s="97"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A56" s="98" t="s">
         <v>110</v>
       </c>
-      <c r="B56" s="78"/>
-      <c r="C56" s="78"/>
-      <c r="D56" s="78"/>
-      <c r="E56" s="78"/>
-      <c r="F56" s="78"/>
-      <c r="G56" s="116"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A57" s="106" t="s">
+      <c r="B56" s="92"/>
+      <c r="C56" s="92"/>
+      <c r="D56" s="92"/>
+      <c r="E56" s="92"/>
+      <c r="F56" s="92"/>
+      <c r="G56" s="99"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A57" s="98" t="s">
         <v>111</v>
       </c>
-      <c r="B57" s="78"/>
-      <c r="C57" s="78"/>
-      <c r="D57" s="78"/>
-      <c r="E57" s="78"/>
-      <c r="F57" s="78"/>
-      <c r="G57" s="116"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A58" s="106" t="s">
+      <c r="B57" s="92"/>
+      <c r="C57" s="92"/>
+      <c r="D57" s="92"/>
+      <c r="E57" s="92"/>
+      <c r="F57" s="92"/>
+      <c r="G57" s="99"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A58" s="98" t="s">
         <v>112</v>
       </c>
-      <c r="B58" s="78"/>
-      <c r="C58" s="78"/>
-      <c r="D58" s="78"/>
-      <c r="E58" s="78"/>
-      <c r="F58" s="78"/>
-      <c r="G58" s="116"/>
-    </row>
-    <row r="59" spans="1:7" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A59" s="112" t="s">
+      <c r="B58" s="92"/>
+      <c r="C58" s="92"/>
+      <c r="D58" s="92"/>
+      <c r="E58" s="92"/>
+      <c r="F58" s="92"/>
+      <c r="G58" s="99"/>
+    </row>
+    <row r="59" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A59" s="100" t="s">
         <v>113</v>
       </c>
-      <c r="B59" s="113"/>
-      <c r="C59" s="113"/>
-      <c r="D59" s="113"/>
-      <c r="E59" s="113"/>
-      <c r="F59" s="113"/>
-      <c r="G59" s="117"/>
+      <c r="B59" s="101"/>
+      <c r="C59" s="101"/>
+      <c r="D59" s="101"/>
+      <c r="E59" s="101"/>
+      <c r="F59" s="101"/>
+      <c r="G59" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="A55:G55"/>
-    <mergeCell ref="A56:G56"/>
-    <mergeCell ref="A57:G57"/>
-    <mergeCell ref="A58:G58"/>
-    <mergeCell ref="A59:G59"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="C44:G44"/>
     <mergeCell ref="A23:B23"/>
@@ -8563,30 +8701,29 @@
     <mergeCell ref="A37:B39"/>
     <mergeCell ref="C37:G39"/>
     <mergeCell ref="A43:G43"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="A55:G55"/>
+    <mergeCell ref="A56:G56"/>
+    <mergeCell ref="A57:G57"/>
+    <mergeCell ref="A58:G58"/>
+    <mergeCell ref="A59:G59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8601,16 +8738,16 @@
       <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-    </row>
-    <row r="17" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="18" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+    </row>
+    <row r="17" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="18" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" s="118" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C18" s="119"/>
       <c r="D18" s="119"/>
@@ -8621,13 +8758,13 @@
       <c r="I18" s="119"/>
       <c r="J18" s="120"/>
     </row>
-    <row r="19" spans="2:10" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:10" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B19" s="125" t="s">
-        <v>257</v>
-      </c>
-      <c r="C19" s="80"/>
+        <v>252</v>
+      </c>
+      <c r="C19" s="94"/>
       <c r="D19" s="130" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E19" s="130"/>
       <c r="F19" s="130"/>
@@ -8636,40 +8773,40 @@
       <c r="I19" s="130"/>
       <c r="J19" s="131"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B20" s="126" t="s">
+        <v>253</v>
+      </c>
+      <c r="C20" s="127"/>
+      <c r="D20" s="92" t="s">
+        <v>256</v>
+      </c>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="92"/>
+      <c r="I20" s="92"/>
+      <c r="J20" s="99"/>
+    </row>
+    <row r="21" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="128" t="s">
+        <v>254</v>
+      </c>
+      <c r="C21" s="129"/>
+      <c r="D21" s="101" t="s">
+        <v>257</v>
+      </c>
+      <c r="E21" s="101"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="101"/>
+      <c r="H21" s="101"/>
+      <c r="I21" s="101"/>
+      <c r="J21" s="102"/>
+    </row>
+    <row r="39" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="40" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="118" t="s">
         <v>258</v>
-      </c>
-      <c r="C20" s="127"/>
-      <c r="D20" s="78" t="s">
-        <v>261</v>
-      </c>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="116"/>
-    </row>
-    <row r="21" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B21" s="128" t="s">
-        <v>259</v>
-      </c>
-      <c r="C21" s="129"/>
-      <c r="D21" s="113" t="s">
-        <v>262</v>
-      </c>
-      <c r="E21" s="113"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="117"/>
-    </row>
-    <row r="39" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="40" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B40" s="118" t="s">
-        <v>263</v>
       </c>
       <c r="C40" s="119"/>
       <c r="D40" s="119"/>
@@ -8680,13 +8817,13 @@
       <c r="I40" s="119"/>
       <c r="J40" s="120"/>
     </row>
-    <row r="41" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:10" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B41" s="121" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C41" s="122"/>
       <c r="D41" s="123" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E41" s="123"/>
       <c r="F41" s="123"/>
@@ -8716,97 +8853,97 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C138E6A2-E98E-49D8-A28E-55F40F154BA0}">
-  <dimension ref="B19:O82"/>
+  <dimension ref="B19:O85"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M69" sqref="M69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="6" max="6" width="8.6640625" customWidth="1"/>
-    <col min="15" max="15" width="9.58203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.69921875" customWidth="1"/>
+    <col min="15" max="15" width="9.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B19" s="29"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B23" s="151" t="s">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B23" s="132" t="s">
         <v>146</v>
       </c>
-      <c r="C23" s="151"/>
-      <c r="D23" s="151"/>
-      <c r="E23" s="151"/>
-      <c r="F23" s="151"/>
-      <c r="G23" s="151"/>
-      <c r="H23" s="151"/>
-      <c r="I23" s="151"/>
-      <c r="J23" s="151"/>
-      <c r="K23" s="151"/>
-      <c r="L23" s="151"/>
-      <c r="M23" s="151"/>
-      <c r="N23" s="151"/>
-    </row>
-    <row r="24" spans="2:14" ht="150.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="132" t="s">
+      <c r="C23" s="132"/>
+      <c r="D23" s="132"/>
+      <c r="E23" s="132"/>
+      <c r="F23" s="132"/>
+      <c r="G23" s="132"/>
+      <c r="H23" s="132"/>
+      <c r="I23" s="132"/>
+      <c r="J23" s="132"/>
+      <c r="K23" s="132"/>
+      <c r="L23" s="132"/>
+      <c r="M23" s="132"/>
+      <c r="N23" s="132"/>
+    </row>
+    <row r="24" spans="2:14" ht="150.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="137" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="133"/>
-      <c r="D24" s="142" t="s">
-        <v>181</v>
-      </c>
-      <c r="E24" s="143"/>
-      <c r="F24" s="143"/>
-      <c r="G24" s="143"/>
-      <c r="H24" s="143"/>
-      <c r="I24" s="143"/>
-      <c r="J24" s="143"/>
-      <c r="K24" s="143"/>
-      <c r="L24" s="143"/>
-      <c r="M24" s="144"/>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B25" s="136"/>
-      <c r="C25" s="137"/>
-      <c r="D25" s="107" t="s">
+      <c r="C24" s="138"/>
+      <c r="D24" s="143" t="s">
+        <v>270</v>
+      </c>
+      <c r="E24" s="144"/>
+      <c r="F24" s="144"/>
+      <c r="G24" s="144"/>
+      <c r="H24" s="144"/>
+      <c r="I24" s="144"/>
+      <c r="J24" s="144"/>
+      <c r="K24" s="144"/>
+      <c r="L24" s="144"/>
+      <c r="M24" s="145"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B25" s="139"/>
+      <c r="C25" s="140"/>
+      <c r="D25" s="105" t="s">
         <v>144</v>
       </c>
-      <c r="E25" s="145"/>
-      <c r="F25" s="152" t="s">
+      <c r="E25" s="133"/>
+      <c r="F25" s="135" t="s">
         <v>135</v>
       </c>
-      <c r="G25" s="153"/>
-      <c r="H25" s="152" t="s">
+      <c r="G25" s="136"/>
+      <c r="H25" s="135" t="s">
         <v>143</v>
       </c>
-      <c r="I25" s="153"/>
+      <c r="I25" s="136"/>
       <c r="J25" s="19"/>
       <c r="K25" s="19"/>
       <c r="L25" s="19"/>
       <c r="M25" s="19"/>
     </row>
-    <row r="26" spans="2:14" ht="21.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="136"/>
-      <c r="C26" s="137"/>
-      <c r="D26" s="94"/>
-      <c r="E26" s="146"/>
-      <c r="F26" s="152">
+    <row r="26" spans="2:14" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="139"/>
+      <c r="C26" s="140"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="134"/>
+      <c r="F26" s="135">
         <v>20</v>
       </c>
-      <c r="G26" s="153"/>
-      <c r="H26" s="152" t="s">
+      <c r="G26" s="136"/>
+      <c r="H26" s="135" t="s">
         <v>140</v>
       </c>
-      <c r="I26" s="153"/>
+      <c r="I26" s="136"/>
       <c r="J26" s="19"/>
       <c r="K26" s="19"/>
       <c r="L26" s="19"/>
       <c r="M26" s="19"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B27" s="136"/>
-      <c r="C27" s="137"/>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B27" s="139"/>
+      <c r="C27" s="140"/>
       <c r="D27" s="19"/>
       <c r="E27" s="19" t="s">
         <v>136</v>
@@ -8828,9 +8965,9 @@
       <c r="L27" s="19"/>
       <c r="M27" s="19"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B28" s="136"/>
-      <c r="C28" s="137"/>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B28" s="139"/>
+      <c r="C28" s="140"/>
       <c r="D28" s="19" t="s">
         <v>142</v>
       </c>
@@ -8854,321 +8991,358 @@
       <c r="L28" s="19"/>
       <c r="M28" s="19"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B29" s="136"/>
-      <c r="C29" s="137"/>
-      <c r="D29" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="E29" s="152" t="s">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B29" s="139"/>
+      <c r="C29" s="140"/>
+      <c r="D29" s="189" t="s">
+        <v>177</v>
+      </c>
+      <c r="E29" t="s">
+        <v>271</v>
+      </c>
+      <c r="F29" s="212" t="s">
         <v>169</v>
       </c>
-      <c r="F29" s="153"/>
       <c r="G29" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="H29" s="152">
+      <c r="H29" s="135">
         <v>20</v>
       </c>
-      <c r="I29" s="153"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
+      <c r="I29" s="136"/>
+      <c r="J29" s="135" t="s">
+        <v>269</v>
+      </c>
+      <c r="K29" s="136"/>
+      <c r="L29" s="19">
+        <v>-0.5</v>
+      </c>
       <c r="M29" s="19"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B30" s="134"/>
-      <c r="C30" s="135"/>
-      <c r="D30" s="19" t="s">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B30" s="139"/>
+      <c r="C30" s="140"/>
+      <c r="D30" s="130"/>
+      <c r="E30" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="F30" s="66" t="s">
+        <v>169</v>
+      </c>
+      <c r="G30" s="213" t="s">
+        <v>273</v>
+      </c>
+      <c r="H30" s="34">
+        <v>1</v>
+      </c>
+      <c r="I30" s="206"/>
+      <c r="J30" s="206"/>
+      <c r="K30" s="206"/>
+      <c r="L30" s="207"/>
+      <c r="M30" s="211"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B31" s="141"/>
+      <c r="C31" s="142"/>
+      <c r="D31" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="E30" s="19"/>
-      <c r="F30" s="148" t="s">
-        <v>180</v>
-      </c>
-      <c r="G30" s="149"/>
-      <c r="H30" s="149"/>
-      <c r="I30" s="149"/>
-      <c r="J30" s="149"/>
-      <c r="K30" s="149"/>
-      <c r="L30" s="149"/>
-      <c r="M30" s="150"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="E31" s="19"/>
+      <c r="F31" s="146" t="s">
+        <v>178</v>
+      </c>
+      <c r="G31" s="147"/>
+      <c r="H31" s="147"/>
+      <c r="I31" s="147"/>
+      <c r="J31" s="147"/>
+      <c r="K31" s="147"/>
+      <c r="L31" s="147"/>
+      <c r="M31" s="148"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B32" s="45"/>
       <c r="C32" s="45"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B33" s="45"/>
       <c r="C33" s="45"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B35" s="48" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B66" s="71" t="s">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B36" s="48" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B67" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="C66" s="71"/>
-      <c r="D66" s="77" t="s">
-        <v>173</v>
-      </c>
-      <c r="E66" s="77"/>
-      <c r="F66" s="77"/>
-      <c r="G66" s="77"/>
-      <c r="H66" s="77"/>
-      <c r="I66" s="77"/>
-      <c r="J66" s="77"/>
-      <c r="K66" s="77"/>
-      <c r="L66" s="77"/>
-      <c r="M66" s="77"/>
-      <c r="N66" s="77"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B67" s="71"/>
-      <c r="C67" s="71"/>
-      <c r="D67" s="78" t="s">
-        <v>206</v>
-      </c>
-      <c r="E67" s="78"/>
-      <c r="F67" s="78"/>
-      <c r="G67" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="H67" s="19">
+      <c r="C67" s="138"/>
+      <c r="D67" s="91" t="s">
+        <v>171</v>
+      </c>
+      <c r="E67" s="91"/>
+      <c r="F67" s="91"/>
+      <c r="G67" s="91"/>
+      <c r="H67" s="91"/>
+      <c r="I67" s="91"/>
+      <c r="J67" s="91"/>
+      <c r="K67" s="91"/>
+      <c r="L67" s="91"/>
+      <c r="M67" s="91"/>
+      <c r="N67" s="91"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B68" s="139"/>
+      <c r="C68" s="140"/>
+      <c r="D68" s="189" t="s">
+        <v>274</v>
+      </c>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="G68" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="H68" s="92" t="s">
+        <v>275</v>
+      </c>
+      <c r="I68" s="92"/>
+      <c r="J68" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="K68" s="135" t="s">
+        <v>280</v>
+      </c>
+      <c r="L68" s="136"/>
+      <c r="M68" s="217"/>
+      <c r="N68" s="2"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B69" s="139"/>
+      <c r="C69" s="140"/>
+      <c r="D69" s="214"/>
+      <c r="E69" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="F69" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="G69" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B68" s="71"/>
-      <c r="C68" s="71"/>
-      <c r="D68" s="78"/>
-      <c r="E68" s="78"/>
-      <c r="F68" s="78"/>
-      <c r="G68" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="H68" s="19">
+      <c r="H69" s="215" t="s">
+        <v>282</v>
+      </c>
+      <c r="I69" s="216"/>
+      <c r="J69" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="K69" s="135" t="s">
+        <v>284</v>
+      </c>
+      <c r="L69" s="136"/>
+      <c r="M69" s="217"/>
+      <c r="N69" s="2"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B70" s="139"/>
+      <c r="C70" s="140"/>
+      <c r="D70" s="130"/>
+      <c r="E70" s="46" t="s">
+        <v>202</v>
+      </c>
+      <c r="F70" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="G70" s="46">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="147" t="s">
+      <c r="H70" s="92" t="s">
+        <v>281</v>
+      </c>
+      <c r="I70" s="92"/>
+      <c r="J70" s="46" t="s">
+        <v>279</v>
+      </c>
+      <c r="K70" s="105" t="s">
+        <v>284</v>
+      </c>
+      <c r="L70" s="133"/>
+      <c r="M70" s="217"/>
+      <c r="N70" s="2"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B71" s="141"/>
+      <c r="C71" s="142"/>
+      <c r="D71" s="44" t="s">
+        <v>283</v>
+      </c>
+      <c r="E71" s="46" t="s">
+        <v>284</v>
+      </c>
+      <c r="F71" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="G71" s="46" t="s">
+        <v>288</v>
+      </c>
+      <c r="H71" s="34" t="s">
+        <v>286</v>
+      </c>
+      <c r="I71" s="34" t="s">
+        <v>287</v>
+      </c>
+      <c r="J71" s="219" t="s">
+        <v>289</v>
+      </c>
+      <c r="K71" s="220"/>
+      <c r="L71" s="220"/>
+      <c r="M71" s="220"/>
+      <c r="N71" s="221"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B72" s="137" t="s">
+        <v>179</v>
+      </c>
+      <c r="C72" s="138"/>
+      <c r="D72" s="92" t="s">
+        <v>267</v>
+      </c>
+      <c r="E72" s="92"/>
+      <c r="F72" s="92"/>
+      <c r="G72" s="92"/>
+      <c r="H72" s="92" t="s">
+        <v>268</v>
+      </c>
+      <c r="I72" s="92"/>
+      <c r="J72" s="130"/>
+      <c r="K72" s="130"/>
+      <c r="L72" s="218"/>
+      <c r="M72" s="209"/>
+      <c r="N72" s="210"/>
+    </row>
+    <row r="73" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B73" s="141"/>
+      <c r="C73" s="142"/>
+      <c r="D73" s="146" t="s">
+        <v>170</v>
+      </c>
+      <c r="E73" s="147"/>
+      <c r="F73" s="147"/>
+      <c r="G73" s="147"/>
+      <c r="H73" s="147"/>
+      <c r="I73" s="147"/>
+      <c r="J73" s="147"/>
+      <c r="K73" s="147"/>
+      <c r="L73" s="208"/>
+      <c r="M73" s="147"/>
+      <c r="N73" s="148"/>
+    </row>
+    <row r="74" spans="2:14" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B74" s="137" t="s">
+        <v>194</v>
+      </c>
+      <c r="C74" s="138"/>
+      <c r="D74" s="143" t="s">
+        <v>186</v>
+      </c>
+      <c r="E74" s="144"/>
+      <c r="F74" s="144"/>
+      <c r="G74" s="144"/>
+      <c r="H74" s="144"/>
+      <c r="I74" s="144"/>
+      <c r="J74" s="144"/>
+      <c r="K74" s="144"/>
+      <c r="L74" s="144"/>
+      <c r="M74" s="144"/>
+      <c r="N74" s="145"/>
+    </row>
+    <row r="75" spans="2:14" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B75" s="139"/>
+      <c r="C75" s="140"/>
+      <c r="D75" s="149" t="s">
+        <v>180</v>
+      </c>
+      <c r="E75" s="150"/>
+      <c r="F75" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="G75" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="H75" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="I75" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="J75" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="K75" s="19"/>
+      <c r="L75" s="19"/>
+      <c r="M75" s="19"/>
+      <c r="N75" s="19"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B76" s="141"/>
+      <c r="C76" s="142"/>
+      <c r="D76" s="151"/>
+      <c r="E76" s="152"/>
+      <c r="F76" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="G76" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="C69" s="56" t="s">
-        <v>170</v>
-      </c>
-      <c r="D69" s="148" t="s">
-        <v>254</v>
-      </c>
-      <c r="E69" s="149"/>
-      <c r="F69" s="149"/>
-      <c r="G69" s="149"/>
-      <c r="H69" s="149"/>
-      <c r="I69" s="149"/>
-      <c r="J69" s="149"/>
-      <c r="K69" s="149"/>
-      <c r="L69" s="149"/>
-      <c r="M69" s="149"/>
-      <c r="N69" s="150"/>
-    </row>
-    <row r="70" spans="2:15" ht="16.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="147"/>
-      <c r="C70" s="56" t="s">
-        <v>171</v>
-      </c>
-      <c r="D70" s="148" t="s">
-        <v>172</v>
-      </c>
-      <c r="E70" s="149"/>
-      <c r="F70" s="149"/>
-      <c r="G70" s="149"/>
-      <c r="H70" s="149"/>
-      <c r="I70" s="149"/>
-      <c r="J70" s="149"/>
-      <c r="K70" s="149"/>
-      <c r="L70" s="149"/>
-      <c r="M70" s="149"/>
-      <c r="N70" s="150"/>
-    </row>
-    <row r="71" spans="2:15" ht="34.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="132" t="s">
-        <v>197</v>
-      </c>
-      <c r="C71" s="133"/>
-      <c r="D71" s="142" t="s">
-        <v>189</v>
-      </c>
-      <c r="E71" s="143"/>
-      <c r="F71" s="143"/>
-      <c r="G71" s="143"/>
-      <c r="H71" s="143"/>
-      <c r="I71" s="143"/>
-      <c r="J71" s="143"/>
-      <c r="K71" s="143"/>
-      <c r="L71" s="143"/>
-      <c r="M71" s="143"/>
-      <c r="N71" s="144"/>
-    </row>
-    <row r="72" spans="2:15" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="136"/>
-      <c r="C72" s="137"/>
-      <c r="D72" s="138" t="s">
+      <c r="H76" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="E72" s="139"/>
-      <c r="F72" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="G72" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="H72" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="I72" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="J72" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="K72" s="19"/>
-      <c r="L72" s="19"/>
-      <c r="M72" s="19"/>
-      <c r="N72" s="19"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B73" s="134"/>
-      <c r="C73" s="135"/>
-      <c r="D73" s="140"/>
-      <c r="E73" s="141"/>
-      <c r="F73" s="19" t="s">
+      <c r="I76" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="G73" s="19" t="s">
+      <c r="J76" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="H73" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="I73" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="J73" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="K73" s="19"/>
-      <c r="L73" s="19"/>
-      <c r="M73" s="19"/>
-      <c r="N73" s="19"/>
-    </row>
-    <row r="74" spans="2:15" ht="52.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="132" t="s">
-        <v>198</v>
-      </c>
-      <c r="C74" s="133"/>
-      <c r="D74" s="142" t="s">
-        <v>190</v>
-      </c>
-      <c r="E74" s="143"/>
-      <c r="F74" s="143"/>
-      <c r="G74" s="143"/>
-      <c r="H74" s="143"/>
-      <c r="I74" s="143"/>
-      <c r="J74" s="143"/>
-      <c r="K74" s="143"/>
-      <c r="L74" s="143"/>
-      <c r="M74" s="143"/>
-      <c r="N74" s="144"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B75" s="136"/>
-      <c r="C75" s="137"/>
-      <c r="D75" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="E75" s="19"/>
-      <c r="F75" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="G75" s="36"/>
-      <c r="H75" s="36"/>
-      <c r="I75" s="36"/>
-      <c r="J75" s="36"/>
-      <c r="K75" s="36"/>
-      <c r="L75" s="36"/>
-      <c r="M75" s="36"/>
-      <c r="N75" s="37"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B76" s="136"/>
-      <c r="C76" s="137"/>
-      <c r="D76" s="107" t="s">
-        <v>192</v>
-      </c>
-      <c r="E76" s="108"/>
-      <c r="F76" s="145"/>
-      <c r="G76" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="H76" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="I76" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="J76" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="K76" s="19" t="s">
-        <v>140</v>
-      </c>
+      <c r="K76" s="19"/>
       <c r="L76" s="19"/>
       <c r="M76" s="19"/>
       <c r="N76" s="19"/>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B77" s="136"/>
-      <c r="C77" s="137"/>
-      <c r="D77" s="94"/>
-      <c r="E77" s="81"/>
-      <c r="F77" s="146"/>
-      <c r="G77" s="46">
-        <v>0</v>
-      </c>
-      <c r="H77" s="46">
-        <v>0.2</v>
-      </c>
-      <c r="I77" s="46">
-        <v>0.4</v>
-      </c>
-      <c r="J77" s="46">
-        <v>0.7</v>
-      </c>
-      <c r="K77" s="46">
-        <v>1</v>
-      </c>
-      <c r="L77" s="19"/>
-      <c r="M77" s="19"/>
-      <c r="N77" s="19"/>
-    </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B78" s="134"/>
-      <c r="C78" s="135"/>
+    <row r="77" spans="2:14" ht="52.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B77" s="137" t="s">
+        <v>195</v>
+      </c>
+      <c r="C77" s="138"/>
+      <c r="D77" s="143" t="s">
+        <v>187</v>
+      </c>
+      <c r="E77" s="144"/>
+      <c r="F77" s="144"/>
+      <c r="G77" s="144"/>
+      <c r="H77" s="144"/>
+      <c r="I77" s="144"/>
+      <c r="J77" s="144"/>
+      <c r="K77" s="144"/>
+      <c r="L77" s="144"/>
+      <c r="M77" s="144"/>
+      <c r="N77" s="145"/>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B78" s="139"/>
+      <c r="C78" s="140"/>
       <c r="D78" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="E78" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="F78" s="36"/>
+        <v>188</v>
+      </c>
+      <c r="E78" s="19"/>
+      <c r="F78" s="35" t="s">
+        <v>192</v>
+      </c>
       <c r="G78" s="36"/>
       <c r="H78" s="36"/>
       <c r="I78" s="36"/>
@@ -9178,54 +9352,67 @@
       <c r="M78" s="36"/>
       <c r="N78" s="37"/>
     </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B79" s="132" t="s">
-        <v>199</v>
-      </c>
-      <c r="C79" s="133"/>
-      <c r="D79" s="35" t="s">
-        <v>193</v>
-      </c>
-      <c r="E79" s="36"/>
-      <c r="F79" s="36"/>
-      <c r="G79" s="36"/>
-      <c r="H79" s="36"/>
-      <c r="I79" s="36"/>
-      <c r="J79" s="36"/>
-      <c r="K79" s="36"/>
-      <c r="L79" s="36"/>
-      <c r="M79" s="36"/>
-      <c r="N79" s="37"/>
-    </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B80" s="134"/>
-      <c r="C80" s="135"/>
-      <c r="D80" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="E80" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="F80" s="36"/>
-      <c r="G80" s="36"/>
-      <c r="H80" s="36"/>
-      <c r="I80" s="36"/>
-      <c r="J80" s="36"/>
-      <c r="K80" s="36"/>
-      <c r="L80" s="36"/>
-      <c r="M80" s="36"/>
-      <c r="N80" s="37"/>
-      <c r="O80" s="31"/>
-    </row>
-    <row r="81" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B81" s="132" t="s">
-        <v>200</v>
-      </c>
-      <c r="C81" s="133"/>
-      <c r="D81" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="E81" s="36"/>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B79" s="139"/>
+      <c r="C79" s="140"/>
+      <c r="D79" s="105" t="s">
+        <v>189</v>
+      </c>
+      <c r="E79" s="106"/>
+      <c r="F79" s="133"/>
+      <c r="G79" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="H79" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="I79" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="J79" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="K79" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="L79" s="19"/>
+      <c r="M79" s="19"/>
+      <c r="N79" s="19"/>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B80" s="139"/>
+      <c r="C80" s="140"/>
+      <c r="D80" s="79"/>
+      <c r="E80" s="80"/>
+      <c r="F80" s="134"/>
+      <c r="G80" s="46">
+        <v>0</v>
+      </c>
+      <c r="H80" s="46">
+        <v>0.2</v>
+      </c>
+      <c r="I80" s="46">
+        <v>0.4</v>
+      </c>
+      <c r="J80" s="46">
+        <v>0.7</v>
+      </c>
+      <c r="K80" s="46">
+        <v>1</v>
+      </c>
+      <c r="L80" s="19"/>
+      <c r="M80" s="19"/>
+      <c r="N80" s="19"/>
+    </row>
+    <row r="81" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B81" s="141"/>
+      <c r="C81" s="142"/>
+      <c r="D81" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="E81" s="35" t="s">
+        <v>163</v>
+      </c>
       <c r="F81" s="36"/>
       <c r="G81" s="36"/>
       <c r="H81" s="36"/>
@@ -9235,17 +9422,16 @@
       <c r="L81" s="36"/>
       <c r="M81" s="36"/>
       <c r="N81" s="37"/>
-      <c r="O81" s="31"/>
-    </row>
-    <row r="82" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B82" s="134"/>
-      <c r="C82" s="135"/>
-      <c r="D82" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="E82" s="35" t="s">
-        <v>194</v>
-      </c>
+    </row>
+    <row r="82" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B82" s="137" t="s">
+        <v>196</v>
+      </c>
+      <c r="C82" s="138"/>
+      <c r="D82" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="E82" s="36"/>
       <c r="F82" s="36"/>
       <c r="G82" s="36"/>
       <c r="H82" s="36"/>
@@ -9256,33 +9442,101 @@
       <c r="M82" s="36"/>
       <c r="N82" s="37"/>
     </row>
+    <row r="83" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B83" s="141"/>
+      <c r="C83" s="142"/>
+      <c r="D83" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E83" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="F83" s="36"/>
+      <c r="G83" s="36"/>
+      <c r="H83" s="36"/>
+      <c r="I83" s="36"/>
+      <c r="J83" s="36"/>
+      <c r="K83" s="36"/>
+      <c r="L83" s="36"/>
+      <c r="M83" s="36"/>
+      <c r="N83" s="37"/>
+      <c r="O83" s="31"/>
+    </row>
+    <row r="84" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B84" s="137" t="s">
+        <v>197</v>
+      </c>
+      <c r="C84" s="138"/>
+      <c r="D84" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="E84" s="36"/>
+      <c r="F84" s="36"/>
+      <c r="G84" s="36"/>
+      <c r="H84" s="36"/>
+      <c r="I84" s="36"/>
+      <c r="J84" s="36"/>
+      <c r="K84" s="36"/>
+      <c r="L84" s="36"/>
+      <c r="M84" s="36"/>
+      <c r="N84" s="37"/>
+      <c r="O84" s="31"/>
+    </row>
+    <row r="85" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B85" s="141"/>
+      <c r="C85" s="142"/>
+      <c r="D85" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E85" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="F85" s="36"/>
+      <c r="G85" s="36"/>
+      <c r="H85" s="36"/>
+      <c r="I85" s="36"/>
+      <c r="J85" s="36"/>
+      <c r="K85" s="36"/>
+      <c r="L85" s="36"/>
+      <c r="M85" s="36"/>
+      <c r="N85" s="37"/>
+    </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="34">
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="B67:C71"/>
+    <mergeCell ref="J71:N71"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="B72:C73"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="B84:C85"/>
+    <mergeCell ref="B82:C83"/>
+    <mergeCell ref="B74:C76"/>
+    <mergeCell ref="D75:E76"/>
+    <mergeCell ref="D77:N77"/>
+    <mergeCell ref="D79:F80"/>
+    <mergeCell ref="B77:C81"/>
+    <mergeCell ref="D74:N74"/>
+    <mergeCell ref="D73:N73"/>
+    <mergeCell ref="D72:G72"/>
     <mergeCell ref="B23:N23"/>
-    <mergeCell ref="D66:N66"/>
+    <mergeCell ref="D67:N67"/>
     <mergeCell ref="D25:E26"/>
-    <mergeCell ref="E29:F29"/>
     <mergeCell ref="H29:I29"/>
-    <mergeCell ref="B24:C30"/>
+    <mergeCell ref="B24:C31"/>
     <mergeCell ref="D24:M24"/>
-    <mergeCell ref="F30:M30"/>
+    <mergeCell ref="F31:M31"/>
     <mergeCell ref="F25:G25"/>
     <mergeCell ref="F26:G26"/>
     <mergeCell ref="H25:I25"/>
     <mergeCell ref="H26:I26"/>
-    <mergeCell ref="B81:C82"/>
-    <mergeCell ref="B66:C68"/>
-    <mergeCell ref="D67:F68"/>
-    <mergeCell ref="B79:C80"/>
-    <mergeCell ref="B71:C73"/>
-    <mergeCell ref="D72:E73"/>
-    <mergeCell ref="D74:N74"/>
-    <mergeCell ref="D76:F77"/>
-    <mergeCell ref="B74:C78"/>
-    <mergeCell ref="D71:N71"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="D69:N69"/>
-    <mergeCell ref="D70:N70"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9294,14 +9548,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB61364C-7092-4374-B974-5D8E093825D9}">
   <dimension ref="B15:L43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="15" spans="2:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="16" spans="2:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="16" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="118" t="s">
         <v>38</v>
       </c>
@@ -9316,113 +9570,113 @@
       <c r="K16" s="119"/>
       <c r="L16" s="120"/>
     </row>
-    <row r="17" spans="2:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:12" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="21" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="15"/>
-      <c r="D17" s="176" t="s">
+      <c r="D17" s="157" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="176"/>
-      <c r="F17" s="176"/>
-      <c r="G17" s="176"/>
-      <c r="H17" s="176"/>
-      <c r="I17" s="176"/>
-      <c r="J17" s="176"/>
-      <c r="K17" s="176"/>
-      <c r="L17" s="177"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="E17" s="157"/>
+      <c r="F17" s="157"/>
+      <c r="G17" s="157"/>
+      <c r="H17" s="157"/>
+      <c r="I17" s="157"/>
+      <c r="J17" s="157"/>
+      <c r="K17" s="157"/>
+      <c r="L17" s="158"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B18" s="20" t="s">
         <v>40</v>
       </c>
       <c r="C18" s="19"/>
-      <c r="D18" s="77" t="s">
+      <c r="D18" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="77"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="77"/>
-      <c r="K18" s="77"/>
-      <c r="L18" s="178"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="E18" s="91"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="91"/>
+      <c r="I18" s="91"/>
+      <c r="J18" s="91"/>
+      <c r="K18" s="91"/>
+      <c r="L18" s="159"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B19" s="20" t="s">
         <v>42</v>
       </c>
       <c r="C19" s="19"/>
-      <c r="D19" s="77" t="s">
+      <c r="D19" s="91" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="178"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B20" s="172" t="s">
+      <c r="E19" s="91"/>
+      <c r="F19" s="91"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="91"/>
+      <c r="I19" s="91"/>
+      <c r="J19" s="91"/>
+      <c r="K19" s="91"/>
+      <c r="L19" s="159"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B20" s="153" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="173"/>
-      <c r="D20" s="77" t="s">
+      <c r="C20" s="154"/>
+      <c r="D20" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="178"/>
-    </row>
-    <row r="21" spans="2:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B21" s="174"/>
-      <c r="C21" s="175"/>
-      <c r="D21" s="179" t="s">
+      <c r="E20" s="91"/>
+      <c r="F20" s="91"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="91"/>
+      <c r="J20" s="91"/>
+      <c r="K20" s="91"/>
+      <c r="L20" s="159"/>
+    </row>
+    <row r="21" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="155"/>
+      <c r="C21" s="156"/>
+      <c r="D21" s="160" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="179"/>
-      <c r="F21" s="179"/>
-      <c r="G21" s="179"/>
-      <c r="H21" s="179"/>
-      <c r="I21" s="179"/>
-      <c r="J21" s="179"/>
-      <c r="K21" s="179"/>
-      <c r="L21" s="180"/>
-    </row>
-    <row r="22" spans="2:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="23" spans="2:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B23" s="154" t="s">
+      <c r="E21" s="160"/>
+      <c r="F21" s="160"/>
+      <c r="G21" s="160"/>
+      <c r="H21" s="160"/>
+      <c r="I21" s="160"/>
+      <c r="J21" s="160"/>
+      <c r="K21" s="160"/>
+      <c r="L21" s="161"/>
+    </row>
+    <row r="22" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="23" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="162" t="s">
         <v>114</v>
       </c>
-      <c r="C23" s="162"/>
-      <c r="D23" s="169" t="s">
-        <v>236</v>
-      </c>
-      <c r="E23" s="170"/>
-      <c r="F23" s="170"/>
-      <c r="G23" s="170"/>
-      <c r="H23" s="170"/>
-      <c r="I23" s="170"/>
-      <c r="J23" s="171"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B24" s="160"/>
-      <c r="C24" s="167"/>
-      <c r="D24" s="154" t="s">
+      <c r="C23" s="163"/>
+      <c r="D23" s="168" t="s">
+        <v>232</v>
+      </c>
+      <c r="E23" s="169"/>
+      <c r="F23" s="169"/>
+      <c r="G23" s="169"/>
+      <c r="H23" s="169"/>
+      <c r="I23" s="169"/>
+      <c r="J23" s="170"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B24" s="164"/>
+      <c r="C24" s="165"/>
+      <c r="D24" s="162" t="s">
         <v>120</v>
       </c>
-      <c r="E24" s="162"/>
-      <c r="F24" s="61" t="s">
+      <c r="E24" s="163"/>
+      <c r="F24" s="60" t="s">
         <v>115</v>
       </c>
       <c r="G24" s="44" t="s">
@@ -9438,11 +9692,11 @@
         <v>119</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B25" s="156"/>
-      <c r="C25" s="168"/>
-      <c r="D25" s="156"/>
-      <c r="E25" s="168"/>
+    <row r="25" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="166"/>
+      <c r="C25" s="167"/>
+      <c r="D25" s="166"/>
+      <c r="E25" s="167"/>
       <c r="F25" s="39">
         <v>1</v>
       </c>
@@ -9459,80 +9713,80 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B26" s="82" t="s">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B26" s="67" t="s">
+        <v>233</v>
+      </c>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="69"/>
+    </row>
+    <row r="27" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="70" t="s">
+        <v>234</v>
+      </c>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="71"/>
+      <c r="J27" s="72"/>
+    </row>
+    <row r="28" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="29" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="162" t="s">
+        <v>235</v>
+      </c>
+      <c r="C29" s="171"/>
+      <c r="D29" s="172" t="s">
+        <v>236</v>
+      </c>
+      <c r="E29" s="173"/>
+      <c r="F29" s="168">
+        <v>2</v>
+      </c>
+      <c r="G29" s="169"/>
+      <c r="H29" s="169"/>
+      <c r="I29" s="169"/>
+      <c r="J29" s="170"/>
+    </row>
+    <row r="30" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="164"/>
+      <c r="C30" s="165"/>
+      <c r="D30" s="166" t="s">
         <v>237</v>
       </c>
-      <c r="C26" s="83"/>
-      <c r="D26" s="83"/>
-      <c r="E26" s="83"/>
-      <c r="F26" s="83"/>
-      <c r="G26" s="83"/>
-      <c r="H26" s="83"/>
-      <c r="I26" s="83"/>
-      <c r="J26" s="84"/>
-    </row>
-    <row r="27" spans="2:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B27" s="85" t="s">
+      <c r="E30" s="167"/>
+      <c r="F30" s="61" t="s">
+        <v>115</v>
+      </c>
+      <c r="G30" s="62" t="s">
+        <v>116</v>
+      </c>
+      <c r="H30" s="62" t="s">
+        <v>117</v>
+      </c>
+      <c r="I30" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="J30" s="63" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="166"/>
+      <c r="C31" s="167"/>
+      <c r="D31" s="166" t="s">
         <v>238</v>
       </c>
-      <c r="C27" s="86"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="86"/>
-      <c r="I27" s="86"/>
-      <c r="J27" s="87"/>
-    </row>
-    <row r="28" spans="2:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="29" spans="2:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B29" s="154" t="s">
-        <v>239</v>
-      </c>
-      <c r="C29" s="155"/>
-      <c r="D29" s="158" t="s">
-        <v>240</v>
-      </c>
-      <c r="E29" s="159"/>
-      <c r="F29" s="169">
-        <v>2</v>
-      </c>
-      <c r="G29" s="170"/>
-      <c r="H29" s="170"/>
-      <c r="I29" s="170"/>
-      <c r="J29" s="171"/>
-    </row>
-    <row r="30" spans="2:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B30" s="160"/>
-      <c r="C30" s="167"/>
-      <c r="D30" s="156" t="s">
-        <v>241</v>
-      </c>
-      <c r="E30" s="168"/>
-      <c r="F30" s="62" t="s">
-        <v>115</v>
-      </c>
-      <c r="G30" s="63" t="s">
-        <v>116</v>
-      </c>
-      <c r="H30" s="63" t="s">
-        <v>117</v>
-      </c>
-      <c r="I30" s="63" t="s">
-        <v>118</v>
-      </c>
-      <c r="J30" s="64" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B31" s="156"/>
-      <c r="C31" s="168"/>
-      <c r="D31" s="156" t="s">
-        <v>242</v>
-      </c>
-      <c r="E31" s="168"/>
+      <c r="E31" s="167"/>
       <c r="F31" s="41">
         <v>0</v>
       </c>
@@ -9549,39 +9803,39 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="2:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="33" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B33" s="154" t="s">
-        <v>243</v>
-      </c>
-      <c r="C33" s="155"/>
-      <c r="D33" s="158" t="s">
-        <v>241</v>
-      </c>
-      <c r="E33" s="159"/>
-      <c r="F33" s="65" t="s">
+    <row r="32" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="33" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="162" t="s">
+        <v>239</v>
+      </c>
+      <c r="C33" s="171"/>
+      <c r="D33" s="172" t="s">
+        <v>237</v>
+      </c>
+      <c r="E33" s="173"/>
+      <c r="F33" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="G33" s="63" t="s">
+      <c r="G33" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="H33" s="63" t="s">
+      <c r="H33" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="I33" s="63" t="s">
+      <c r="I33" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="J33" s="64" t="s">
+      <c r="J33" s="63" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B34" s="156"/>
-      <c r="C34" s="157"/>
-      <c r="D34" s="158" t="s">
-        <v>244</v>
-      </c>
-      <c r="E34" s="159"/>
+    <row r="34" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="166"/>
+      <c r="C34" s="174"/>
+      <c r="D34" s="172" t="s">
+        <v>240</v>
+      </c>
+      <c r="E34" s="173"/>
       <c r="F34" s="41">
         <v>2</v>
       </c>
@@ -9598,38 +9852,38 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B37" s="154" t="s">
-        <v>245</v>
-      </c>
-      <c r="C37" s="155"/>
-      <c r="D37" s="154" t="s">
-        <v>246</v>
-      </c>
-      <c r="E37" s="162"/>
-      <c r="F37" s="65" t="s">
+    <row r="36" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B37" s="162" t="s">
+        <v>241</v>
+      </c>
+      <c r="C37" s="171"/>
+      <c r="D37" s="162" t="s">
+        <v>242</v>
+      </c>
+      <c r="E37" s="163"/>
+      <c r="F37" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="G37" s="63" t="s">
+      <c r="G37" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="H37" s="63" t="s">
+      <c r="H37" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="I37" s="63" t="s">
+      <c r="I37" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="J37" s="64" t="s">
+      <c r="J37" s="63" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="38" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B38" s="160"/>
-      <c r="C38" s="161"/>
-      <c r="D38" s="163"/>
-      <c r="E38" s="164"/>
-      <c r="F38" s="57">
+    <row r="38" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="164"/>
+      <c r="C38" s="175"/>
+      <c r="D38" s="176"/>
+      <c r="E38" s="177"/>
+      <c r="F38" s="56">
         <v>1</v>
       </c>
       <c r="G38" s="41">
@@ -9645,79 +9899,79 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B39" s="160"/>
-      <c r="C39" s="161"/>
-      <c r="D39" s="165" t="s">
-        <v>179</v>
-      </c>
-      <c r="E39" s="166"/>
-      <c r="F39" s="65" t="s">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B39" s="164"/>
+      <c r="C39" s="175"/>
+      <c r="D39" s="178" t="s">
+        <v>177</v>
+      </c>
+      <c r="E39" s="179"/>
+      <c r="F39" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="G39" s="63" t="s">
+      <c r="G39" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="H39" s="63" t="s">
+      <c r="H39" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="I39" s="63" t="s">
+      <c r="I39" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="J39" s="64" t="s">
+      <c r="J39" s="63" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B40" s="160"/>
-      <c r="C40" s="161"/>
-      <c r="D40" s="163"/>
-      <c r="E40" s="164"/>
-      <c r="F40" s="57" t="s">
+    <row r="40" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="164"/>
+      <c r="C40" s="175"/>
+      <c r="D40" s="176"/>
+      <c r="E40" s="177"/>
+      <c r="F40" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="G40" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="H40" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="I40" s="41" t="s">
+        <v>246</v>
+      </c>
+      <c r="J40" s="42" t="s">
         <v>247</v>
       </c>
-      <c r="G40" s="41" t="s">
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B41" s="164"/>
+      <c r="C41" s="175"/>
+      <c r="D41" s="178" t="s">
         <v>248</v>
       </c>
-      <c r="H40" s="41" t="s">
-        <v>249</v>
-      </c>
-      <c r="I40" s="41" t="s">
-        <v>250</v>
-      </c>
-      <c r="J40" s="42" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B41" s="160"/>
-      <c r="C41" s="161"/>
-      <c r="D41" s="165" t="s">
-        <v>252</v>
-      </c>
-      <c r="E41" s="166"/>
-      <c r="F41" s="65" t="s">
+      <c r="E41" s="179"/>
+      <c r="F41" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="G41" s="63" t="s">
+      <c r="G41" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="H41" s="63" t="s">
+      <c r="H41" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="I41" s="63" t="s">
+      <c r="I41" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="J41" s="64" t="s">
+      <c r="J41" s="63" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B42" s="160"/>
-      <c r="C42" s="161"/>
-      <c r="D42" s="160"/>
-      <c r="E42" s="167"/>
-      <c r="F42" s="57">
+    <row r="42" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="164"/>
+      <c r="C42" s="175"/>
+      <c r="D42" s="164"/>
+      <c r="E42" s="165"/>
+      <c r="F42" s="56">
         <v>1</v>
       </c>
       <c r="G42" s="41">
@@ -9733,38 +9987,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B43" s="156"/>
-      <c r="C43" s="157"/>
-      <c r="D43" s="156"/>
-      <c r="E43" s="168"/>
-      <c r="F43" s="85" t="s">
-        <v>253</v>
-      </c>
-      <c r="G43" s="86"/>
-      <c r="H43" s="86"/>
-      <c r="I43" s="86"/>
-      <c r="J43" s="87"/>
+    <row r="43" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="166"/>
+      <c r="C43" s="174"/>
+      <c r="D43" s="166"/>
+      <c r="E43" s="167"/>
+      <c r="F43" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="G43" s="71"/>
+      <c r="H43" s="71"/>
+      <c r="I43" s="71"/>
+      <c r="J43" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B16:L16"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="D17:L17"/>
-    <mergeCell ref="D18:L18"/>
-    <mergeCell ref="D19:L19"/>
-    <mergeCell ref="D20:L20"/>
-    <mergeCell ref="D21:L21"/>
-    <mergeCell ref="B23:C25"/>
-    <mergeCell ref="D23:J23"/>
-    <mergeCell ref="D24:E25"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="B27:J27"/>
-    <mergeCell ref="B29:C31"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:J29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
     <mergeCell ref="F43:J43"/>
     <mergeCell ref="B33:C34"/>
     <mergeCell ref="D33:E33"/>
@@ -9773,6 +10010,23 @@
     <mergeCell ref="D37:E38"/>
     <mergeCell ref="D39:E40"/>
     <mergeCell ref="D41:E43"/>
+    <mergeCell ref="B29:C31"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:J29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B23:C25"/>
+    <mergeCell ref="D23:J23"/>
+    <mergeCell ref="D24:E25"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="B16:L16"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="D17:L17"/>
+    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="D19:L19"/>
+    <mergeCell ref="D20:L20"/>
+    <mergeCell ref="D21:L21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9788,82 +10042,82 @@
       <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="18" spans="2:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B19" s="154" t="s">
+    <row r="18" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B19" s="162" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="155"/>
-      <c r="D19" s="155"/>
-      <c r="E19" s="155"/>
-      <c r="F19" s="155"/>
-      <c r="G19" s="155"/>
-      <c r="H19" s="155"/>
-      <c r="I19" s="155"/>
-      <c r="J19" s="155"/>
-      <c r="K19" s="155"/>
-      <c r="L19" s="155"/>
-      <c r="M19" s="162"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="C19" s="171"/>
+      <c r="D19" s="171"/>
+      <c r="E19" s="171"/>
+      <c r="F19" s="171"/>
+      <c r="G19" s="171"/>
+      <c r="H19" s="171"/>
+      <c r="I19" s="171"/>
+      <c r="J19" s="171"/>
+      <c r="K19" s="171"/>
+      <c r="L19" s="171"/>
+      <c r="M19" s="163"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B20" s="18" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="19"/>
-      <c r="D20" s="148" t="s">
+      <c r="D20" s="146" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="149"/>
-      <c r="F20" s="149"/>
-      <c r="G20" s="149"/>
-      <c r="H20" s="149"/>
-      <c r="I20" s="149"/>
-      <c r="J20" s="149"/>
-      <c r="K20" s="149"/>
-      <c r="L20" s="149"/>
-      <c r="M20" s="150"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B21" s="187" t="s">
+      <c r="E20" s="147"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="147"/>
+      <c r="K20" s="147"/>
+      <c r="L20" s="147"/>
+      <c r="M20" s="148"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B21" s="190" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="188"/>
-      <c r="D21" s="148" t="s">
+      <c r="C21" s="191"/>
+      <c r="D21" s="146" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="149"/>
-      <c r="F21" s="149"/>
-      <c r="G21" s="149"/>
-      <c r="H21" s="149"/>
-      <c r="I21" s="149"/>
-      <c r="J21" s="149"/>
-      <c r="K21" s="149"/>
-      <c r="L21" s="149"/>
-      <c r="M21" s="150"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B22" s="189"/>
-      <c r="C22" s="190"/>
-      <c r="D22" s="148" t="s">
+      <c r="E21" s="147"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="147"/>
+      <c r="K21" s="147"/>
+      <c r="L21" s="147"/>
+      <c r="M21" s="148"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B22" s="192"/>
+      <c r="C22" s="193"/>
+      <c r="D22" s="146" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="149"/>
-      <c r="F22" s="149"/>
-      <c r="G22" s="149"/>
-      <c r="H22" s="149"/>
-      <c r="I22" s="149"/>
-      <c r="J22" s="149"/>
-      <c r="K22" s="149"/>
-      <c r="L22" s="149"/>
-      <c r="M22" s="150"/>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B23" s="187" t="s">
+      <c r="E22" s="147"/>
+      <c r="F22" s="147"/>
+      <c r="G22" s="147"/>
+      <c r="H22" s="147"/>
+      <c r="I22" s="147"/>
+      <c r="J22" s="147"/>
+      <c r="K22" s="147"/>
+      <c r="L22" s="147"/>
+      <c r="M22" s="148"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B23" s="190" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="188"/>
+      <c r="C23" s="191"/>
       <c r="D23" s="19" t="s">
         <v>30</v>
       </c>
@@ -9877,27 +10131,27 @@
       <c r="L23" s="19"/>
       <c r="M23" s="19"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B24" s="189"/>
-      <c r="C24" s="190"/>
-      <c r="D24" s="148" t="s">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B24" s="192"/>
+      <c r="C24" s="193"/>
+      <c r="D24" s="146" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="149"/>
-      <c r="F24" s="149"/>
-      <c r="G24" s="149"/>
-      <c r="H24" s="149"/>
-      <c r="I24" s="149"/>
-      <c r="J24" s="149"/>
-      <c r="K24" s="149"/>
-      <c r="L24" s="149"/>
-      <c r="M24" s="150"/>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B25" s="187" t="s">
+      <c r="E24" s="147"/>
+      <c r="F24" s="147"/>
+      <c r="G24" s="147"/>
+      <c r="H24" s="147"/>
+      <c r="I24" s="147"/>
+      <c r="J24" s="147"/>
+      <c r="K24" s="147"/>
+      <c r="L24" s="147"/>
+      <c r="M24" s="148"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B25" s="190" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="188"/>
+      <c r="C25" s="191"/>
       <c r="D25" s="19" t="s">
         <v>33</v>
       </c>
@@ -9911,34 +10165,34 @@
       <c r="L25" s="19"/>
       <c r="M25" s="19"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B26" s="189"/>
-      <c r="C26" s="190"/>
-      <c r="D26" s="148" t="s">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B26" s="192"/>
+      <c r="C26" s="193"/>
+      <c r="D26" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="149"/>
-      <c r="F26" s="149"/>
-      <c r="G26" s="149"/>
-      <c r="H26" s="149"/>
-      <c r="I26" s="149"/>
-      <c r="J26" s="149"/>
-      <c r="K26" s="149"/>
-      <c r="L26" s="149"/>
-      <c r="M26" s="150"/>
-    </row>
-    <row r="27" spans="2:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B28" s="154" t="s">
+      <c r="E26" s="147"/>
+      <c r="F26" s="147"/>
+      <c r="G26" s="147"/>
+      <c r="H26" s="147"/>
+      <c r="I26" s="147"/>
+      <c r="J26" s="147"/>
+      <c r="K26" s="147"/>
+      <c r="L26" s="147"/>
+      <c r="M26" s="148"/>
+    </row>
+    <row r="27" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B28" s="162" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="162"/>
-      <c r="D28" s="191" t="s">
+      <c r="C28" s="163"/>
+      <c r="D28" s="180" t="s">
         <v>121</v>
       </c>
-      <c r="E28" s="192"/>
-      <c r="F28" s="192"/>
-      <c r="G28" s="192"/>
+      <c r="E28" s="181"/>
+      <c r="F28" s="181"/>
+      <c r="G28" s="181"/>
       <c r="H28" s="49" t="s">
         <v>115</v>
       </c>
@@ -9955,15 +10209,15 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="2:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B29" s="160"/>
-      <c r="C29" s="167"/>
-      <c r="D29" s="193" t="s">
+    <row r="29" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="164"/>
+      <c r="C29" s="165"/>
+      <c r="D29" s="182" t="s">
         <v>122</v>
       </c>
-      <c r="E29" s="194"/>
-      <c r="F29" s="194"/>
-      <c r="G29" s="194"/>
+      <c r="E29" s="183"/>
+      <c r="F29" s="183"/>
+      <c r="G29" s="183"/>
       <c r="H29" s="51">
         <v>5</v>
       </c>
@@ -9980,18 +10234,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:13" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="160"/>
-      <c r="C30" s="167"/>
-      <c r="D30" s="195" t="s">
-        <v>207</v>
-      </c>
-      <c r="E30" s="92" t="s">
-        <v>208</v>
-      </c>
-      <c r="F30" s="93"/>
-      <c r="G30" s="93"/>
-      <c r="H30" s="197"/>
+    <row r="30" spans="2:13" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="164"/>
+      <c r="C30" s="165"/>
+      <c r="D30" s="184" t="s">
+        <v>203</v>
+      </c>
+      <c r="E30" s="77" t="s">
+        <v>204</v>
+      </c>
+      <c r="F30" s="78"/>
+      <c r="G30" s="78"/>
+      <c r="H30" s="186"/>
       <c r="I30" s="130" t="s">
         <v>148</v>
       </c>
@@ -10001,177 +10255,203 @@
       </c>
       <c r="L30" s="131"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B31" s="160"/>
-      <c r="C31" s="167"/>
-      <c r="D31" s="196"/>
-      <c r="E31" s="94"/>
-      <c r="F31" s="81"/>
-      <c r="G31" s="81"/>
-      <c r="H31" s="146"/>
-      <c r="I31" s="78" t="s">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B31" s="164"/>
+      <c r="C31" s="165"/>
+      <c r="D31" s="185"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="80"/>
+      <c r="G31" s="80"/>
+      <c r="H31" s="134"/>
+      <c r="I31" s="92" t="s">
+        <v>205</v>
+      </c>
+      <c r="J31" s="92"/>
+      <c r="K31" s="92">
+        <v>1</v>
+      </c>
+      <c r="L31" s="99"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B32" s="164"/>
+      <c r="C32" s="165"/>
+      <c r="D32" s="194" t="s">
+        <v>206</v>
+      </c>
+      <c r="E32" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="F32" s="92"/>
+      <c r="G32" s="92"/>
+      <c r="H32" s="92"/>
+      <c r="I32" s="136" t="s">
+        <v>207</v>
+      </c>
+      <c r="J32" s="92"/>
+      <c r="K32" s="92">
+        <v>-1</v>
+      </c>
+      <c r="L32" s="99"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B33" s="164"/>
+      <c r="C33" s="165"/>
+      <c r="D33" s="194"/>
+      <c r="E33" s="92"/>
+      <c r="F33" s="92"/>
+      <c r="G33" s="92"/>
+      <c r="H33" s="92"/>
+      <c r="I33" s="92" t="s">
+        <v>205</v>
+      </c>
+      <c r="J33" s="92"/>
+      <c r="K33" s="92">
+        <v>5</v>
+      </c>
+      <c r="L33" s="99"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B34" s="164"/>
+      <c r="C34" s="165"/>
+      <c r="D34" s="194" t="s">
+        <v>208</v>
+      </c>
+      <c r="E34" s="92" t="s">
         <v>209</v>
       </c>
-      <c r="J31" s="78"/>
-      <c r="K31" s="78">
-        <v>1</v>
-      </c>
-      <c r="L31" s="116"/>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B32" s="160"/>
-      <c r="C32" s="167"/>
-      <c r="D32" s="186" t="s">
+      <c r="F34" s="92"/>
+      <c r="G34" s="92"/>
+      <c r="H34" s="92"/>
+      <c r="I34" s="92" t="s">
+        <v>148</v>
+      </c>
+      <c r="J34" s="92"/>
+      <c r="K34" s="92">
+        <v>-1</v>
+      </c>
+      <c r="L34" s="99"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B35" s="164"/>
+      <c r="C35" s="165"/>
+      <c r="D35" s="194"/>
+      <c r="E35" s="92"/>
+      <c r="F35" s="92"/>
+      <c r="G35" s="92"/>
+      <c r="H35" s="92"/>
+      <c r="I35" s="92" t="s">
+        <v>205</v>
+      </c>
+      <c r="J35" s="92"/>
+      <c r="K35" s="92">
+        <v>4</v>
+      </c>
+      <c r="L35" s="99"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B36" s="164"/>
+      <c r="C36" s="165"/>
+      <c r="D36" s="187" t="s">
         <v>210</v>
       </c>
-      <c r="E32" s="78" t="s">
-        <v>208</v>
-      </c>
-      <c r="F32" s="78"/>
-      <c r="G32" s="78"/>
-      <c r="H32" s="78"/>
-      <c r="I32" s="153" t="s">
+      <c r="E36" s="92" t="s">
+        <v>209</v>
+      </c>
+      <c r="F36" s="92"/>
+      <c r="G36" s="92"/>
+      <c r="H36" s="92"/>
+      <c r="I36" s="92" t="s">
+        <v>207</v>
+      </c>
+      <c r="J36" s="92"/>
+      <c r="K36" s="92">
+        <v>-2</v>
+      </c>
+      <c r="L36" s="99"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B37" s="164"/>
+      <c r="C37" s="165"/>
+      <c r="D37" s="188"/>
+      <c r="E37" s="189"/>
+      <c r="F37" s="189"/>
+      <c r="G37" s="189"/>
+      <c r="H37" s="189"/>
+      <c r="I37" s="189" t="s">
         <v>211</v>
       </c>
-      <c r="J32" s="78"/>
-      <c r="K32" s="78">
-        <v>-1</v>
-      </c>
-      <c r="L32" s="116"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B33" s="160"/>
-      <c r="C33" s="167"/>
-      <c r="D33" s="186"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="78"/>
-      <c r="G33" s="78"/>
-      <c r="H33" s="78"/>
-      <c r="I33" s="78" t="s">
-        <v>209</v>
-      </c>
-      <c r="J33" s="78"/>
-      <c r="K33" s="78">
-        <v>5</v>
-      </c>
-      <c r="L33" s="116"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B34" s="160"/>
-      <c r="C34" s="167"/>
-      <c r="D34" s="186" t="s">
+      <c r="J37" s="189"/>
+      <c r="K37" s="92">
+        <v>2</v>
+      </c>
+      <c r="L37" s="99"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B38" s="164"/>
+      <c r="C38" s="165"/>
+      <c r="D38" s="198" t="s">
         <v>212</v>
       </c>
-      <c r="E34" s="78" t="s">
+      <c r="E38" s="195" t="s">
         <v>213</v>
       </c>
-      <c r="F34" s="78"/>
-      <c r="G34" s="78"/>
-      <c r="H34" s="78"/>
-      <c r="I34" s="78" t="s">
-        <v>148</v>
-      </c>
-      <c r="J34" s="78"/>
-      <c r="K34" s="78">
-        <v>-1</v>
-      </c>
-      <c r="L34" s="116"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B35" s="160"/>
-      <c r="C35" s="167"/>
-      <c r="D35" s="186"/>
-      <c r="E35" s="78"/>
-      <c r="F35" s="78"/>
-      <c r="G35" s="78"/>
-      <c r="H35" s="78"/>
-      <c r="I35" s="78" t="s">
-        <v>209</v>
-      </c>
-      <c r="J35" s="78"/>
-      <c r="K35" s="78">
-        <v>4</v>
-      </c>
-      <c r="L35" s="116"/>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B36" s="160"/>
-      <c r="C36" s="167"/>
-      <c r="D36" s="198" t="s">
-        <v>214</v>
-      </c>
-      <c r="E36" s="78" t="s">
-        <v>213</v>
-      </c>
-      <c r="F36" s="78"/>
-      <c r="G36" s="78"/>
-      <c r="H36" s="78"/>
-      <c r="I36" s="78" t="s">
-        <v>211</v>
-      </c>
-      <c r="J36" s="78"/>
-      <c r="K36" s="78">
-        <v>-2</v>
-      </c>
-      <c r="L36" s="116"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B37" s="160"/>
-      <c r="C37" s="167"/>
-      <c r="D37" s="199"/>
-      <c r="E37" s="200"/>
-      <c r="F37" s="200"/>
-      <c r="G37" s="200"/>
-      <c r="H37" s="200"/>
-      <c r="I37" s="200" t="s">
-        <v>215</v>
-      </c>
-      <c r="J37" s="200"/>
-      <c r="K37" s="78">
-        <v>2</v>
-      </c>
-      <c r="L37" s="116"/>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B38" s="160"/>
-      <c r="C38" s="167"/>
-      <c r="D38" s="184" t="s">
-        <v>216</v>
-      </c>
-      <c r="E38" s="181" t="s">
-        <v>217</v>
-      </c>
-      <c r="F38" s="182"/>
-      <c r="G38" s="182"/>
-      <c r="H38" s="182"/>
-      <c r="I38" s="78" t="s">
-        <v>211</v>
-      </c>
-      <c r="J38" s="78"/>
+      <c r="F38" s="196"/>
+      <c r="G38" s="196"/>
+      <c r="H38" s="196"/>
+      <c r="I38" s="92" t="s">
+        <v>207</v>
+      </c>
+      <c r="J38" s="92"/>
       <c r="K38" s="130">
         <v>-10</v>
       </c>
       <c r="L38" s="131"/>
     </row>
-    <row r="39" spans="2:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B39" s="156"/>
-      <c r="C39" s="168"/>
-      <c r="D39" s="185"/>
-      <c r="E39" s="183"/>
-      <c r="F39" s="183"/>
-      <c r="G39" s="183"/>
-      <c r="H39" s="183"/>
-      <c r="I39" s="113" t="s">
-        <v>218</v>
-      </c>
-      <c r="J39" s="113"/>
-      <c r="K39" s="113" t="s">
-        <v>219</v>
-      </c>
-      <c r="L39" s="117"/>
+    <row r="39" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="166"/>
+      <c r="C39" s="167"/>
+      <c r="D39" s="199"/>
+      <c r="E39" s="197"/>
+      <c r="F39" s="197"/>
+      <c r="G39" s="197"/>
+      <c r="H39" s="197"/>
+      <c r="I39" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="J39" s="101"/>
+      <c r="K39" s="101" t="s">
+        <v>215</v>
+      </c>
+      <c r="L39" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="E38:H39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:H33"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:H35"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="B19:M19"/>
+    <mergeCell ref="B21:C22"/>
+    <mergeCell ref="B23:C24"/>
+    <mergeCell ref="B25:C26"/>
+    <mergeCell ref="D20:M20"/>
+    <mergeCell ref="D21:M21"/>
+    <mergeCell ref="D22:M22"/>
     <mergeCell ref="B28:C39"/>
     <mergeCell ref="D28:G28"/>
     <mergeCell ref="D29:G29"/>
@@ -10188,32 +10468,6 @@
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="K36:L36"/>
     <mergeCell ref="I37:J37"/>
-    <mergeCell ref="B19:M19"/>
-    <mergeCell ref="B21:C22"/>
-    <mergeCell ref="B23:C24"/>
-    <mergeCell ref="B25:C26"/>
-    <mergeCell ref="D20:M20"/>
-    <mergeCell ref="D21:M21"/>
-    <mergeCell ref="D22:M22"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:H35"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:H33"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="E38:H39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10226,317 +10480,317 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD3B1AB3-CC49-495A-99AD-7BB4C69F9D39}">
   <dimension ref="B18:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D27" sqref="D27:O27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D18" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B19" s="202"/>
-      <c r="C19" s="202"/>
-      <c r="D19" s="202"/>
-      <c r="E19" s="202"/>
-      <c r="F19" s="202"/>
-      <c r="G19" s="202"/>
-      <c r="H19" s="202"/>
-      <c r="I19" s="202"/>
-      <c r="J19" s="202"/>
-      <c r="K19" s="202"/>
-      <c r="L19" s="202"/>
-      <c r="M19" s="202"/>
-      <c r="N19" s="202"/>
-      <c r="O19" s="202"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.45">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B19" s="200"/>
+      <c r="C19" s="200"/>
+      <c r="D19" s="200"/>
+      <c r="E19" s="200"/>
+      <c r="F19" s="200"/>
+      <c r="G19" s="200"/>
+      <c r="H19" s="200"/>
+      <c r="I19" s="200"/>
+      <c r="J19" s="200"/>
+      <c r="K19" s="200"/>
+      <c r="L19" s="200"/>
+      <c r="M19" s="200"/>
+      <c r="N19" s="200"/>
+      <c r="O19" s="200"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B20" s="19" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="19"/>
-      <c r="D20" s="77" t="s">
+      <c r="D20" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="77"/>
-      <c r="M20" s="77"/>
-      <c r="N20" s="77"/>
-      <c r="O20" s="77"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B21" s="78" t="s">
+      <c r="E20" s="91"/>
+      <c r="F20" s="91"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="91"/>
+      <c r="J20" s="91"/>
+      <c r="K20" s="91"/>
+      <c r="L20" s="91"/>
+      <c r="M20" s="91"/>
+      <c r="N20" s="91"/>
+      <c r="O20" s="91"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B21" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="78"/>
-      <c r="D21" s="77" t="s">
+      <c r="C21" s="92"/>
+      <c r="D21" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="77"/>
-      <c r="I21" s="77"/>
-      <c r="J21" s="77"/>
-      <c r="K21" s="77"/>
-      <c r="L21" s="77"/>
-      <c r="M21" s="77"/>
-      <c r="N21" s="77"/>
-      <c r="O21" s="77"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B22" s="78"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="78" t="s">
+      <c r="E21" s="91"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="91"/>
+      <c r="L21" s="91"/>
+      <c r="M21" s="91"/>
+      <c r="N21" s="91"/>
+      <c r="O21" s="91"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B22" s="92"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="92" t="s">
         <v>147</v>
       </c>
-      <c r="E22" s="78"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78" t="s">
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92" t="s">
         <v>151</v>
       </c>
-      <c r="H22" s="78"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="78" t="s">
+      <c r="H22" s="92"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="92" t="s">
         <v>148</v>
       </c>
-      <c r="K22" s="78"/>
-      <c r="L22" s="78"/>
-      <c r="M22" s="78" t="s">
+      <c r="K22" s="92"/>
+      <c r="L22" s="92"/>
+      <c r="M22" s="92" t="s">
         <v>149</v>
       </c>
-      <c r="N22" s="78"/>
-      <c r="O22" s="78"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B23" s="78"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="78" t="s">
+      <c r="N22" s="92"/>
+      <c r="O22" s="92"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B23" s="92"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="92" t="s">
         <v>150</v>
       </c>
-      <c r="E23" s="78"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="78" t="s">
+      <c r="E23" s="92"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="92" t="s">
         <v>153</v>
       </c>
-      <c r="H23" s="78"/>
-      <c r="I23" s="78"/>
-      <c r="J23" s="78" t="s">
+      <c r="H23" s="92"/>
+      <c r="I23" s="92"/>
+      <c r="J23" s="92" t="s">
         <v>152</v>
       </c>
-      <c r="K23" s="78"/>
-      <c r="L23" s="78"/>
+      <c r="K23" s="92"/>
+      <c r="L23" s="92"/>
       <c r="M23" s="201" t="s">
         <v>154</v>
       </c>
-      <c r="N23" s="78"/>
-      <c r="O23" s="78"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="N23" s="92"/>
+      <c r="O23" s="92"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B24" s="127" t="s">
         <v>50</v>
       </c>
       <c r="C24" s="127"/>
-      <c r="D24" s="77" t="s">
+      <c r="D24" s="91" t="s">
         <v>161</v>
       </c>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="77"/>
-      <c r="J24" s="77"/>
-      <c r="K24" s="77"/>
-      <c r="L24" s="77"/>
-      <c r="M24" s="77"/>
-      <c r="N24" s="77"/>
-      <c r="O24" s="77"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="E24" s="91"/>
+      <c r="F24" s="91"/>
+      <c r="G24" s="91"/>
+      <c r="H24" s="91"/>
+      <c r="I24" s="91"/>
+      <c r="J24" s="91"/>
+      <c r="K24" s="91"/>
+      <c r="L24" s="91"/>
+      <c r="M24" s="91"/>
+      <c r="N24" s="91"/>
+      <c r="O24" s="91"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B25" s="127"/>
       <c r="C25" s="127"/>
-      <c r="D25" s="78" t="s">
+      <c r="D25" s="92" t="s">
         <v>155</v>
       </c>
-      <c r="E25" s="78"/>
-      <c r="F25" s="78"/>
-      <c r="G25" s="78" t="s">
+      <c r="E25" s="92"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92" t="s">
         <v>117</v>
       </c>
-      <c r="H25" s="78"/>
-      <c r="I25" s="78"/>
-      <c r="J25" s="78" t="s">
+      <c r="H25" s="92"/>
+      <c r="I25" s="92"/>
+      <c r="J25" s="92" t="s">
         <v>118</v>
       </c>
-      <c r="K25" s="78"/>
-      <c r="L25" s="78"/>
-      <c r="M25" s="78" t="s">
+      <c r="K25" s="92"/>
+      <c r="L25" s="92"/>
+      <c r="M25" s="92" t="s">
         <v>119</v>
       </c>
-      <c r="N25" s="78"/>
-      <c r="O25" s="78"/>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="N25" s="92"/>
+      <c r="O25" s="92"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B26" s="127"/>
       <c r="C26" s="127"/>
-      <c r="D26" s="78" t="s">
+      <c r="D26" s="92" t="s">
         <v>159</v>
       </c>
-      <c r="E26" s="78"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78" t="s">
+      <c r="E26" s="92"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="92" t="s">
         <v>156</v>
       </c>
-      <c r="H26" s="78"/>
-      <c r="I26" s="78"/>
-      <c r="J26" s="78" t="s">
+      <c r="H26" s="92"/>
+      <c r="I26" s="92"/>
+      <c r="J26" s="92" t="s">
         <v>157</v>
       </c>
-      <c r="K26" s="78"/>
-      <c r="L26" s="78"/>
-      <c r="M26" s="78" t="s">
+      <c r="K26" s="92"/>
+      <c r="L26" s="92"/>
+      <c r="M26" s="92" t="s">
         <v>158</v>
       </c>
-      <c r="N26" s="78"/>
-      <c r="O26" s="78"/>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="N26" s="92"/>
+      <c r="O26" s="92"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B27" s="127" t="s">
         <v>160</v>
       </c>
       <c r="C27" s="127"/>
-      <c r="D27" s="77" t="s">
-        <v>270</v>
-      </c>
-      <c r="E27" s="77"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="77"/>
-      <c r="I27" s="77"/>
-      <c r="J27" s="77"/>
-      <c r="K27" s="77"/>
-      <c r="L27" s="77"/>
-      <c r="M27" s="77"/>
-      <c r="N27" s="77"/>
-      <c r="O27" s="77"/>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="D27" s="91" t="s">
+        <v>265</v>
+      </c>
+      <c r="E27" s="91"/>
+      <c r="F27" s="91"/>
+      <c r="G27" s="91"/>
+      <c r="H27" s="91"/>
+      <c r="I27" s="91"/>
+      <c r="J27" s="91"/>
+      <c r="K27" s="91"/>
+      <c r="L27" s="91"/>
+      <c r="M27" s="91"/>
+      <c r="N27" s="91"/>
+      <c r="O27" s="91"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B28" s="127"/>
       <c r="C28" s="127"/>
-      <c r="D28" s="78" t="s">
+      <c r="D28" s="92" t="s">
         <v>162</v>
       </c>
-      <c r="E28" s="78"/>
-      <c r="F28" s="78"/>
-      <c r="G28" s="78" t="s">
+      <c r="E28" s="92"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="92" t="s">
         <v>164</v>
       </c>
-      <c r="H28" s="78"/>
-      <c r="I28" s="78"/>
-      <c r="J28" s="78" t="s">
+      <c r="H28" s="92"/>
+      <c r="I28" s="92"/>
+      <c r="J28" s="92" t="s">
         <v>148</v>
       </c>
-      <c r="K28" s="78"/>
-      <c r="L28" s="78"/>
-      <c r="M28" s="78" t="s">
+      <c r="K28" s="92"/>
+      <c r="L28" s="92"/>
+      <c r="M28" s="92" t="s">
         <v>163</v>
       </c>
-      <c r="N28" s="78"/>
-      <c r="O28" s="78"/>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="N28" s="92"/>
+      <c r="O28" s="92"/>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B29" s="127" t="s">
         <v>51</v>
       </c>
       <c r="C29" s="127"/>
-      <c r="D29" s="78" t="s">
+      <c r="D29" s="92" t="s">
         <v>165</v>
       </c>
-      <c r="E29" s="78"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="78"/>
-      <c r="I29" s="78"/>
-      <c r="J29" s="78"/>
-      <c r="K29" s="78"/>
-      <c r="L29" s="78"/>
-      <c r="M29" s="78"/>
-      <c r="N29" s="78"/>
-      <c r="O29" s="78"/>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="E29" s="92"/>
+      <c r="F29" s="92"/>
+      <c r="G29" s="92"/>
+      <c r="H29" s="92"/>
+      <c r="I29" s="92"/>
+      <c r="J29" s="92"/>
+      <c r="K29" s="92"/>
+      <c r="L29" s="92"/>
+      <c r="M29" s="92"/>
+      <c r="N29" s="92"/>
+      <c r="O29" s="92"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B30" s="127"/>
       <c r="C30" s="127"/>
-      <c r="D30" s="78" t="s">
+      <c r="D30" s="92" t="s">
         <v>166</v>
       </c>
-      <c r="E30" s="78"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="78"/>
-      <c r="H30" s="78"/>
-      <c r="I30" s="78"/>
-      <c r="J30" s="78"/>
-      <c r="K30" s="78"/>
-      <c r="L30" s="78"/>
-      <c r="M30" s="78"/>
-      <c r="N30" s="78"/>
-      <c r="O30" s="78"/>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="E30" s="92"/>
+      <c r="F30" s="92"/>
+      <c r="G30" s="92"/>
+      <c r="H30" s="92"/>
+      <c r="I30" s="92"/>
+      <c r="J30" s="92"/>
+      <c r="K30" s="92"/>
+      <c r="L30" s="92"/>
+      <c r="M30" s="92"/>
+      <c r="N30" s="92"/>
+      <c r="O30" s="92"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B31" s="127"/>
       <c r="C31" s="127"/>
-      <c r="D31" s="78" t="s">
+      <c r="D31" s="92" t="s">
         <v>167</v>
       </c>
-      <c r="E31" s="78"/>
-      <c r="F31" s="78"/>
-      <c r="G31" s="78"/>
-      <c r="H31" s="78"/>
-      <c r="I31" s="78"/>
-      <c r="J31" s="78"/>
-      <c r="K31" s="78"/>
-      <c r="L31" s="78"/>
-      <c r="M31" s="78"/>
-      <c r="N31" s="78"/>
-      <c r="O31" s="78"/>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="E31" s="92"/>
+      <c r="F31" s="92"/>
+      <c r="G31" s="92"/>
+      <c r="H31" s="92"/>
+      <c r="I31" s="92"/>
+      <c r="J31" s="92"/>
+      <c r="K31" s="92"/>
+      <c r="L31" s="92"/>
+      <c r="M31" s="92"/>
+      <c r="N31" s="92"/>
+      <c r="O31" s="92"/>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B32" s="127"/>
       <c r="C32" s="127"/>
-      <c r="D32" s="78" t="s">
+      <c r="D32" s="92" t="s">
         <v>168</v>
       </c>
-      <c r="E32" s="78"/>
-      <c r="F32" s="78"/>
-      <c r="G32" s="78" t="s">
+      <c r="E32" s="92"/>
+      <c r="F32" s="92"/>
+      <c r="G32" s="92" t="s">
         <v>156</v>
       </c>
-      <c r="H32" s="78"/>
-      <c r="I32" s="78"/>
-      <c r="J32" s="78" t="s">
+      <c r="H32" s="92"/>
+      <c r="I32" s="92"/>
+      <c r="J32" s="92" t="s">
         <v>148</v>
       </c>
-      <c r="K32" s="78"/>
-      <c r="L32" s="78"/>
-      <c r="M32" s="78" t="s">
+      <c r="K32" s="92"/>
+      <c r="L32" s="92"/>
+      <c r="M32" s="92" t="s">
         <v>169</v>
       </c>
-      <c r="N32" s="78"/>
-      <c r="O32" s="78"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="N32" s="92"/>
+      <c r="O32" s="92"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="31"/>
@@ -10552,7 +10806,7 @@
       <c r="N34" s="31"/>
       <c r="O34" s="31"/>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="31"/>
@@ -10568,7 +10822,7 @@
       <c r="N35" s="31"/>
       <c r="O35" s="31"/>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="31"/>
@@ -10584,7 +10838,7 @@
       <c r="N36" s="31"/>
       <c r="O36" s="31"/>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
       <c r="D37" s="31"/>
@@ -10600,7 +10854,7 @@
       <c r="N37" s="31"/>
       <c r="O37" s="31"/>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
       <c r="D38" s="31"/>
@@ -10618,6 +10872,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B29:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="D29:O29"/>
+    <mergeCell ref="D31:O31"/>
+    <mergeCell ref="D30:O30"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="B27:C28"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:O25"/>
     <mergeCell ref="B19:O19"/>
     <mergeCell ref="D20:O20"/>
     <mergeCell ref="D21:O21"/>
@@ -10634,26 +10908,6 @@
     <mergeCell ref="J26:L26"/>
     <mergeCell ref="M26:O26"/>
     <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="B27:C28"/>
-    <mergeCell ref="B29:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="D29:O29"/>
-    <mergeCell ref="D31:O31"/>
-    <mergeCell ref="D30:O30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10666,36 +10920,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3CCAFE-CEE6-48A9-8735-EA3AFEF10E87}">
   <dimension ref="B36:L51"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="16" max="16" width="8.83203125" customWidth="1"/>
+    <col min="16" max="16" width="8.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="36" spans="2:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="37" spans="2:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B37" s="204" t="s">
+    <row r="36" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="37" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="202" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="205"/>
-      <c r="D37" s="205"/>
-      <c r="E37" s="205"/>
-      <c r="F37" s="205"/>
-      <c r="G37" s="205"/>
-      <c r="H37" s="205"/>
-      <c r="I37" s="205"/>
-      <c r="J37" s="205"/>
-      <c r="K37" s="205"/>
-      <c r="L37" s="206"/>
-    </row>
-    <row r="38" spans="2:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="C37" s="203"/>
+      <c r="D37" s="203"/>
+      <c r="E37" s="203"/>
+      <c r="F37" s="203"/>
+      <c r="G37" s="203"/>
+      <c r="H37" s="203"/>
+      <c r="I37" s="203"/>
+      <c r="J37" s="203"/>
+      <c r="K37" s="203"/>
+      <c r="L37" s="204"/>
+    </row>
+    <row r="38" spans="2:12" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B38" s="125" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="80"/>
+      <c r="C38" s="94"/>
       <c r="D38" s="130" t="s">
         <v>53</v>
       </c>
@@ -10708,271 +10962,269 @@
       <c r="K38" s="130"/>
       <c r="L38" s="131"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B39" s="126" t="s">
         <v>54</v>
       </c>
       <c r="C39" s="127"/>
-      <c r="D39" s="78" t="s">
+      <c r="D39" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="E39" s="78"/>
-      <c r="F39" s="78"/>
-      <c r="G39" s="78"/>
-      <c r="H39" s="78"/>
-      <c r="I39" s="78"/>
-      <c r="J39" s="78"/>
-      <c r="K39" s="78"/>
-      <c r="L39" s="116"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="E39" s="92"/>
+      <c r="F39" s="92"/>
+      <c r="G39" s="92"/>
+      <c r="H39" s="92"/>
+      <c r="I39" s="92"/>
+      <c r="J39" s="92"/>
+      <c r="K39" s="92"/>
+      <c r="L39" s="99"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B40" s="126"/>
       <c r="C40" s="127"/>
-      <c r="D40" s="78" t="s">
+      <c r="D40" s="92" t="s">
         <v>148</v>
       </c>
-      <c r="E40" s="78"/>
-      <c r="F40" s="78" t="s">
-        <v>178</v>
-      </c>
-      <c r="G40" s="78"/>
-      <c r="H40" s="78" t="s">
-        <v>177</v>
-      </c>
-      <c r="I40" s="78"/>
-      <c r="J40" s="78" t="s">
+      <c r="E40" s="92"/>
+      <c r="F40" s="92" t="s">
         <v>176</v>
       </c>
-      <c r="K40" s="78"/>
-      <c r="L40" s="116"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="G40" s="92"/>
+      <c r="H40" s="92" t="s">
+        <v>175</v>
+      </c>
+      <c r="I40" s="92"/>
+      <c r="J40" s="92" t="s">
+        <v>174</v>
+      </c>
+      <c r="K40" s="92"/>
+      <c r="L40" s="99"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B41" s="126"/>
       <c r="C41" s="127"/>
-      <c r="D41" s="78" t="s">
+      <c r="D41" s="92" t="s">
+        <v>173</v>
+      </c>
+      <c r="E41" s="92"/>
+      <c r="F41" s="92" t="s">
+        <v>151</v>
+      </c>
+      <c r="G41" s="92"/>
+      <c r="H41" s="92" t="s">
+        <v>172</v>
+      </c>
+      <c r="I41" s="92"/>
+      <c r="J41" s="92">
+        <v>1</v>
+      </c>
+      <c r="K41" s="92"/>
+      <c r="L41" s="99"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B42" s="98" t="s">
+        <v>216</v>
+      </c>
+      <c r="C42" s="92"/>
+      <c r="D42" s="92" t="s">
+        <v>217</v>
+      </c>
+      <c r="E42" s="92"/>
+      <c r="F42" s="92"/>
+      <c r="G42" s="92"/>
+      <c r="H42" s="92"/>
+      <c r="I42" s="92"/>
+      <c r="J42" s="92"/>
+      <c r="K42" s="92"/>
+      <c r="L42" s="99"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B43" s="98"/>
+      <c r="C43" s="92"/>
+      <c r="D43" s="92" t="s">
+        <v>148</v>
+      </c>
+      <c r="E43" s="92"/>
+      <c r="F43" s="92" t="s">
+        <v>169</v>
+      </c>
+      <c r="G43" s="92"/>
+      <c r="H43" s="92" t="s">
         <v>175</v>
       </c>
-      <c r="E41" s="78"/>
-      <c r="F41" s="78" t="s">
+      <c r="I43" s="92"/>
+      <c r="J43" s="92" t="s">
+        <v>218</v>
+      </c>
+      <c r="K43" s="92"/>
+      <c r="L43" s="99"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B44" s="98"/>
+      <c r="C44" s="92"/>
+      <c r="D44" s="92" t="s">
+        <v>219</v>
+      </c>
+      <c r="E44" s="92"/>
+      <c r="F44" s="92" t="s">
         <v>151</v>
       </c>
-      <c r="G41" s="78"/>
-      <c r="H41" s="78" t="s">
-        <v>174</v>
-      </c>
-      <c r="I41" s="78"/>
-      <c r="J41" s="78">
-        <v>1</v>
-      </c>
-      <c r="K41" s="78"/>
-      <c r="L41" s="116"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B42" s="106" t="s">
+      <c r="G44" s="92"/>
+      <c r="H44" s="92" t="s">
         <v>220</v>
       </c>
-      <c r="C42" s="78"/>
-      <c r="D42" s="78" t="s">
+      <c r="I44" s="92"/>
+      <c r="J44" s="92" t="s">
         <v>221</v>
       </c>
-      <c r="E42" s="78"/>
-      <c r="F42" s="78"/>
-      <c r="G42" s="78"/>
-      <c r="H42" s="78"/>
-      <c r="I42" s="78"/>
-      <c r="J42" s="78"/>
-      <c r="K42" s="78"/>
-      <c r="L42" s="116"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B43" s="106"/>
-      <c r="C43" s="78"/>
-      <c r="D43" s="78" t="s">
+      <c r="K44" s="92"/>
+      <c r="L44" s="99"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B45" s="98" t="s">
+        <v>222</v>
+      </c>
+      <c r="C45" s="92"/>
+      <c r="D45" s="92" t="s">
+        <v>223</v>
+      </c>
+      <c r="E45" s="92"/>
+      <c r="F45" s="92"/>
+      <c r="G45" s="92"/>
+      <c r="H45" s="92"/>
+      <c r="I45" s="92"/>
+      <c r="J45" s="92"/>
+      <c r="K45" s="92"/>
+      <c r="L45" s="99"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B46" s="98"/>
+      <c r="C46" s="92"/>
+      <c r="D46" s="92" t="s">
         <v>148</v>
       </c>
-      <c r="E43" s="78"/>
-      <c r="F43" s="78" t="s">
-        <v>169</v>
-      </c>
-      <c r="G43" s="78"/>
-      <c r="H43" s="78" t="s">
-        <v>177</v>
-      </c>
-      <c r="I43" s="78"/>
-      <c r="J43" s="78" t="s">
-        <v>222</v>
-      </c>
-      <c r="K43" s="78"/>
-      <c r="L43" s="116"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B44" s="106"/>
-      <c r="C44" s="78"/>
-      <c r="D44" s="78" t="s">
-        <v>223</v>
-      </c>
-      <c r="E44" s="78"/>
-      <c r="F44" s="78" t="s">
-        <v>151</v>
-      </c>
-      <c r="G44" s="78"/>
-      <c r="H44" s="78" t="s">
+      <c r="E46" s="92"/>
+      <c r="F46" s="92" t="s">
         <v>224</v>
       </c>
-      <c r="I44" s="78"/>
-      <c r="J44" s="78" t="s">
+      <c r="G46" s="92"/>
+      <c r="H46" s="92" t="s">
+        <v>150</v>
+      </c>
+      <c r="I46" s="92"/>
+      <c r="J46" s="92" t="s">
         <v>225</v>
       </c>
-      <c r="K44" s="78"/>
-      <c r="L44" s="116"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B45" s="106" t="s">
+      <c r="K46" s="92"/>
+      <c r="L46" s="99"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B47" s="98"/>
+      <c r="C47" s="92"/>
+      <c r="D47" s="92" t="s">
+        <v>219</v>
+      </c>
+      <c r="E47" s="92"/>
+      <c r="F47" s="92" t="s">
         <v>226</v>
       </c>
-      <c r="C45" s="78"/>
-      <c r="D45" s="78" t="s">
+      <c r="G47" s="92"/>
+      <c r="H47" s="92" t="s">
+        <v>220</v>
+      </c>
+      <c r="I47" s="92"/>
+      <c r="J47" s="92" t="s">
         <v>227</v>
       </c>
-      <c r="E45" s="78"/>
-      <c r="F45" s="78"/>
-      <c r="G45" s="78"/>
-      <c r="H45" s="78"/>
-      <c r="I45" s="78"/>
-      <c r="J45" s="78"/>
-      <c r="K45" s="78"/>
-      <c r="L45" s="116"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B46" s="106"/>
-      <c r="C46" s="78"/>
-      <c r="D46" s="78" t="s">
-        <v>148</v>
-      </c>
-      <c r="E46" s="78"/>
-      <c r="F46" s="78" t="s">
-        <v>228</v>
-      </c>
-      <c r="G46" s="78"/>
-      <c r="H46" s="78" t="s">
-        <v>150</v>
-      </c>
-      <c r="I46" s="78"/>
-      <c r="J46" s="78" t="s">
-        <v>229</v>
-      </c>
-      <c r="K46" s="78"/>
-      <c r="L46" s="116"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B47" s="106"/>
-      <c r="C47" s="78"/>
-      <c r="D47" s="78" t="s">
-        <v>223</v>
-      </c>
-      <c r="E47" s="78"/>
-      <c r="F47" s="78" t="s">
-        <v>230</v>
-      </c>
-      <c r="G47" s="78"/>
-      <c r="H47" s="78" t="s">
-        <v>224</v>
-      </c>
-      <c r="I47" s="78"/>
-      <c r="J47" s="78" t="s">
-        <v>231</v>
-      </c>
-      <c r="K47" s="78"/>
-      <c r="L47" s="116"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B48" s="203" t="s">
-        <v>269</v>
-      </c>
-      <c r="C48" s="78"/>
-      <c r="D48" s="78" t="s">
+      <c r="K47" s="92"/>
+      <c r="L47" s="99"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B48" s="205" t="s">
+        <v>264</v>
+      </c>
+      <c r="C48" s="92"/>
+      <c r="D48" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="E48" s="78"/>
-      <c r="F48" s="78"/>
-      <c r="G48" s="78"/>
-      <c r="H48" s="78"/>
-      <c r="I48" s="78"/>
-      <c r="J48" s="78"/>
-      <c r="K48" s="78"/>
-      <c r="L48" s="116"/>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B49" s="106"/>
-      <c r="C49" s="78"/>
+      <c r="E48" s="92"/>
+      <c r="F48" s="92"/>
+      <c r="G48" s="92"/>
+      <c r="H48" s="92"/>
+      <c r="I48" s="92"/>
+      <c r="J48" s="92"/>
+      <c r="K48" s="92"/>
+      <c r="L48" s="99"/>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B49" s="98"/>
+      <c r="C49" s="92"/>
       <c r="D49" s="19" t="s">
         <v>147</v>
       </c>
       <c r="E49" s="19"/>
-      <c r="F49" s="78" t="s">
+      <c r="F49" s="92" t="s">
         <v>151</v>
       </c>
-      <c r="G49" s="78"/>
-      <c r="H49" s="78" t="s">
-        <v>266</v>
-      </c>
-      <c r="I49" s="78"/>
-      <c r="J49" s="78" t="s">
+      <c r="G49" s="92"/>
+      <c r="H49" s="92" t="s">
+        <v>261</v>
+      </c>
+      <c r="I49" s="92"/>
+      <c r="J49" s="92" t="s">
         <v>149</v>
       </c>
-      <c r="K49" s="78"/>
-      <c r="L49" s="116"/>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B50" s="106"/>
-      <c r="C50" s="78"/>
-      <c r="D50" s="78" t="s">
+      <c r="K49" s="92"/>
+      <c r="L49" s="99"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B50" s="98"/>
+      <c r="C50" s="92"/>
+      <c r="D50" s="92" t="s">
         <v>150</v>
       </c>
-      <c r="E50" s="78"/>
-      <c r="F50" s="78" t="s">
+      <c r="E50" s="92"/>
+      <c r="F50" s="92" t="s">
         <v>153</v>
       </c>
-      <c r="G50" s="78"/>
-      <c r="H50" s="78"/>
-      <c r="I50" s="78"/>
-      <c r="J50" s="78"/>
-      <c r="K50" s="78"/>
-      <c r="L50" s="116"/>
-    </row>
-    <row r="51" spans="2:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B51" s="112"/>
-      <c r="C51" s="113"/>
-      <c r="D51" s="113" t="s">
-        <v>267</v>
-      </c>
-      <c r="E51" s="113"/>
-      <c r="F51" s="113"/>
-      <c r="G51" s="113"/>
-      <c r="H51" s="113" t="s">
-        <v>268</v>
-      </c>
-      <c r="I51" s="113"/>
-      <c r="J51" s="113"/>
-      <c r="K51" s="113"/>
-      <c r="L51" s="117"/>
+      <c r="G50" s="92"/>
+      <c r="H50" s="92"/>
+      <c r="I50" s="92"/>
+      <c r="J50" s="92"/>
+      <c r="K50" s="92"/>
+      <c r="L50" s="99"/>
+    </row>
+    <row r="51" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="100"/>
+      <c r="C51" s="101"/>
+      <c r="D51" s="101" t="s">
+        <v>262</v>
+      </c>
+      <c r="E51" s="101"/>
+      <c r="F51" s="101"/>
+      <c r="G51" s="101"/>
+      <c r="H51" s="101" t="s">
+        <v>263</v>
+      </c>
+      <c r="I51" s="101"/>
+      <c r="J51" s="101"/>
+      <c r="K51" s="101"/>
+      <c r="L51" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B37:L37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:L38"/>
-    <mergeCell ref="B39:C41"/>
-    <mergeCell ref="D39:L39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="D45:L45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="F50:L50"/>
+    <mergeCell ref="H51:L51"/>
+    <mergeCell ref="D48:L48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="J49:L49"/>
     <mergeCell ref="B48:C51"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="F41:G41"/>
@@ -10989,18 +11241,20 @@
     <mergeCell ref="H44:I44"/>
     <mergeCell ref="J44:L44"/>
     <mergeCell ref="B45:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="F50:L50"/>
-    <mergeCell ref="H51:L51"/>
-    <mergeCell ref="D48:L48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D45:L45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="B37:L37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:L38"/>
+    <mergeCell ref="B39:C41"/>
+    <mergeCell ref="D39:L39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:L40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
